--- a/public/DataSiswa/Siswa1.xlsx
+++ b/public/DataSiswa/Siswa1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SIMPEOSIS\public\DataSiswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A47D9F5-A0DD-4B33-AE75-8542E125870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB5071-CC89-4D02-A828-1AF4BF92AEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5494,7 +5494,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
@@ -5502,6 +5502,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5818,10 +5821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F594"/>
+  <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5834,7 +5837,7 @@
     <col min="6" max="1021" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -5853,8 +5856,9 @@
       <c r="F1" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -5873,8 +5877,9 @@
       <c r="F2" s="2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -5893,8 +5898,9 @@
       <c r="F3" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -5913,8 +5919,9 @@
       <c r="F4" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -5933,8 +5940,9 @@
       <c r="F5" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -5953,8 +5961,9 @@
       <c r="F6" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -5973,8 +5982,9 @@
       <c r="F7" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -5993,8 +6003,9 @@
       <c r="F8" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -6013,8 +6024,9 @@
       <c r="F9" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -6033,8 +6045,9 @@
       <c r="F10" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -6053,8 +6066,9 @@
       <c r="F11" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -6073,8 +6087,9 @@
       <c r="F12" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -6093,8 +6108,9 @@
       <c r="F13" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -6113,8 +6129,9 @@
       <c r="F14" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -6133,8 +6150,9 @@
       <c r="F15" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -6153,8 +6171,9 @@
       <c r="F16" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -6173,8 +6192,9 @@
       <c r="F17" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -6193,8 +6213,9 @@
       <c r="F18" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -6213,8 +6234,9 @@
       <c r="F19" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -6233,8 +6255,9 @@
       <c r="F20" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -6253,8 +6276,9 @@
       <c r="F21" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -6273,8 +6297,9 @@
       <c r="F22" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -6293,8 +6318,9 @@
       <c r="F23" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -6313,8 +6339,9 @@
       <c r="F24" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -6333,8 +6360,9 @@
       <c r="F25" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -6353,8 +6381,9 @@
       <c r="F26" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -6373,8 +6402,9 @@
       <c r="F27" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -6393,8 +6423,9 @@
       <c r="F28" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -6413,8 +6444,9 @@
       <c r="F29" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -6433,8 +6465,9 @@
       <c r="F30" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -6453,8 +6486,9 @@
       <c r="F31" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -6473,8 +6507,9 @@
       <c r="F32" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -6493,8 +6528,9 @@
       <c r="F33" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -6513,8 +6549,9 @@
       <c r="F34" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -6533,8 +6570,9 @@
       <c r="F35" s="2" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -6553,8 +6591,9 @@
       <c r="F36" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -6573,8 +6612,9 @@
       <c r="F37" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -6593,8 +6633,9 @@
       <c r="F38" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -6613,8 +6654,9 @@
       <c r="F39" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -6633,8 +6675,9 @@
       <c r="F40" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -6653,8 +6696,9 @@
       <c r="F41" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -6673,8 +6717,9 @@
       <c r="F42" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -6693,8 +6738,9 @@
       <c r="F43" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -6713,8 +6759,9 @@
       <c r="F44" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -6733,8 +6780,9 @@
       <c r="F45" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -6753,8 +6801,9 @@
       <c r="F46" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>48</v>
       </c>
@@ -6773,8 +6822,9 @@
       <c r="F47" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -6793,8 +6843,9 @@
       <c r="F48" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -6813,8 +6864,9 @@
       <c r="F49" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -6833,8 +6885,9 @@
       <c r="F50" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -6853,8 +6906,9 @@
       <c r="F51" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -6873,8 +6927,9 @@
       <c r="F52" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -6893,8 +6948,9 @@
       <c r="F53" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -6913,8 +6969,9 @@
       <c r="F54" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -6933,8 +6990,9 @@
       <c r="F55" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -6953,8 +7011,9 @@
       <c r="F56" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -6973,8 +7032,9 @@
       <c r="F57" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -6993,8 +7053,9 @@
       <c r="F58" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -7013,8 +7074,9 @@
       <c r="F59" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -7033,8 +7095,9 @@
       <c r="F60" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -7053,8 +7116,9 @@
       <c r="F61" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -7073,8 +7137,9 @@
       <c r="F62" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -7093,8 +7158,9 @@
       <c r="F63" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -7113,8 +7179,9 @@
       <c r="F64" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>66</v>
       </c>
@@ -7133,8 +7200,9 @@
       <c r="F65" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -7153,8 +7221,9 @@
       <c r="F66" s="2" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>68</v>
       </c>
@@ -7173,8 +7242,9 @@
       <c r="F67" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>69</v>
       </c>
@@ -7193,8 +7263,9 @@
       <c r="F68" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>70</v>
       </c>
@@ -7213,8 +7284,9 @@
       <c r="F69" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>71</v>
       </c>
@@ -7233,8 +7305,9 @@
       <c r="F70" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>72</v>
       </c>
@@ -7253,8 +7326,9 @@
       <c r="F71" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>73</v>
       </c>
@@ -7273,8 +7347,9 @@
       <c r="F72" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>74</v>
       </c>
@@ -7293,8 +7368,9 @@
       <c r="F73" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>75</v>
       </c>
@@ -7313,8 +7389,9 @@
       <c r="F74" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>76</v>
       </c>
@@ -7333,8 +7410,9 @@
       <c r="F75" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>77</v>
       </c>
@@ -7353,8 +7431,9 @@
       <c r="F76" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>78</v>
       </c>
@@ -7373,8 +7452,9 @@
       <c r="F77" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>79</v>
       </c>
@@ -7393,8 +7473,9 @@
       <c r="F78" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>80</v>
       </c>
@@ -7413,8 +7494,9 @@
       <c r="F79" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>81</v>
       </c>
@@ -7433,8 +7515,9 @@
       <c r="F80" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>82</v>
       </c>
@@ -7453,8 +7536,9 @@
       <c r="F81" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>83</v>
       </c>
@@ -7473,8 +7557,9 @@
       <c r="F82" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>84</v>
       </c>
@@ -7493,8 +7578,9 @@
       <c r="F83" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>85</v>
       </c>
@@ -7513,8 +7599,9 @@
       <c r="F84" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>86</v>
       </c>
@@ -7533,8 +7620,9 @@
       <c r="F85" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>87</v>
       </c>
@@ -7553,8 +7641,9 @@
       <c r="F86" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>88</v>
       </c>
@@ -7573,8 +7662,9 @@
       <c r="F87" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>89</v>
       </c>
@@ -7593,8 +7683,9 @@
       <c r="F88" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>90</v>
       </c>
@@ -7613,8 +7704,9 @@
       <c r="F89" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>91</v>
       </c>
@@ -7633,8 +7725,9 @@
       <c r="F90" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>92</v>
       </c>
@@ -7653,8 +7746,9 @@
       <c r="F91" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>93</v>
       </c>
@@ -7673,8 +7767,9 @@
       <c r="F92" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>94</v>
       </c>
@@ -7693,8 +7788,9 @@
       <c r="F93" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>95</v>
       </c>
@@ -7713,8 +7809,9 @@
       <c r="F94" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>96</v>
       </c>
@@ -7733,8 +7830,9 @@
       <c r="F95" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>97</v>
       </c>
@@ -7753,8 +7851,9 @@
       <c r="F96" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>98</v>
       </c>
@@ -7773,8 +7872,9 @@
       <c r="F97" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>99</v>
       </c>
@@ -7793,8 +7893,9 @@
       <c r="F98" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>100</v>
       </c>
@@ -7813,8 +7914,9 @@
       <c r="F99" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>101</v>
       </c>
@@ -7833,8 +7935,9 @@
       <c r="F100" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>102</v>
       </c>
@@ -7853,8 +7956,9 @@
       <c r="F101" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>103</v>
       </c>
@@ -7873,8 +7977,9 @@
       <c r="F102" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>104</v>
       </c>
@@ -7893,8 +7998,9 @@
       <c r="F103" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>105</v>
       </c>
@@ -7913,8 +8019,9 @@
       <c r="F104" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>106</v>
       </c>
@@ -7933,8 +8040,9 @@
       <c r="F105" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>107</v>
       </c>
@@ -7953,8 +8061,9 @@
       <c r="F106" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>108</v>
       </c>
@@ -7973,8 +8082,9 @@
       <c r="F107" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>109</v>
       </c>
@@ -7993,8 +8103,9 @@
       <c r="F108" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>110</v>
       </c>
@@ -8013,8 +8124,9 @@
       <c r="F109" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>111</v>
       </c>
@@ -8033,8 +8145,9 @@
       <c r="F110" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>112</v>
       </c>
@@ -8053,8 +8166,9 @@
       <c r="F111" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -8073,8 +8187,9 @@
       <c r="F112" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>114</v>
       </c>
@@ -8093,8 +8208,9 @@
       <c r="F113" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>115</v>
       </c>
@@ -8113,8 +8229,9 @@
       <c r="F114" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>116</v>
       </c>
@@ -8133,8 +8250,9 @@
       <c r="F115" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>117</v>
       </c>
@@ -8153,8 +8271,9 @@
       <c r="F116" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>118</v>
       </c>
@@ -8173,8 +8292,9 @@
       <c r="F117" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>119</v>
       </c>
@@ -8193,8 +8313,9 @@
       <c r="F118" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>120</v>
       </c>
@@ -8213,8 +8334,9 @@
       <c r="F119" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>121</v>
       </c>
@@ -8233,8 +8355,9 @@
       <c r="F120" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>122</v>
       </c>
@@ -8253,8 +8376,9 @@
       <c r="F121" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>123</v>
       </c>
@@ -8273,8 +8397,9 @@
       <c r="F122" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>124</v>
       </c>
@@ -8293,8 +8418,9 @@
       <c r="F123" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>125</v>
       </c>
@@ -8313,8 +8439,9 @@
       <c r="F124" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>126</v>
       </c>
@@ -8333,8 +8460,9 @@
       <c r="F125" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>127</v>
       </c>
@@ -8353,8 +8481,9 @@
       <c r="F126" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>128</v>
       </c>
@@ -8373,8 +8502,9 @@
       <c r="F127" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>129</v>
       </c>
@@ -8393,8 +8523,9 @@
       <c r="F128" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>130</v>
       </c>
@@ -8413,8 +8544,9 @@
       <c r="F129" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>131</v>
       </c>
@@ -8433,8 +8565,9 @@
       <c r="F130" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>132</v>
       </c>
@@ -8453,8 +8586,9 @@
       <c r="F131" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>133</v>
       </c>
@@ -8473,8 +8607,9 @@
       <c r="F132" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>134</v>
       </c>
@@ -8493,8 +8628,9 @@
       <c r="F133" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>135</v>
       </c>
@@ -8513,8 +8649,9 @@
       <c r="F134" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>136</v>
       </c>
@@ -8533,8 +8670,9 @@
       <c r="F135" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>137</v>
       </c>
@@ -8553,8 +8691,9 @@
       <c r="F136" s="2" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>138</v>
       </c>
@@ -8573,8 +8712,9 @@
       <c r="F137" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>139</v>
       </c>
@@ -8593,8 +8733,9 @@
       <c r="F138" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>140</v>
       </c>
@@ -8613,8 +8754,9 @@
       <c r="F139" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>141</v>
       </c>
@@ -8633,8 +8775,9 @@
       <c r="F140" s="2" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>142</v>
       </c>
@@ -8653,8 +8796,9 @@
       <c r="F141" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>143</v>
       </c>
@@ -8673,8 +8817,9 @@
       <c r="F142" s="2" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>144</v>
       </c>
@@ -8693,8 +8838,9 @@
       <c r="F143" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>145</v>
       </c>
@@ -8713,8 +8859,9 @@
       <c r="F144" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>146</v>
       </c>
@@ -8733,8 +8880,9 @@
       <c r="F145" s="2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>147</v>
       </c>
@@ -8753,8 +8901,9 @@
       <c r="F146" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>148</v>
       </c>
@@ -8773,8 +8922,9 @@
       <c r="F147" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>149</v>
       </c>
@@ -8793,8 +8943,9 @@
       <c r="F148" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>150</v>
       </c>
@@ -8813,8 +8964,9 @@
       <c r="F149" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>151</v>
       </c>
@@ -8833,8 +8985,9 @@
       <c r="F150" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>152</v>
       </c>
@@ -8853,8 +9006,9 @@
       <c r="F151" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>153</v>
       </c>
@@ -8873,8 +9027,9 @@
       <c r="F152" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>154</v>
       </c>
@@ -8893,8 +9048,9 @@
       <c r="F153" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>155</v>
       </c>
@@ -8913,8 +9069,9 @@
       <c r="F154" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>156</v>
       </c>
@@ -8933,8 +9090,9 @@
       <c r="F155" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>157</v>
       </c>
@@ -8953,8 +9111,9 @@
       <c r="F156" s="2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>158</v>
       </c>
@@ -8973,8 +9132,9 @@
       <c r="F157" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>159</v>
       </c>
@@ -8993,8 +9153,9 @@
       <c r="F158" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>160</v>
       </c>
@@ -9013,8 +9174,9 @@
       <c r="F159" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>161</v>
       </c>
@@ -9033,8 +9195,9 @@
       <c r="F160" s="2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>162</v>
       </c>
@@ -9053,8 +9216,9 @@
       <c r="F161" s="2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>163</v>
       </c>
@@ -9073,8 +9237,9 @@
       <c r="F162" s="2" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>164</v>
       </c>
@@ -9093,8 +9258,9 @@
       <c r="F163" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>165</v>
       </c>
@@ -9113,8 +9279,9 @@
       <c r="F164" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>166</v>
       </c>
@@ -9133,8 +9300,9 @@
       <c r="F165" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>167</v>
       </c>
@@ -9153,8 +9321,9 @@
       <c r="F166" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>168</v>
       </c>
@@ -9173,8 +9342,9 @@
       <c r="F167" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>169</v>
       </c>
@@ -9193,8 +9363,9 @@
       <c r="F168" s="2" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>170</v>
       </c>
@@ -9213,8 +9384,9 @@
       <c r="F169" s="2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>171</v>
       </c>
@@ -9233,8 +9405,9 @@
       <c r="F170" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>172</v>
       </c>
@@ -9253,8 +9426,9 @@
       <c r="F171" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>173</v>
       </c>
@@ -9273,8 +9447,9 @@
       <c r="F172" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>174</v>
       </c>
@@ -9293,8 +9468,9 @@
       <c r="F173" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>175</v>
       </c>
@@ -9313,8 +9489,9 @@
       <c r="F174" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>176</v>
       </c>
@@ -9333,8 +9510,9 @@
       <c r="F175" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>177</v>
       </c>
@@ -9353,8 +9531,9 @@
       <c r="F176" s="2" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>178</v>
       </c>
@@ -9373,8 +9552,9 @@
       <c r="F177" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>179</v>
       </c>
@@ -9393,8 +9573,9 @@
       <c r="F178" s="2" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>180</v>
       </c>
@@ -9413,8 +9594,9 @@
       <c r="F179" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>181</v>
       </c>
@@ -9433,8 +9615,9 @@
       <c r="F180" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>182</v>
       </c>
@@ -9453,8 +9636,9 @@
       <c r="F181" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>183</v>
       </c>
@@ -9473,8 +9657,9 @@
       <c r="F182" s="2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>184</v>
       </c>
@@ -9493,8 +9678,9 @@
       <c r="F183" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>185</v>
       </c>
@@ -9513,8 +9699,9 @@
       <c r="F184" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>186</v>
       </c>
@@ -9533,8 +9720,9 @@
       <c r="F185" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>187</v>
       </c>
@@ -9553,8 +9741,9 @@
       <c r="F186" s="2" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>188</v>
       </c>
@@ -9573,8 +9762,9 @@
       <c r="F187" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>189</v>
       </c>
@@ -9593,8 +9783,9 @@
       <c r="F188" s="2" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>190</v>
       </c>
@@ -9613,8 +9804,9 @@
       <c r="F189" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G189" s="8"/>
+    </row>
+    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>191</v>
       </c>
@@ -9633,8 +9825,9 @@
       <c r="F190" s="2" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G190" s="8"/>
+    </row>
+    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>192</v>
       </c>
@@ -9653,8 +9846,9 @@
       <c r="F191" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>193</v>
       </c>
@@ -9673,8 +9867,9 @@
       <c r="F192" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>194</v>
       </c>
@@ -9693,8 +9888,9 @@
       <c r="F193" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>195</v>
       </c>
@@ -9713,8 +9909,9 @@
       <c r="F194" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>196</v>
       </c>
@@ -9733,8 +9930,9 @@
       <c r="F195" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>197</v>
       </c>
@@ -9753,8 +9951,9 @@
       <c r="F196" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>198</v>
       </c>
@@ -9773,8 +9972,9 @@
       <c r="F197" s="2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>199</v>
       </c>
@@ -9793,8 +9993,9 @@
       <c r="F198" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>200</v>
       </c>
@@ -9813,8 +10014,9 @@
       <c r="F199" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>201</v>
       </c>
@@ -9833,8 +10035,9 @@
       <c r="F200" s="2" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>202</v>
       </c>
@@ -9853,8 +10056,9 @@
       <c r="F201" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>203</v>
       </c>
@@ -9873,8 +10077,9 @@
       <c r="F202" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>204</v>
       </c>
@@ -9893,8 +10098,9 @@
       <c r="F203" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>205</v>
       </c>
@@ -9913,8 +10119,9 @@
       <c r="F204" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>206</v>
       </c>
@@ -9933,8 +10140,9 @@
       <c r="F205" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>207</v>
       </c>
@@ -9953,8 +10161,9 @@
       <c r="F206" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G206" s="8"/>
+    </row>
+    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>208</v>
       </c>
@@ -9973,8 +10182,9 @@
       <c r="F207" s="2" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>209</v>
       </c>
@@ -9993,8 +10203,9 @@
       <c r="F208" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>210</v>
       </c>
@@ -10013,8 +10224,9 @@
       <c r="F209" s="2" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G209" s="8"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>211</v>
       </c>
@@ -10033,8 +10245,9 @@
       <c r="F210" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G210" s="8"/>
+    </row>
+    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>212</v>
       </c>
@@ -10053,8 +10266,9 @@
       <c r="F211" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G211" s="8"/>
+    </row>
+    <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>213</v>
       </c>
@@ -10073,8 +10287,9 @@
       <c r="F212" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G212" s="8"/>
+    </row>
+    <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>214</v>
       </c>
@@ -10093,8 +10308,9 @@
       <c r="F213" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G213" s="8"/>
+    </row>
+    <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>215</v>
       </c>
@@ -10113,8 +10329,9 @@
       <c r="F214" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>216</v>
       </c>
@@ -10133,8 +10350,9 @@
       <c r="F215" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G215" s="8"/>
+    </row>
+    <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>217</v>
       </c>
@@ -10153,8 +10371,9 @@
       <c r="F216" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G216" s="8"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>218</v>
       </c>
@@ -10173,8 +10392,9 @@
       <c r="F217" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G217" s="8"/>
+    </row>
+    <row r="218" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>219</v>
       </c>
@@ -10193,8 +10413,9 @@
       <c r="F218" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G218" s="8"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>220</v>
       </c>
@@ -10213,8 +10434,9 @@
       <c r="F219" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G219" s="8"/>
+    </row>
+    <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>221</v>
       </c>
@@ -10233,8 +10455,9 @@
       <c r="F220" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G220" s="8"/>
+    </row>
+    <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>222</v>
       </c>
@@ -10253,8 +10476,9 @@
       <c r="F221" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G221" s="8"/>
+    </row>
+    <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>223</v>
       </c>
@@ -10273,8 +10497,9 @@
       <c r="F222" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G222" s="8"/>
+    </row>
+    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>224</v>
       </c>
@@ -10293,8 +10518,9 @@
       <c r="F223" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G223" s="8"/>
+    </row>
+    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>225</v>
       </c>
@@ -10313,8 +10539,9 @@
       <c r="F224" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G224" s="8"/>
+    </row>
+    <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>226</v>
       </c>
@@ -10333,8 +10560,9 @@
       <c r="F225" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G225" s="8"/>
+    </row>
+    <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>227</v>
       </c>
@@ -10353,8 +10581,9 @@
       <c r="F226" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G226" s="8"/>
+    </row>
+    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>228</v>
       </c>
@@ -10373,8 +10602,9 @@
       <c r="F227" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G227" s="8"/>
+    </row>
+    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>229</v>
       </c>
@@ -10393,8 +10623,9 @@
       <c r="F228" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G228" s="8"/>
+    </row>
+    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>230</v>
       </c>
@@ -10413,8 +10644,9 @@
       <c r="F229" s="2" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G229" s="8"/>
+    </row>
+    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>231</v>
       </c>
@@ -10433,8 +10665,9 @@
       <c r="F230" s="2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G230" s="8"/>
+    </row>
+    <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>232</v>
       </c>
@@ -10453,8 +10686,9 @@
       <c r="F231" s="2" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G231" s="8"/>
+    </row>
+    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>233</v>
       </c>
@@ -10473,8 +10707,9 @@
       <c r="F232" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G232" s="8"/>
+    </row>
+    <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>234</v>
       </c>
@@ -10493,8 +10728,9 @@
       <c r="F233" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G233" s="8"/>
+    </row>
+    <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>235</v>
       </c>
@@ -10513,8 +10749,9 @@
       <c r="F234" s="2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G234" s="8"/>
+    </row>
+    <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>236</v>
       </c>
@@ -10533,8 +10770,9 @@
       <c r="F235" s="2" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G235" s="8"/>
+    </row>
+    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>237</v>
       </c>
@@ -10553,8 +10791,9 @@
       <c r="F236" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G236" s="8"/>
+    </row>
+    <row r="237" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>238</v>
       </c>
@@ -10573,8 +10812,9 @@
       <c r="F237" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G237" s="8"/>
+    </row>
+    <row r="238" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>239</v>
       </c>
@@ -10593,8 +10833,9 @@
       <c r="F238" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G238" s="8"/>
+    </row>
+    <row r="239" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>240</v>
       </c>
@@ -10613,8 +10854,9 @@
       <c r="F239" s="2" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G239" s="8"/>
+    </row>
+    <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>241</v>
       </c>
@@ -10633,8 +10875,9 @@
       <c r="F240" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G240" s="8"/>
+    </row>
+    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>242</v>
       </c>
@@ -10653,8 +10896,9 @@
       <c r="F241" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G241" s="8"/>
+    </row>
+    <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>243</v>
       </c>
@@ -10673,8 +10917,9 @@
       <c r="F242" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G242" s="8"/>
+    </row>
+    <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>244</v>
       </c>
@@ -10693,8 +10938,9 @@
       <c r="F243" s="2" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G243" s="8"/>
+    </row>
+    <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>245</v>
       </c>
@@ -10713,8 +10959,9 @@
       <c r="F244" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G244" s="8"/>
+    </row>
+    <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>246</v>
       </c>
@@ -10733,8 +10980,9 @@
       <c r="F245" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G245" s="8"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>247</v>
       </c>
@@ -10753,8 +11001,9 @@
       <c r="F246" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G246" s="8"/>
+    </row>
+    <row r="247" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>248</v>
       </c>
@@ -10773,8 +11022,9 @@
       <c r="F247" s="2" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G247" s="8"/>
+    </row>
+    <row r="248" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>249</v>
       </c>
@@ -10793,8 +11043,9 @@
       <c r="F248" s="2" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G248" s="8"/>
+    </row>
+    <row r="249" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>250</v>
       </c>
@@ -10813,8 +11064,9 @@
       <c r="F249" s="2" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G249" s="8"/>
+    </row>
+    <row r="250" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>251</v>
       </c>
@@ -10833,8 +11085,9 @@
       <c r="F250" s="2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G250" s="8"/>
+    </row>
+    <row r="251" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>252</v>
       </c>
@@ -10853,8 +11106,9 @@
       <c r="F251" s="2" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G251" s="8"/>
+    </row>
+    <row r="252" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>253</v>
       </c>
@@ -10873,8 +11127,9 @@
       <c r="F252" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G252" s="8"/>
+    </row>
+    <row r="253" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>254</v>
       </c>
@@ -10893,8 +11148,9 @@
       <c r="F253" s="2" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G253" s="8"/>
+    </row>
+    <row r="254" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>255</v>
       </c>
@@ -10913,8 +11169,9 @@
       <c r="F254" s="2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G254" s="8"/>
+    </row>
+    <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>256</v>
       </c>
@@ -10933,8 +11190,9 @@
       <c r="F255" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G255" s="8"/>
+    </row>
+    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>257</v>
       </c>
@@ -10953,8 +11211,9 @@
       <c r="F256" s="2" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G256" s="8"/>
+    </row>
+    <row r="257" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>258</v>
       </c>
@@ -10973,8 +11232,9 @@
       <c r="F257" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G257" s="8"/>
+    </row>
+    <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>259</v>
       </c>
@@ -10993,8 +11253,9 @@
       <c r="F258" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G258" s="8"/>
+    </row>
+    <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>260</v>
       </c>
@@ -11013,8 +11274,9 @@
       <c r="F259" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G259" s="8"/>
+    </row>
+    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>261</v>
       </c>
@@ -11033,8 +11295,9 @@
       <c r="F260" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G260" s="8"/>
+    </row>
+    <row r="261" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>262</v>
       </c>
@@ -11053,8 +11316,9 @@
       <c r="F261" s="2" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G261" s="8"/>
+    </row>
+    <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>263</v>
       </c>
@@ -11073,8 +11337,9 @@
       <c r="F262" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G262" s="8"/>
+    </row>
+    <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>264</v>
       </c>
@@ -11093,8 +11358,9 @@
       <c r="F263" s="2" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G263" s="8"/>
+    </row>
+    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>265</v>
       </c>
@@ -11113,8 +11379,9 @@
       <c r="F264" s="2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G264" s="8"/>
+    </row>
+    <row r="265" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>266</v>
       </c>
@@ -11133,8 +11400,9 @@
       <c r="F265" s="2" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G265" s="8"/>
+    </row>
+    <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>267</v>
       </c>
@@ -11153,8 +11421,9 @@
       <c r="F266" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G266" s="8"/>
+    </row>
+    <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>268</v>
       </c>
@@ -11173,8 +11442,9 @@
       <c r="F267" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G267" s="8"/>
+    </row>
+    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>269</v>
       </c>
@@ -11193,8 +11463,9 @@
       <c r="F268" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G268" s="8"/>
+    </row>
+    <row r="269" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>270</v>
       </c>
@@ -11213,8 +11484,9 @@
       <c r="F269" s="2" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G269" s="8"/>
+    </row>
+    <row r="270" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>271</v>
       </c>
@@ -11233,8 +11505,9 @@
       <c r="F270" s="2" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G270" s="8"/>
+    </row>
+    <row r="271" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>272</v>
       </c>
@@ -11253,8 +11526,9 @@
       <c r="F271" s="2" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G271" s="8"/>
+    </row>
+    <row r="272" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>273</v>
       </c>
@@ -11273,8 +11547,9 @@
       <c r="F272" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G272" s="8"/>
+    </row>
+    <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>274</v>
       </c>
@@ -11293,8 +11568,9 @@
       <c r="F273" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G273" s="8"/>
+    </row>
+    <row r="274" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>275</v>
       </c>
@@ -11313,8 +11589,9 @@
       <c r="F274" s="2" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G274" s="8"/>
+    </row>
+    <row r="275" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>276</v>
       </c>
@@ -11333,8 +11610,9 @@
       <c r="F275" s="2" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G275" s="8"/>
+    </row>
+    <row r="276" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>277</v>
       </c>
@@ -11353,8 +11631,9 @@
       <c r="F276" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G276" s="8"/>
+    </row>
+    <row r="277" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>278</v>
       </c>
@@ -11373,8 +11652,9 @@
       <c r="F277" s="2" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G277" s="8"/>
+    </row>
+    <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>279</v>
       </c>
@@ -11393,8 +11673,9 @@
       <c r="F278" s="2" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G278" s="8"/>
+    </row>
+    <row r="279" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>280</v>
       </c>
@@ -11413,8 +11694,9 @@
       <c r="F279" s="2" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G279" s="8"/>
+    </row>
+    <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>281</v>
       </c>
@@ -11433,8 +11715,9 @@
       <c r="F280" s="2" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G280" s="8"/>
+    </row>
+    <row r="281" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>282</v>
       </c>
@@ -11453,8 +11736,9 @@
       <c r="F281" s="2" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G281" s="8"/>
+    </row>
+    <row r="282" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>283</v>
       </c>
@@ -11473,8 +11757,9 @@
       <c r="F282" s="2" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G282" s="8"/>
+    </row>
+    <row r="283" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>284</v>
       </c>
@@ -11493,8 +11778,9 @@
       <c r="F283" s="2" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G283" s="8"/>
+    </row>
+    <row r="284" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>285</v>
       </c>
@@ -11513,8 +11799,9 @@
       <c r="F284" s="2" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G284" s="8"/>
+    </row>
+    <row r="285" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>286</v>
       </c>
@@ -11533,8 +11820,9 @@
       <c r="F285" s="2" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G285" s="8"/>
+    </row>
+    <row r="286" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>287</v>
       </c>
@@ -11553,8 +11841,9 @@
       <c r="F286" s="2" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G286" s="8"/>
+    </row>
+    <row r="287" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>288</v>
       </c>
@@ -11573,8 +11862,9 @@
       <c r="F287" s="2" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G287" s="8"/>
+    </row>
+    <row r="288" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>289</v>
       </c>
@@ -11593,8 +11883,9 @@
       <c r="F288" s="2" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G288" s="8"/>
+    </row>
+    <row r="289" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>290</v>
       </c>
@@ -11613,8 +11904,9 @@
       <c r="F289" s="2" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G289" s="8"/>
+    </row>
+    <row r="290" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>291</v>
       </c>
@@ -11633,8 +11925,9 @@
       <c r="F290" s="2" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G290" s="8"/>
+    </row>
+    <row r="291" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>292</v>
       </c>
@@ -11653,8 +11946,9 @@
       <c r="F291" s="2" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G291" s="8"/>
+    </row>
+    <row r="292" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>293</v>
       </c>
@@ -11673,8 +11967,9 @@
       <c r="F292" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G292" s="8"/>
+    </row>
+    <row r="293" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>294</v>
       </c>
@@ -11693,8 +11988,9 @@
       <c r="F293" s="2" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G293" s="8"/>
+    </row>
+    <row r="294" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>295</v>
       </c>
@@ -11713,8 +12009,9 @@
       <c r="F294" s="2" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G294" s="8"/>
+    </row>
+    <row r="295" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>296</v>
       </c>
@@ -11733,8 +12030,9 @@
       <c r="F295" s="2" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G295" s="8"/>
+    </row>
+    <row r="296" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>297</v>
       </c>
@@ -11753,8 +12051,9 @@
       <c r="F296" s="2" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G296" s="8"/>
+    </row>
+    <row r="297" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>298</v>
       </c>
@@ -11773,8 +12072,9 @@
       <c r="F297" s="2" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G297" s="8"/>
+    </row>
+    <row r="298" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>299</v>
       </c>
@@ -11793,8 +12093,9 @@
       <c r="F298" s="2" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G298" s="8"/>
+    </row>
+    <row r="299" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>300</v>
       </c>
@@ -11813,8 +12114,9 @@
       <c r="F299" s="2" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G299" s="8"/>
+    </row>
+    <row r="300" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>301</v>
       </c>
@@ -11833,8 +12135,9 @@
       <c r="F300" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G300" s="8"/>
+    </row>
+    <row r="301" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>302</v>
       </c>
@@ -11853,8 +12156,9 @@
       <c r="F301" s="2" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G301" s="8"/>
+    </row>
+    <row r="302" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>303</v>
       </c>
@@ -11873,8 +12177,9 @@
       <c r="F302" s="2" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G302" s="8"/>
+    </row>
+    <row r="303" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>304</v>
       </c>
@@ -11893,8 +12198,9 @@
       <c r="F303" s="2" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G303" s="8"/>
+    </row>
+    <row r="304" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>305</v>
       </c>
@@ -11913,8 +12219,9 @@
       <c r="F304" s="2" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G304" s="8"/>
+    </row>
+    <row r="305" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>306</v>
       </c>
@@ -11933,8 +12240,9 @@
       <c r="F305" s="2" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G305" s="8"/>
+    </row>
+    <row r="306" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>307</v>
       </c>
@@ -11953,8 +12261,9 @@
       <c r="F306" s="2" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G306" s="8"/>
+    </row>
+    <row r="307" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>308</v>
       </c>
@@ -11973,8 +12282,9 @@
       <c r="F307" s="2" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G307" s="8"/>
+    </row>
+    <row r="308" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>309</v>
       </c>
@@ -11993,8 +12303,9 @@
       <c r="F308" s="2" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G308" s="8"/>
+    </row>
+    <row r="309" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>310</v>
       </c>
@@ -12013,8 +12324,9 @@
       <c r="F309" s="2" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G309" s="8"/>
+    </row>
+    <row r="310" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>311</v>
       </c>
@@ -12033,8 +12345,9 @@
       <c r="F310" s="2" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G310" s="8"/>
+    </row>
+    <row r="311" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>312</v>
       </c>
@@ -12053,8 +12366,9 @@
       <c r="F311" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G311" s="8"/>
+    </row>
+    <row r="312" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>313</v>
       </c>
@@ -12073,8 +12387,9 @@
       <c r="F312" s="2" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G312" s="8"/>
+    </row>
+    <row r="313" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>314</v>
       </c>
@@ -12093,8 +12408,9 @@
       <c r="F313" s="2" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G313" s="8"/>
+    </row>
+    <row r="314" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>315</v>
       </c>
@@ -12113,8 +12429,9 @@
       <c r="F314" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G314" s="8"/>
+    </row>
+    <row r="315" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>316</v>
       </c>
@@ -12133,8 +12450,9 @@
       <c r="F315" s="2" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G315" s="8"/>
+    </row>
+    <row r="316" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>317</v>
       </c>
@@ -12153,8 +12471,9 @@
       <c r="F316" s="2" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G316" s="8"/>
+    </row>
+    <row r="317" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>318</v>
       </c>
@@ -12173,8 +12492,9 @@
       <c r="F317" s="2" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G317" s="8"/>
+    </row>
+    <row r="318" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>319</v>
       </c>
@@ -12193,8 +12513,9 @@
       <c r="F318" s="2" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G318" s="8"/>
+    </row>
+    <row r="319" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>320</v>
       </c>
@@ -12213,8 +12534,9 @@
       <c r="F319" s="2" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G319" s="8"/>
+    </row>
+    <row r="320" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>321</v>
       </c>
@@ -12233,8 +12555,9 @@
       <c r="F320" s="2" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G320" s="8"/>
+    </row>
+    <row r="321" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>322</v>
       </c>
@@ -12253,8 +12576,9 @@
       <c r="F321" s="2" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G321" s="8"/>
+    </row>
+    <row r="322" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>323</v>
       </c>
@@ -12273,8 +12597,9 @@
       <c r="F322" s="2" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G322" s="8"/>
+    </row>
+    <row r="323" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>324</v>
       </c>
@@ -12293,8 +12618,9 @@
       <c r="F323" s="2" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G323" s="8"/>
+    </row>
+    <row r="324" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>325</v>
       </c>
@@ -12313,8 +12639,9 @@
       <c r="F324" s="2" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G324" s="8"/>
+    </row>
+    <row r="325" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>326</v>
       </c>
@@ -12333,8 +12660,9 @@
       <c r="F325" s="2" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G325" s="8"/>
+    </row>
+    <row r="326" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>327</v>
       </c>
@@ -12353,8 +12681,9 @@
       <c r="F326" s="2" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G326" s="8"/>
+    </row>
+    <row r="327" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>328</v>
       </c>
@@ -12373,8 +12702,9 @@
       <c r="F327" s="2" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G327" s="8"/>
+    </row>
+    <row r="328" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>329</v>
       </c>
@@ -12393,8 +12723,9 @@
       <c r="F328" s="2" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G328" s="8"/>
+    </row>
+    <row r="329" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>330</v>
       </c>
@@ -12413,8 +12744,9 @@
       <c r="F329" s="2" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G329" s="8"/>
+    </row>
+    <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>331</v>
       </c>
@@ -12433,8 +12765,9 @@
       <c r="F330" s="2" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G330" s="8"/>
+    </row>
+    <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>332</v>
       </c>
@@ -12453,8 +12786,9 @@
       <c r="F331" s="2" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G331" s="8"/>
+    </row>
+    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>333</v>
       </c>
@@ -12473,8 +12807,9 @@
       <c r="F332" s="2" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G332" s="8"/>
+    </row>
+    <row r="333" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>334</v>
       </c>
@@ -12493,8 +12828,9 @@
       <c r="F333" s="2" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G333" s="8"/>
+    </row>
+    <row r="334" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>335</v>
       </c>
@@ -12513,8 +12849,9 @@
       <c r="F334" s="2" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G334" s="8"/>
+    </row>
+    <row r="335" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>336</v>
       </c>
@@ -12533,8 +12870,9 @@
       <c r="F335" s="2" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G335" s="8"/>
+    </row>
+    <row r="336" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>337</v>
       </c>
@@ -12553,8 +12891,9 @@
       <c r="F336" s="2" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G336" s="8"/>
+    </row>
+    <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>338</v>
       </c>
@@ -12573,8 +12912,9 @@
       <c r="F337" s="2" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G337" s="8"/>
+    </row>
+    <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>339</v>
       </c>
@@ -12593,8 +12933,9 @@
       <c r="F338" s="2" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G338" s="8"/>
+    </row>
+    <row r="339" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>340</v>
       </c>
@@ -12613,8 +12954,9 @@
       <c r="F339" s="2" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G339" s="8"/>
+    </row>
+    <row r="340" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>341</v>
       </c>
@@ -12633,8 +12975,9 @@
       <c r="F340" s="2" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G340" s="8"/>
+    </row>
+    <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>342</v>
       </c>
@@ -12653,8 +12996,9 @@
       <c r="F341" s="2" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G341" s="8"/>
+    </row>
+    <row r="342" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>343</v>
       </c>
@@ -12673,8 +13017,9 @@
       <c r="F342" s="2" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G342" s="8"/>
+    </row>
+    <row r="343" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>344</v>
       </c>
@@ -12693,8 +13038,9 @@
       <c r="F343" s="2" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G343" s="8"/>
+    </row>
+    <row r="344" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>345</v>
       </c>
@@ -12713,8 +13059,9 @@
       <c r="F344" s="2" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G344" s="8"/>
+    </row>
+    <row r="345" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>346</v>
       </c>
@@ -12733,8 +13080,9 @@
       <c r="F345" s="2" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G345" s="8"/>
+    </row>
+    <row r="346" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>347</v>
       </c>
@@ -12753,8 +13101,9 @@
       <c r="F346" s="2" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G346" s="8"/>
+    </row>
+    <row r="347" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>348</v>
       </c>
@@ -12773,8 +13122,9 @@
       <c r="F347" s="2" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G347" s="8"/>
+    </row>
+    <row r="348" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>349</v>
       </c>
@@ -12793,8 +13143,9 @@
       <c r="F348" s="2" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G348" s="8"/>
+    </row>
+    <row r="349" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>350</v>
       </c>
@@ -12813,8 +13164,9 @@
       <c r="F349" s="2" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G349" s="8"/>
+    </row>
+    <row r="350" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>351</v>
       </c>
@@ -12833,8 +13185,9 @@
       <c r="F350" s="2" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G350" s="8"/>
+    </row>
+    <row r="351" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>352</v>
       </c>
@@ -12853,8 +13206,9 @@
       <c r="F351" s="2" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G351" s="8"/>
+    </row>
+    <row r="352" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>353</v>
       </c>
@@ -12873,8 +13227,9 @@
       <c r="F352" s="2" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G352" s="8"/>
+    </row>
+    <row r="353" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>354</v>
       </c>
@@ -12893,8 +13248,9 @@
       <c r="F353" s="2" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G353" s="8"/>
+    </row>
+    <row r="354" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>355</v>
       </c>
@@ -12913,8 +13269,9 @@
       <c r="F354" s="2" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G354" s="8"/>
+    </row>
+    <row r="355" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>356</v>
       </c>
@@ -12933,8 +13290,9 @@
       <c r="F355" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G355" s="8"/>
+    </row>
+    <row r="356" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>357</v>
       </c>
@@ -12953,8 +13311,9 @@
       <c r="F356" s="2" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G356" s="8"/>
+    </row>
+    <row r="357" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>358</v>
       </c>
@@ -12973,8 +13332,9 @@
       <c r="F357" s="2" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G357" s="8"/>
+    </row>
+    <row r="358" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>359</v>
       </c>
@@ -12993,8 +13353,9 @@
       <c r="F358" s="2" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G358" s="8"/>
+    </row>
+    <row r="359" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>360</v>
       </c>
@@ -13013,8 +13374,9 @@
       <c r="F359" s="2" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G359" s="8"/>
+    </row>
+    <row r="360" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>361</v>
       </c>
@@ -13033,8 +13395,9 @@
       <c r="F360" s="2" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G360" s="8"/>
+    </row>
+    <row r="361" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>362</v>
       </c>
@@ -13053,8 +13416,9 @@
       <c r="F361" s="2" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G361" s="8"/>
+    </row>
+    <row r="362" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>363</v>
       </c>
@@ -13073,8 +13437,9 @@
       <c r="F362" s="2" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G362" s="8"/>
+    </row>
+    <row r="363" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>364</v>
       </c>
@@ -13093,8 +13458,9 @@
       <c r="F363" s="2" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G363" s="8"/>
+    </row>
+    <row r="364" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>365</v>
       </c>
@@ -13113,8 +13479,9 @@
       <c r="F364" s="2" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G364" s="8"/>
+    </row>
+    <row r="365" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>366</v>
       </c>
@@ -13133,8 +13500,9 @@
       <c r="F365" s="2" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G365" s="8"/>
+    </row>
+    <row r="366" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>367</v>
       </c>
@@ -13153,8 +13521,9 @@
       <c r="F366" s="2" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G366" s="8"/>
+    </row>
+    <row r="367" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>368</v>
       </c>
@@ -13173,8 +13542,9 @@
       <c r="F367" s="2" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G367" s="8"/>
+    </row>
+    <row r="368" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>369</v>
       </c>
@@ -13193,8 +13563,9 @@
       <c r="F368" s="2" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G368" s="8"/>
+    </row>
+    <row r="369" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>370</v>
       </c>
@@ -13213,8 +13584,9 @@
       <c r="F369" s="2" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G369" s="8"/>
+    </row>
+    <row r="370" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>371</v>
       </c>
@@ -13233,8 +13605,9 @@
       <c r="F370" s="2" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G370" s="8"/>
+    </row>
+    <row r="371" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>372</v>
       </c>
@@ -13253,8 +13626,9 @@
       <c r="F371" s="2" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G371" s="8"/>
+    </row>
+    <row r="372" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>373</v>
       </c>
@@ -13273,8 +13647,9 @@
       <c r="F372" s="2" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G372" s="8"/>
+    </row>
+    <row r="373" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>374</v>
       </c>
@@ -13293,8 +13668,9 @@
       <c r="F373" s="2" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G373" s="8"/>
+    </row>
+    <row r="374" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>375</v>
       </c>
@@ -13313,8 +13689,9 @@
       <c r="F374" s="2" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G374" s="8"/>
+    </row>
+    <row r="375" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>376</v>
       </c>
@@ -13333,8 +13710,9 @@
       <c r="F375" s="2" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G375" s="8"/>
+    </row>
+    <row r="376" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>377</v>
       </c>
@@ -13353,8 +13731,9 @@
       <c r="F376" s="2" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G376" s="8"/>
+    </row>
+    <row r="377" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>378</v>
       </c>
@@ -13373,8 +13752,9 @@
       <c r="F377" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G377" s="8"/>
+    </row>
+    <row r="378" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>379</v>
       </c>
@@ -13393,8 +13773,9 @@
       <c r="F378" s="2" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G378" s="8"/>
+    </row>
+    <row r="379" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>380</v>
       </c>
@@ -13413,8 +13794,9 @@
       <c r="F379" s="2" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G379" s="8"/>
+    </row>
+    <row r="380" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>381</v>
       </c>
@@ -13433,8 +13815,9 @@
       <c r="F380" s="2" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G380" s="8"/>
+    </row>
+    <row r="381" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>382</v>
       </c>
@@ -13453,8 +13836,9 @@
       <c r="F381" s="2" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G381" s="8"/>
+    </row>
+    <row r="382" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>383</v>
       </c>
@@ -13473,8 +13857,9 @@
       <c r="F382" s="2" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G382" s="8"/>
+    </row>
+    <row r="383" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>384</v>
       </c>
@@ -13493,8 +13878,9 @@
       <c r="F383" s="2" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G383" s="8"/>
+    </row>
+    <row r="384" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>385</v>
       </c>
@@ -13513,8 +13899,9 @@
       <c r="F384" s="2" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G384" s="8"/>
+    </row>
+    <row r="385" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>386</v>
       </c>
@@ -13533,8 +13920,9 @@
       <c r="F385" s="2" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G385" s="8"/>
+    </row>
+    <row r="386" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>387</v>
       </c>
@@ -13553,8 +13941,9 @@
       <c r="F386" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G386" s="8"/>
+    </row>
+    <row r="387" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>388</v>
       </c>
@@ -13573,8 +13962,9 @@
       <c r="F387" s="2" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G387" s="8"/>
+    </row>
+    <row r="388" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>389</v>
       </c>
@@ -13593,8 +13983,9 @@
       <c r="F388" s="2" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G388" s="8"/>
+    </row>
+    <row r="389" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>390</v>
       </c>
@@ -13613,8 +14004,9 @@
       <c r="F389" s="2" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G389" s="8"/>
+    </row>
+    <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>391</v>
       </c>
@@ -13633,8 +14025,9 @@
       <c r="F390" s="2" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G390" s="8"/>
+    </row>
+    <row r="391" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>392</v>
       </c>
@@ -13653,8 +14046,9 @@
       <c r="F391" s="2" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G391" s="8"/>
+    </row>
+    <row r="392" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>393</v>
       </c>
@@ -13673,8 +14067,9 @@
       <c r="F392" s="2" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G392" s="8"/>
+    </row>
+    <row r="393" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>394</v>
       </c>
@@ -13693,8 +14088,9 @@
       <c r="F393" s="2" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G393" s="8"/>
+    </row>
+    <row r="394" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>395</v>
       </c>
@@ -13713,8 +14109,9 @@
       <c r="F394" s="2" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G394" s="8"/>
+    </row>
+    <row r="395" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>396</v>
       </c>
@@ -13733,8 +14130,9 @@
       <c r="F395" s="2" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G395" s="8"/>
+    </row>
+    <row r="396" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>397</v>
       </c>
@@ -13753,8 +14151,9 @@
       <c r="F396" s="2" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G396" s="8"/>
+    </row>
+    <row r="397" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>398</v>
       </c>
@@ -13773,8 +14172,9 @@
       <c r="F397" s="2" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G397" s="8"/>
+    </row>
+    <row r="398" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>399</v>
       </c>
@@ -13793,8 +14193,9 @@
       <c r="F398" s="2" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G398" s="8"/>
+    </row>
+    <row r="399" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>400</v>
       </c>
@@ -13813,8 +14214,9 @@
       <c r="F399" s="2" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G399" s="8"/>
+    </row>
+    <row r="400" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>401</v>
       </c>
@@ -13833,8 +14235,9 @@
       <c r="F400" s="2" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G400" s="8"/>
+    </row>
+    <row r="401" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>402</v>
       </c>
@@ -13853,8 +14256,9 @@
       <c r="F401" s="2" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G401" s="8"/>
+    </row>
+    <row r="402" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>403</v>
       </c>
@@ -13873,8 +14277,9 @@
       <c r="F402" s="2" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G402" s="8"/>
+    </row>
+    <row r="403" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>404</v>
       </c>
@@ -13893,8 +14298,9 @@
       <c r="F403" s="2" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G403" s="8"/>
+    </row>
+    <row r="404" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>405</v>
       </c>
@@ -13913,8 +14319,9 @@
       <c r="F404" s="2" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G404" s="8"/>
+    </row>
+    <row r="405" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>406</v>
       </c>
@@ -13933,8 +14340,9 @@
       <c r="F405" s="2" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G405" s="8"/>
+    </row>
+    <row r="406" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>407</v>
       </c>
@@ -13953,8 +14361,9 @@
       <c r="F406" s="2" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G406" s="8"/>
+    </row>
+    <row r="407" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>408</v>
       </c>
@@ -13973,8 +14382,9 @@
       <c r="F407" s="2" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G407" s="8"/>
+    </row>
+    <row r="408" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>409</v>
       </c>
@@ -13993,8 +14403,9 @@
       <c r="F408" s="2" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G408" s="8"/>
+    </row>
+    <row r="409" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>410</v>
       </c>
@@ -14013,8 +14424,9 @@
       <c r="F409" s="2" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G409" s="8"/>
+    </row>
+    <row r="410" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>411</v>
       </c>
@@ -14033,8 +14445,9 @@
       <c r="F410" s="2" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G410" s="8"/>
+    </row>
+    <row r="411" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>412</v>
       </c>
@@ -14053,8 +14466,9 @@
       <c r="F411" s="2" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G411" s="8"/>
+    </row>
+    <row r="412" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>413</v>
       </c>
@@ -14073,8 +14487,9 @@
       <c r="F412" s="2" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G412" s="8"/>
+    </row>
+    <row r="413" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>414</v>
       </c>
@@ -14093,8 +14508,9 @@
       <c r="F413" s="2" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G413" s="8"/>
+    </row>
+    <row r="414" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>415</v>
       </c>
@@ -14113,8 +14529,9 @@
       <c r="F414" s="2" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G414" s="8"/>
+    </row>
+    <row r="415" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>416</v>
       </c>
@@ -14133,8 +14550,9 @@
       <c r="F415" s="2" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G415" s="8"/>
+    </row>
+    <row r="416" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>417</v>
       </c>
@@ -14153,8 +14571,9 @@
       <c r="F416" s="2" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G416" s="8"/>
+    </row>
+    <row r="417" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>418</v>
       </c>
@@ -14173,8 +14592,9 @@
       <c r="F417" s="2" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G417" s="8"/>
+    </row>
+    <row r="418" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>419</v>
       </c>
@@ -14193,8 +14613,9 @@
       <c r="F418" s="2" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G418" s="8"/>
+    </row>
+    <row r="419" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>420</v>
       </c>
@@ -14213,8 +14634,9 @@
       <c r="F419" s="2" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G419" s="8"/>
+    </row>
+    <row r="420" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>421</v>
       </c>
@@ -14233,8 +14655,9 @@
       <c r="F420" s="2" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G420" s="8"/>
+    </row>
+    <row r="421" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>422</v>
       </c>
@@ -14253,8 +14676,9 @@
       <c r="F421" s="2" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G421" s="8"/>
+    </row>
+    <row r="422" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>423</v>
       </c>
@@ -14273,8 +14697,9 @@
       <c r="F422" s="2" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G422" s="8"/>
+    </row>
+    <row r="423" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>424</v>
       </c>
@@ -14293,8 +14718,9 @@
       <c r="F423" s="2" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G423" s="8"/>
+    </row>
+    <row r="424" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>425</v>
       </c>
@@ -14313,8 +14739,9 @@
       <c r="F424" s="2" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G424" s="8"/>
+    </row>
+    <row r="425" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>426</v>
       </c>
@@ -14333,8 +14760,9 @@
       <c r="F425" s="2" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G425" s="8"/>
+    </row>
+    <row r="426" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>427</v>
       </c>
@@ -14353,8 +14781,9 @@
       <c r="F426" s="2" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G426" s="8"/>
+    </row>
+    <row r="427" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>428</v>
       </c>
@@ -14373,8 +14802,9 @@
       <c r="F427" s="2" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G427" s="8"/>
+    </row>
+    <row r="428" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>429</v>
       </c>
@@ -14393,8 +14823,9 @@
       <c r="F428" s="2" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G428" s="8"/>
+    </row>
+    <row r="429" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>430</v>
       </c>
@@ -14413,8 +14844,9 @@
       <c r="F429" s="2" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G429" s="8"/>
+    </row>
+    <row r="430" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>431</v>
       </c>
@@ -14433,8 +14865,9 @@
       <c r="F430" s="2" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G430" s="8"/>
+    </row>
+    <row r="431" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>432</v>
       </c>
@@ -14453,8 +14886,9 @@
       <c r="F431" s="2" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G431" s="8"/>
+    </row>
+    <row r="432" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>433</v>
       </c>
@@ -14473,8 +14907,9 @@
       <c r="F432" s="2" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G432" s="8"/>
+    </row>
+    <row r="433" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>434</v>
       </c>
@@ -14493,8 +14928,9 @@
       <c r="F433" s="2" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G433" s="8"/>
+    </row>
+    <row r="434" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>435</v>
       </c>
@@ -14513,8 +14949,9 @@
       <c r="F434" s="2" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G434" s="8"/>
+    </row>
+    <row r="435" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>436</v>
       </c>
@@ -14533,8 +14970,9 @@
       <c r="F435" s="2" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G435" s="8"/>
+    </row>
+    <row r="436" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>437</v>
       </c>
@@ -14553,8 +14991,9 @@
       <c r="F436" s="2" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G436" s="8"/>
+    </row>
+    <row r="437" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>438</v>
       </c>
@@ -14573,8 +15012,9 @@
       <c r="F437" s="2" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G437" s="8"/>
+    </row>
+    <row r="438" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>439</v>
       </c>
@@ -14593,8 +15033,9 @@
       <c r="F438" s="2" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G438" s="8"/>
+    </row>
+    <row r="439" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>440</v>
       </c>
@@ -14613,8 +15054,9 @@
       <c r="F439" s="2" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G439" s="8"/>
+    </row>
+    <row r="440" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>441</v>
       </c>
@@ -14633,8 +15075,9 @@
       <c r="F440" s="2" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G440" s="8"/>
+    </row>
+    <row r="441" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>442</v>
       </c>
@@ -14653,8 +15096,9 @@
       <c r="F441" s="2" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G441" s="8"/>
+    </row>
+    <row r="442" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>443</v>
       </c>
@@ -14673,8 +15117,9 @@
       <c r="F442" s="2" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G442" s="8"/>
+    </row>
+    <row r="443" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>444</v>
       </c>
@@ -14693,8 +15138,9 @@
       <c r="F443" s="2" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G443" s="8"/>
+    </row>
+    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>445</v>
       </c>
@@ -14713,8 +15159,9 @@
       <c r="F444" s="2" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G444" s="8"/>
+    </row>
+    <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>446</v>
       </c>
@@ -14733,8 +15180,9 @@
       <c r="F445" s="2" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G445" s="8"/>
+    </row>
+    <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>447</v>
       </c>
@@ -14753,8 +15201,9 @@
       <c r="F446" s="2" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G446" s="8"/>
+    </row>
+    <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>448</v>
       </c>
@@ -14773,8 +15222,9 @@
       <c r="F447" s="2" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G447" s="8"/>
+    </row>
+    <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>449</v>
       </c>
@@ -14793,8 +15243,9 @@
       <c r="F448" s="2" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G448" s="8"/>
+    </row>
+    <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>450</v>
       </c>
@@ -14813,8 +15264,9 @@
       <c r="F449" s="2" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G449" s="8"/>
+    </row>
+    <row r="450" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>451</v>
       </c>
@@ -14833,8 +15285,9 @@
       <c r="F450" s="2" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G450" s="8"/>
+    </row>
+    <row r="451" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>452</v>
       </c>
@@ -14853,8 +15306,9 @@
       <c r="F451" s="2" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G451" s="8"/>
+    </row>
+    <row r="452" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>453</v>
       </c>
@@ -14873,8 +15327,9 @@
       <c r="F452" s="2" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G452" s="8"/>
+    </row>
+    <row r="453" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>454</v>
       </c>
@@ -14893,8 +15348,9 @@
       <c r="F453" s="2" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G453" s="8"/>
+    </row>
+    <row r="454" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>455</v>
       </c>
@@ -14913,8 +15369,9 @@
       <c r="F454" s="2" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G454" s="8"/>
+    </row>
+    <row r="455" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>456</v>
       </c>
@@ -14933,8 +15390,9 @@
       <c r="F455" s="2" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G455" s="8"/>
+    </row>
+    <row r="456" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>457</v>
       </c>
@@ -14953,8 +15411,9 @@
       <c r="F456" s="2" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G456" s="8"/>
+    </row>
+    <row r="457" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>458</v>
       </c>
@@ -14973,8 +15432,9 @@
       <c r="F457" s="2" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G457" s="8"/>
+    </row>
+    <row r="458" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>459</v>
       </c>
@@ -14993,8 +15453,9 @@
       <c r="F458" s="2" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G458" s="8"/>
+    </row>
+    <row r="459" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>460</v>
       </c>
@@ -15013,8 +15474,9 @@
       <c r="F459" s="2" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G459" s="8"/>
+    </row>
+    <row r="460" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>461</v>
       </c>
@@ -15033,8 +15495,9 @@
       <c r="F460" s="2" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G460" s="8"/>
+    </row>
+    <row r="461" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>462</v>
       </c>
@@ -15053,8 +15516,9 @@
       <c r="F461" s="2" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G461" s="9"/>
+    </row>
+    <row r="462" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>463</v>
       </c>
@@ -15073,8 +15537,9 @@
       <c r="F462" s="2" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G462" s="8"/>
+    </row>
+    <row r="463" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>464</v>
       </c>
@@ -15093,8 +15558,9 @@
       <c r="F463" s="2" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G463" s="8"/>
+    </row>
+    <row r="464" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>465</v>
       </c>
@@ -15113,8 +15579,9 @@
       <c r="F464" s="2" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G464" s="8"/>
+    </row>
+    <row r="465" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>466</v>
       </c>
@@ -15133,8 +15600,9 @@
       <c r="F465" s="2" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G465" s="8"/>
+    </row>
+    <row r="466" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>467</v>
       </c>
@@ -15153,8 +15621,9 @@
       <c r="F466" s="2" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G466" s="8"/>
+    </row>
+    <row r="467" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>468</v>
       </c>
@@ -15173,8 +15642,9 @@
       <c r="F467" s="2" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G467" s="8"/>
+    </row>
+    <row r="468" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>469</v>
       </c>
@@ -15193,8 +15663,9 @@
       <c r="F468" s="2" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G468" s="8"/>
+    </row>
+    <row r="469" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>470</v>
       </c>
@@ -15213,8 +15684,9 @@
       <c r="F469" s="2" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G469" s="8"/>
+    </row>
+    <row r="470" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>471</v>
       </c>
@@ -15233,8 +15705,9 @@
       <c r="F470" s="2" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G470" s="8"/>
+    </row>
+    <row r="471" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>472</v>
       </c>
@@ -15253,8 +15726,9 @@
       <c r="F471" s="2" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G471" s="8"/>
+    </row>
+    <row r="472" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>473</v>
       </c>
@@ -15273,8 +15747,9 @@
       <c r="F472" s="2" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G472" s="8"/>
+    </row>
+    <row r="473" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>474</v>
       </c>
@@ -15293,8 +15768,9 @@
       <c r="F473" s="2" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G473" s="8"/>
+    </row>
+    <row r="474" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>475</v>
       </c>
@@ -15313,8 +15789,9 @@
       <c r="F474" s="2" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G474" s="8"/>
+    </row>
+    <row r="475" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>476</v>
       </c>
@@ -15333,8 +15810,9 @@
       <c r="F475" s="2" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G475" s="8"/>
+    </row>
+    <row r="476" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>477</v>
       </c>
@@ -15353,8 +15831,9 @@
       <c r="F476" s="2" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G476" s="8"/>
+    </row>
+    <row r="477" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>478</v>
       </c>
@@ -15373,8 +15852,9 @@
       <c r="F477" s="2" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G477" s="8"/>
+    </row>
+    <row r="478" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>479</v>
       </c>
@@ -15393,8 +15873,9 @@
       <c r="F478" s="2" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G478" s="8"/>
+    </row>
+    <row r="479" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>480</v>
       </c>
@@ -15413,8 +15894,9 @@
       <c r="F479" s="2" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G479" s="8"/>
+    </row>
+    <row r="480" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>481</v>
       </c>
@@ -15433,8 +15915,9 @@
       <c r="F480" s="2" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G480" s="8"/>
+    </row>
+    <row r="481" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>482</v>
       </c>
@@ -15453,8 +15936,9 @@
       <c r="F481" s="2" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G481" s="8"/>
+    </row>
+    <row r="482" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>483</v>
       </c>
@@ -15473,8 +15957,9 @@
       <c r="F482" s="2" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G482" s="8"/>
+    </row>
+    <row r="483" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>484</v>
       </c>
@@ -15493,8 +15978,9 @@
       <c r="F483" s="2" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G483" s="8"/>
+    </row>
+    <row r="484" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>485</v>
       </c>
@@ -15513,8 +15999,9 @@
       <c r="F484" s="2" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G484" s="8"/>
+    </row>
+    <row r="485" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>486</v>
       </c>
@@ -15533,8 +16020,9 @@
       <c r="F485" s="2" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G485" s="8"/>
+    </row>
+    <row r="486" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>487</v>
       </c>
@@ -15553,8 +16041,9 @@
       <c r="F486" s="2" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G486" s="8"/>
+    </row>
+    <row r="487" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>488</v>
       </c>
@@ -15573,8 +16062,9 @@
       <c r="F487" s="2" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G487" s="8"/>
+    </row>
+    <row r="488" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>489</v>
       </c>
@@ -15593,8 +16083,9 @@
       <c r="F488" s="2" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G488" s="8"/>
+    </row>
+    <row r="489" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>490</v>
       </c>
@@ -15613,8 +16104,9 @@
       <c r="F489" s="2" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G489" s="8"/>
+    </row>
+    <row r="490" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>491</v>
       </c>
@@ -15633,8 +16125,9 @@
       <c r="F490" s="2" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G490" s="8"/>
+    </row>
+    <row r="491" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>492</v>
       </c>
@@ -15653,8 +16146,9 @@
       <c r="F491" s="2" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G491" s="8"/>
+    </row>
+    <row r="492" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>493</v>
       </c>
@@ -15673,8 +16167,9 @@
       <c r="F492" s="2" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G492" s="8"/>
+    </row>
+    <row r="493" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>494</v>
       </c>
@@ -15693,8 +16188,9 @@
       <c r="F493" s="2" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G493" s="8"/>
+    </row>
+    <row r="494" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>495</v>
       </c>
@@ -15713,8 +16209,9 @@
       <c r="F494" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G494" s="8"/>
+    </row>
+    <row r="495" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>496</v>
       </c>
@@ -15733,8 +16230,9 @@
       <c r="F495" s="2" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G495" s="8"/>
+    </row>
+    <row r="496" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>497</v>
       </c>
@@ -15753,8 +16251,9 @@
       <c r="F496" s="2" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G496" s="8"/>
+    </row>
+    <row r="497" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>498</v>
       </c>
@@ -15773,8 +16272,9 @@
       <c r="F497" s="2" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G497" s="8"/>
+    </row>
+    <row r="498" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>499</v>
       </c>
@@ -15793,8 +16293,9 @@
       <c r="F498" s="2" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G498" s="8"/>
+    </row>
+    <row r="499" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>500</v>
       </c>
@@ -15813,8 +16314,9 @@
       <c r="F499" s="2" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G499" s="8"/>
+    </row>
+    <row r="500" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>501</v>
       </c>
@@ -15833,8 +16335,9 @@
       <c r="F500" s="2" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G500" s="8"/>
+    </row>
+    <row r="501" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>502</v>
       </c>
@@ -15853,8 +16356,9 @@
       <c r="F501" s="2" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G501" s="8"/>
+    </row>
+    <row r="502" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>503</v>
       </c>
@@ -15873,8 +16377,9 @@
       <c r="F502" s="2" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G502" s="8"/>
+    </row>
+    <row r="503" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>504</v>
       </c>
@@ -15893,8 +16398,9 @@
       <c r="F503" s="2" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G503" s="8"/>
+    </row>
+    <row r="504" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>505</v>
       </c>
@@ -15913,8 +16419,9 @@
       <c r="F504" s="2" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G504" s="8"/>
+    </row>
+    <row r="505" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>506</v>
       </c>
@@ -15933,8 +16440,9 @@
       <c r="F505" s="2" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G505" s="8"/>
+    </row>
+    <row r="506" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>507</v>
       </c>
@@ -15953,8 +16461,9 @@
       <c r="F506" s="2" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G506" s="8"/>
+    </row>
+    <row r="507" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>508</v>
       </c>
@@ -15973,8 +16482,9 @@
       <c r="F507" s="2" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G507" s="8"/>
+    </row>
+    <row r="508" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>509</v>
       </c>
@@ -15993,8 +16503,9 @@
       <c r="F508" s="2" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G508" s="8"/>
+    </row>
+    <row r="509" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>510</v>
       </c>
@@ -16013,8 +16524,9 @@
       <c r="F509" s="2" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G509" s="8"/>
+    </row>
+    <row r="510" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>511</v>
       </c>
@@ -16033,8 +16545,9 @@
       <c r="F510" s="2" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G510" s="8"/>
+    </row>
+    <row r="511" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>512</v>
       </c>
@@ -16053,8 +16566,9 @@
       <c r="F511" s="2" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G511" s="8"/>
+    </row>
+    <row r="512" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>513</v>
       </c>
@@ -16073,8 +16587,9 @@
       <c r="F512" s="2" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G512" s="8"/>
+    </row>
+    <row r="513" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>514</v>
       </c>
@@ -16093,8 +16608,9 @@
       <c r="F513" s="2" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G513" s="8"/>
+    </row>
+    <row r="514" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>515</v>
       </c>
@@ -16113,8 +16629,9 @@
       <c r="F514" s="2" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G514" s="8"/>
+    </row>
+    <row r="515" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>516</v>
       </c>
@@ -16133,8 +16650,9 @@
       <c r="F515" s="2" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G515" s="8"/>
+    </row>
+    <row r="516" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>517</v>
       </c>
@@ -16153,8 +16671,9 @@
       <c r="F516" s="2" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G516" s="8"/>
+    </row>
+    <row r="517" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>518</v>
       </c>
@@ -16173,8 +16692,9 @@
       <c r="F517" s="2" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G517" s="8"/>
+    </row>
+    <row r="518" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>519</v>
       </c>
@@ -16193,8 +16713,9 @@
       <c r="F518" s="2" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G518" s="8"/>
+    </row>
+    <row r="519" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>520</v>
       </c>
@@ -16213,8 +16734,9 @@
       <c r="F519" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G519" s="8"/>
+    </row>
+    <row r="520" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>521</v>
       </c>
@@ -16233,8 +16755,9 @@
       <c r="F520" s="2" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G520" s="8"/>
+    </row>
+    <row r="521" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>522</v>
       </c>
@@ -16253,8 +16776,9 @@
       <c r="F521" s="2" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G521" s="8"/>
+    </row>
+    <row r="522" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>523</v>
       </c>
@@ -16273,8 +16797,9 @@
       <c r="F522" s="2" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G522" s="8"/>
+    </row>
+    <row r="523" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>524</v>
       </c>
@@ -16293,8 +16818,9 @@
       <c r="F523" s="2" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G523" s="8"/>
+    </row>
+    <row r="524" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>525</v>
       </c>
@@ -16313,8 +16839,9 @@
       <c r="F524" s="2" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G524" s="8"/>
+    </row>
+    <row r="525" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>526</v>
       </c>
@@ -16333,8 +16860,9 @@
       <c r="F525" s="2" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G525" s="8"/>
+    </row>
+    <row r="526" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>527</v>
       </c>
@@ -16353,8 +16881,9 @@
       <c r="F526" s="2" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G526" s="8"/>
+    </row>
+    <row r="527" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>528</v>
       </c>
@@ -16373,8 +16902,9 @@
       <c r="F527" s="2" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G527" s="8"/>
+    </row>
+    <row r="528" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>529</v>
       </c>
@@ -16393,8 +16923,9 @@
       <c r="F528" s="2" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G528" s="8"/>
+    </row>
+    <row r="529" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>530</v>
       </c>
@@ -16413,8 +16944,9 @@
       <c r="F529" s="2" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G529" s="8"/>
+    </row>
+    <row r="530" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>531</v>
       </c>
@@ -16433,8 +16965,9 @@
       <c r="F530" s="2" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G530" s="8"/>
+    </row>
+    <row r="531" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>532</v>
       </c>
@@ -16453,8 +16986,9 @@
       <c r="F531" s="2" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G531" s="8"/>
+    </row>
+    <row r="532" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>533</v>
       </c>
@@ -16473,8 +17007,9 @@
       <c r="F532" s="2" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G532" s="8"/>
+    </row>
+    <row r="533" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>534</v>
       </c>
@@ -16493,8 +17028,9 @@
       <c r="F533" s="2" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G533" s="8"/>
+    </row>
+    <row r="534" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>535</v>
       </c>
@@ -16513,8 +17049,9 @@
       <c r="F534" s="2" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G534" s="8"/>
+    </row>
+    <row r="535" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>536</v>
       </c>
@@ -16533,8 +17070,9 @@
       <c r="F535" s="2" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G535" s="8"/>
+    </row>
+    <row r="536" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>537</v>
       </c>
@@ -16553,8 +17091,9 @@
       <c r="F536" s="2" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G536" s="8"/>
+    </row>
+    <row r="537" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>538</v>
       </c>
@@ -16573,8 +17112,9 @@
       <c r="F537" s="2" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G537" s="8"/>
+    </row>
+    <row r="538" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>539</v>
       </c>
@@ -16593,8 +17133,9 @@
       <c r="F538" s="2" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G538" s="8"/>
+    </row>
+    <row r="539" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>540</v>
       </c>
@@ -16613,8 +17154,9 @@
       <c r="F539" s="2" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G539" s="8"/>
+    </row>
+    <row r="540" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>541</v>
       </c>
@@ -16633,8 +17175,9 @@
       <c r="F540" s="2" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G540" s="8"/>
+    </row>
+    <row r="541" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>542</v>
       </c>
@@ -16653,8 +17196,9 @@
       <c r="F541" s="2" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G541" s="8"/>
+    </row>
+    <row r="542" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>543</v>
       </c>
@@ -16673,8 +17217,9 @@
       <c r="F542" s="2" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G542" s="8"/>
+    </row>
+    <row r="543" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>544</v>
       </c>
@@ -16693,8 +17238,9 @@
       <c r="F543" s="2" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="544" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G543" s="8"/>
+    </row>
+    <row r="544" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>545</v>
       </c>
@@ -16713,8 +17259,9 @@
       <c r="F544" s="2" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="545" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G544" s="8"/>
+    </row>
+    <row r="545" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>546</v>
       </c>
@@ -16733,8 +17280,9 @@
       <c r="F545" s="2" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="546" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G545" s="8"/>
+    </row>
+    <row r="546" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>547</v>
       </c>
@@ -16753,8 +17301,9 @@
       <c r="F546" s="2" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="547" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G546" s="8"/>
+    </row>
+    <row r="547" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>548</v>
       </c>
@@ -16773,8 +17322,9 @@
       <c r="F547" s="2" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="548" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G547" s="8"/>
+    </row>
+    <row r="548" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>549</v>
       </c>
@@ -16793,8 +17343,9 @@
       <c r="F548" s="2" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="549" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G548" s="8"/>
+    </row>
+    <row r="549" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>550</v>
       </c>
@@ -16813,8 +17364,9 @@
       <c r="F549" s="2" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="550" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G549" s="8"/>
+    </row>
+    <row r="550" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>551</v>
       </c>
@@ -16833,8 +17385,9 @@
       <c r="F550" s="2" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="551" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G550" s="8"/>
+    </row>
+    <row r="551" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>552</v>
       </c>
@@ -16853,8 +17406,9 @@
       <c r="F551" s="2" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="552" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G551" s="8"/>
+    </row>
+    <row r="552" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>553</v>
       </c>
@@ -16873,8 +17427,9 @@
       <c r="F552" s="2" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G552" s="8"/>
+    </row>
+    <row r="553" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>554</v>
       </c>
@@ -16893,8 +17448,9 @@
       <c r="F553" s="2" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G553" s="8"/>
+    </row>
+    <row r="554" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>555</v>
       </c>
@@ -16913,8 +17469,9 @@
       <c r="F554" s="2" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G554" s="8"/>
+    </row>
+    <row r="555" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>556</v>
       </c>
@@ -16933,8 +17490,9 @@
       <c r="F555" s="2" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G555" s="8"/>
+    </row>
+    <row r="556" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>557</v>
       </c>
@@ -16953,8 +17511,9 @@
       <c r="F556" s="2" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G556" s="8"/>
+    </row>
+    <row r="557" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>558</v>
       </c>
@@ -16973,8 +17532,9 @@
       <c r="F557" s="2" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G557" s="8"/>
+    </row>
+    <row r="558" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>559</v>
       </c>
@@ -16993,8 +17553,9 @@
       <c r="F558" s="2" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G558" s="8"/>
+    </row>
+    <row r="559" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>560</v>
       </c>
@@ -17013,8 +17574,9 @@
       <c r="F559" s="2" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G559" s="8"/>
+    </row>
+    <row r="560" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>561</v>
       </c>
@@ -17033,8 +17595,9 @@
       <c r="F560" s="2" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="561" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G560" s="8"/>
+    </row>
+    <row r="561" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>562</v>
       </c>
@@ -17053,8 +17616,9 @@
       <c r="F561" s="2" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="562" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G561" s="8"/>
+    </row>
+    <row r="562" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>563</v>
       </c>
@@ -17073,8 +17637,9 @@
       <c r="F562" s="2" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="563" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G562" s="8"/>
+    </row>
+    <row r="563" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>564</v>
       </c>
@@ -17093,8 +17658,9 @@
       <c r="F563" s="2" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="564" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G563" s="8"/>
+    </row>
+    <row r="564" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>565</v>
       </c>
@@ -17113,8 +17679,9 @@
       <c r="F564" s="2" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="565" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G564" s="8"/>
+    </row>
+    <row r="565" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>566</v>
       </c>
@@ -17133,8 +17700,9 @@
       <c r="F565" s="2" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="566" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G565" s="8"/>
+    </row>
+    <row r="566" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>567</v>
       </c>
@@ -17153,8 +17721,9 @@
       <c r="F566" s="2" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="567" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G566" s="8"/>
+    </row>
+    <row r="567" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>568</v>
       </c>
@@ -17173,8 +17742,9 @@
       <c r="F567" s="2" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="568" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G567" s="8"/>
+    </row>
+    <row r="568" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>569</v>
       </c>
@@ -17193,8 +17763,9 @@
       <c r="F568" s="2" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="569" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G568" s="8"/>
+    </row>
+    <row r="569" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>570</v>
       </c>
@@ -17213,8 +17784,9 @@
       <c r="F569" s="2" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="570" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G569" s="8"/>
+    </row>
+    <row r="570" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>571</v>
       </c>
@@ -17233,8 +17805,9 @@
       <c r="F570" s="2" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="571" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G570" s="8"/>
+    </row>
+    <row r="571" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>572</v>
       </c>
@@ -17253,8 +17826,9 @@
       <c r="F571" s="2" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="572" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G571" s="8"/>
+    </row>
+    <row r="572" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>573</v>
       </c>
@@ -17273,8 +17847,9 @@
       <c r="F572" s="2" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="573" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G572" s="8"/>
+    </row>
+    <row r="573" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>574</v>
       </c>
@@ -17293,8 +17868,9 @@
       <c r="F573" s="2" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="574" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G573" s="8"/>
+    </row>
+    <row r="574" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>575</v>
       </c>
@@ -17313,8 +17889,9 @@
       <c r="F574" s="2" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="575" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G574" s="8"/>
+    </row>
+    <row r="575" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>576</v>
       </c>
@@ -17333,8 +17910,9 @@
       <c r="F575" s="2" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="576" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G575" s="8"/>
+    </row>
+    <row r="576" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>577</v>
       </c>
@@ -17353,8 +17931,9 @@
       <c r="F576" s="2" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="577" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G576" s="8"/>
+    </row>
+    <row r="577" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>578</v>
       </c>
@@ -17373,8 +17952,9 @@
       <c r="F577" s="2" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="578" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G577" s="8"/>
+    </row>
+    <row r="578" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>579</v>
       </c>
@@ -17393,8 +17973,9 @@
       <c r="F578" s="2" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="579" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G578" s="8"/>
+    </row>
+    <row r="579" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>580</v>
       </c>
@@ -17413,8 +17994,9 @@
       <c r="F579" s="2" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="580" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G579" s="8"/>
+    </row>
+    <row r="580" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>581</v>
       </c>
@@ -17433,8 +18015,9 @@
       <c r="F580" s="2" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="581" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G580" s="8"/>
+    </row>
+    <row r="581" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>582</v>
       </c>
@@ -17453,8 +18036,9 @@
       <c r="F581" s="2" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="582" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G581" s="8"/>
+    </row>
+    <row r="582" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>583</v>
       </c>
@@ -17473,8 +18057,9 @@
       <c r="F582" s="2" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="583" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G582" s="8"/>
+    </row>
+    <row r="583" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>584</v>
       </c>
@@ -17493,8 +18078,9 @@
       <c r="F583" s="2" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="584" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G583" s="8"/>
+    </row>
+    <row r="584" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>585</v>
       </c>
@@ -17513,8 +18099,9 @@
       <c r="F584" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="585" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G584" s="8"/>
+    </row>
+    <row r="585" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>586</v>
       </c>
@@ -17533,8 +18120,9 @@
       <c r="F585" s="2" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="586" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G585" s="8"/>
+    </row>
+    <row r="586" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>587</v>
       </c>
@@ -17553,8 +18141,9 @@
       <c r="F586" s="2" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="587" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G586" s="8"/>
+    </row>
+    <row r="587" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>588</v>
       </c>
@@ -17573,8 +18162,9 @@
       <c r="F587" s="2" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="588" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G587" s="8"/>
+    </row>
+    <row r="588" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>589</v>
       </c>
@@ -17593,8 +18183,9 @@
       <c r="F588" s="2" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="589" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G588" s="8"/>
+    </row>
+    <row r="589" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>590</v>
       </c>
@@ -17613,8 +18204,9 @@
       <c r="F589" s="2" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="590" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G589" s="8"/>
+    </row>
+    <row r="590" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>591</v>
       </c>
@@ -17633,8 +18225,9 @@
       <c r="F590" s="2" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="591" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G590" s="8"/>
+    </row>
+    <row r="591" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>592</v>
       </c>
@@ -17653,8 +18246,9 @@
       <c r="F591" s="2" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="592" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G591" s="8"/>
+    </row>
+    <row r="592" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>593</v>
       </c>
@@ -17673,8 +18267,9 @@
       <c r="F592" s="2" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="593" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G592" s="8"/>
+    </row>
+    <row r="593" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>594</v>
       </c>
@@ -17693,8 +18288,9 @@
       <c r="F593" s="2" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="594" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G593" s="8"/>
+    </row>
+    <row r="594" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>595</v>
       </c>
@@ -17713,602 +18309,603 @@
       <c r="F594" s="2" t="s">
         <v>1207</v>
       </c>
+      <c r="G594" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E594" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E593" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E592" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E591" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E24" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E25" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E590" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E589" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E588" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E587" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E586" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E585" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E584" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E583" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E582" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E581" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E580" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E579" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E578" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E577" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E576" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E575" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E574" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E573" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E572" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E571" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E570" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E569" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E568" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E567" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E566" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E565" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E564" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E563" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E562" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E561" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E560" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E559" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E558" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E557" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E556" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E555" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E554" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E553" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E552" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E551" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E550" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E549" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E548" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E547" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E546" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E545" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E544" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E543" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E28" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E29" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E542" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E541" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E540" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E539" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E538" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E537" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E536" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E535" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E534" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E533" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E532" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E531" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E530" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E529" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E528" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E527" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E30" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E31" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E32" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E33" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E34" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E35" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E526" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E525" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E524" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E523" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E522" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E521" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E520" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E519" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E518" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E517" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E516" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E515" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E514" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E513" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E512" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E511" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E510" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E509" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E508" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E507" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E506" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E36" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E37" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E505" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E504" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E503" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E502" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E501" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E500" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E38" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E39" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E40" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E41" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E42" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E43" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E44" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E45" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E46" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E488" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E499" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E498" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E497" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E496" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E495" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E494" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E493" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E492" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E491" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E490" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E489" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E487" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E486" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E485" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E484" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E483" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="E482" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E481" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E480" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E479" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E478" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E477" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E476" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E475" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E474" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E473" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E472" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E471" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E470" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E469" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E468" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E467" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E466" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E465" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E464" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E463" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E462" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E460" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E459" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E458" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E457" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E456" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E455" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E454" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E453" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E452" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E451" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E450" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E449" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E448" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E447" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E446" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E445" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E444" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E443" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E442" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E441" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E440" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E439" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E438" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E437" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E436" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E435" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E434" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E433" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E432" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E431" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E430" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E429" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E428" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E427" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E426" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E425" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E424" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E423" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E422" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E421" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E420" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E419" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E418" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E417" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E416" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E415" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E414" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E413" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E412" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E411" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E410" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E409" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E408" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E407" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E406" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E405" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E404" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E403" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E402" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E401" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E400" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E399" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E398" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E397" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E396" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E395" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E394" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E393" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E392" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E391" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E390" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E389" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E388" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E387" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E386" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E385" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E384" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E383" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E382" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E381" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E380" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E47" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E48" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E49" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E50" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E51" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E52" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E53" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E54" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E55" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="E56" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="E57" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="E58" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="E59" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="E60" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="E61" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="E62" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="E63" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="E64" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="E65" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="E66" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="E379" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="E378" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="E377" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="E376" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="E375" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="E374" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="E373" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="E372" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="E371" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="E370" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="E369" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="E368" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="E367" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="E366" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="E365" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="E364" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="E363" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="E362" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="E361" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="E360" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="E359" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="E358" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="E357" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="E356" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="E355" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="E354" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="E353" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="E352" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="E351" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="E350" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="E349" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="E348" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="E347" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="E346" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="E345" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="E344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="E343" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="E342" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="E341" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="E340" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="E339" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="E338" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="E337" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="E336" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="E335" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="E334" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="E333" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="E332" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="E331" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="E330" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="E329" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="E328" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="E327" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="E326" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="E325" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="E324" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="E323" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="E322" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="E321" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="E320" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="E319" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="E318" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="E317" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="E316" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="E315" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="E314" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="E313" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="E312" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E311" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="E310" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="E309" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="E308" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="E307" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="E306" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="E305" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="E304" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="E303" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="E302" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="E301" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="E300" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="E299" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="E298" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="E297" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="E296" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="E295" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="E294" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="E293" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="E292" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="E291" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="E290" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="E289" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="E288" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="E287" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="E286" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="E285" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="E284" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="E283" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="E282" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="E281" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="E280" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="E279" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="E278" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="E277" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="E276" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="E275" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="E274" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="E273" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="E272" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="E271" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="E270" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="E269" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="E268" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="E267" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="E266" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="E265" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="E264" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="E263" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="E262" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="E261" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="E260" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="E259" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="E258" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="E257" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="E256" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="E255" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="E254" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="E253" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="E252" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="E251" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="E250" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="E249" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="E248" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="E247" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="E246" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="E245" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="E244" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="E243" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="E242" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="E241" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="E240" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="E239" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="E238" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="E237" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="E236" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="E235" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="E234" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="E233" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="E232" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="E231" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="E230" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="E229" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="E228" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="E227" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="E226" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="E225" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="E224" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="E223" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="E222" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="E221" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="E220" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="E219" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="E218" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="E217" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="E216" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="E215" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="E214" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="E213" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="E212" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="E211" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="E210" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="E209" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="E208" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="E207" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="E206" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="E205" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="E204" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="E203" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="E202" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="E201" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="E200" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="E199" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="E198" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="E197" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="E196" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="E195" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="E194" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="E193" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="E192" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="E191" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="E190" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="E189" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="E188" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="E187" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="E186" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="E185" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="E184" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="E183" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="E182" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="E181" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="E180" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="E179" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="E178" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="E177" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="E176" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="E175" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="E174" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="E173" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="E172" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="E171" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="E170" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="E169" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="E168" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="E167" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="E166" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="E165" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="E164" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="E163" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="E162" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="E161" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="E160" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="E159" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="E158" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="E157" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="E156" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="E155" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="E154" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="E153" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="E152" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="E151" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="E150" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="E149" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="E148" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="E147" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="E146" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="E145" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="E144" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="E143" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="E142" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="E141" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="E140" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="E67" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="E68" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="E69" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="E70" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="E71" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="E72" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="E73" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="E74" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="E75" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="E76" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="E77" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="E78" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="E79" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="E139" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="E138" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="E137" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="E136" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="E135" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="E134" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
-    <hyperlink ref="E133" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
-    <hyperlink ref="E132" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
-    <hyperlink ref="E131" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
-    <hyperlink ref="E130" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
-    <hyperlink ref="E129" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
-    <hyperlink ref="E128" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
-    <hyperlink ref="E127" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="E126" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="E125" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="E124" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="E123" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
-    <hyperlink ref="E122" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
-    <hyperlink ref="E121" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
-    <hyperlink ref="E120" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
-    <hyperlink ref="E119" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
-    <hyperlink ref="E118" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
-    <hyperlink ref="E117" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
-    <hyperlink ref="E116" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
-    <hyperlink ref="E115" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="E114" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
-    <hyperlink ref="E113" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
-    <hyperlink ref="E112" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="E111" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="E110" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="E109" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="E108" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="E107" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="E106" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="E105" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="E104" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="E103" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="E102" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="E101" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="E100" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="E99" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="E98" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="E97" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="E96" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="E95" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="E94" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="E93" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="E92" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="E91" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="E90" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="E89" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="E88" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="E87" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="E86" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="E85" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="E84" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="E83" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="E82" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="E81" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="E80" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{8B9CCFE1-F9E9-452B-B0F3-1D4D72D374C1}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{5AB0CAA1-104E-4CAC-BF7F-161A897DD67B}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{ABC17E57-3C93-4EDD-90FA-D4BF99F22445}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{518B7C8F-8469-404D-B4CA-A37090B2A15F}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{7817F85B-F041-4933-83F6-D02B753E54F5}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{26CFD2CF-0233-411C-B490-9ADC35B2E50A}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{DBEC342E-9C11-4E72-A9E7-48D2E87CA35A}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{F8E3C299-88B5-41A7-9ADC-D85114566624}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{8793D9DB-D8C3-4052-8CA9-32AA4EA9C1D0}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{E464C183-7D30-401E-B3C7-4139E269D17C}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{D43602C7-5ABE-4BFD-B15A-FD0EC9A73813}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{2DFFF201-DF05-4D6F-BF7F-F2EF854304D7}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{125551B2-A187-4289-ADB4-303C4E848F0E}"/>
+    <hyperlink ref="E594" r:id="rId14" xr:uid="{E2350AB4-8238-446B-96DF-34F98B515598}"/>
+    <hyperlink ref="E593" r:id="rId15" xr:uid="{4E0BE875-3751-4483-9A26-2E7C194CEEEA}"/>
+    <hyperlink ref="E592" r:id="rId16" xr:uid="{D1F59685-CAEE-44DA-888D-F8CAC64585DB}"/>
+    <hyperlink ref="E591" r:id="rId17" xr:uid="{625EF01F-B87E-47C5-B45E-AA1DF4E7CE4F}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{C9C568AD-78D4-4A72-BCFF-AB7751113AD8}"/>
+    <hyperlink ref="E15" r:id="rId19" xr:uid="{A4F48074-5E5E-459B-8C8E-65DEE407BAA5}"/>
+    <hyperlink ref="E16" r:id="rId20" xr:uid="{DE9C7E23-E706-4012-B1BC-4A5EBA407ADF}"/>
+    <hyperlink ref="E17" r:id="rId21" xr:uid="{5E503634-13C2-4C30-A711-5B994F6D0F77}"/>
+    <hyperlink ref="E18" r:id="rId22" xr:uid="{D3CC16E2-F4FB-409F-836F-A77959C9A633}"/>
+    <hyperlink ref="E19" r:id="rId23" xr:uid="{5CFF660E-1865-4A7A-9426-774746574F82}"/>
+    <hyperlink ref="E20" r:id="rId24" xr:uid="{B775DA23-C917-480A-B3EE-EADD62382AB9}"/>
+    <hyperlink ref="E21" r:id="rId25" xr:uid="{BEA41F35-3394-486D-94C7-EC56C0598D55}"/>
+    <hyperlink ref="E22" r:id="rId26" xr:uid="{FD506FB5-7A73-4F3A-B647-E3754F64C663}"/>
+    <hyperlink ref="E23" r:id="rId27" xr:uid="{53A91DB4-F59A-497D-B5F6-B04B009C48AA}"/>
+    <hyperlink ref="E24" r:id="rId28" xr:uid="{143AFB70-6C85-47CD-B64E-81370DE5C3AA}"/>
+    <hyperlink ref="E25" r:id="rId29" xr:uid="{092E2E7D-C581-45E0-8A90-5D93203EACE8}"/>
+    <hyperlink ref="E26" r:id="rId30" xr:uid="{2C8AF0EA-1404-40E1-8EE8-6D62317FBC00}"/>
+    <hyperlink ref="E27" r:id="rId31" xr:uid="{10A272D4-A829-4A29-976D-635E2651EE02}"/>
+    <hyperlink ref="E590" r:id="rId32" xr:uid="{39E86F7C-0202-488E-8E7B-C1CAABF87064}"/>
+    <hyperlink ref="E589" r:id="rId33" xr:uid="{EF1BA84E-ED68-483E-B86F-A6E52CFFD412}"/>
+    <hyperlink ref="E588" r:id="rId34" xr:uid="{443EB901-299A-4DCF-8477-BAB02EF1DD9D}"/>
+    <hyperlink ref="E587" r:id="rId35" xr:uid="{3C639672-6C30-4E92-88CB-44ED92E8BEC8}"/>
+    <hyperlink ref="E586" r:id="rId36" xr:uid="{8ECC4A71-9E72-4EF2-9478-D5C616E6D018}"/>
+    <hyperlink ref="E585" r:id="rId37" xr:uid="{BC007272-F60D-4295-9A13-F10641854A88}"/>
+    <hyperlink ref="E584" r:id="rId38" xr:uid="{69309B53-E3DE-477B-BBF0-7B8D144D4300}"/>
+    <hyperlink ref="E583" r:id="rId39" xr:uid="{FCBF21FC-2711-4639-98A0-24E77A5B8FE1}"/>
+    <hyperlink ref="E582" r:id="rId40" xr:uid="{225E3CFC-30DD-4889-AD7B-6485D3DCE9E1}"/>
+    <hyperlink ref="E581" r:id="rId41" xr:uid="{27CD2B2B-687A-4480-A879-9C29C3472A2F}"/>
+    <hyperlink ref="E580" r:id="rId42" xr:uid="{15D4C6B3-E00A-4657-8DF9-DFB812790A09}"/>
+    <hyperlink ref="E579" r:id="rId43" xr:uid="{1FBB9360-7897-4EBC-9C06-3CD62F8AB67E}"/>
+    <hyperlink ref="E578" r:id="rId44" xr:uid="{95EBFB4A-88D7-407E-A3C0-2D4089D926C9}"/>
+    <hyperlink ref="E577" r:id="rId45" xr:uid="{D77F6A7A-93CF-4FA7-9AB5-75FA1BA0F26E}"/>
+    <hyperlink ref="E576" r:id="rId46" xr:uid="{C477107E-9FDF-4300-8E4D-42BB5AC2BB9B}"/>
+    <hyperlink ref="E575" r:id="rId47" xr:uid="{D63069B3-3063-49C4-80FB-95C72ACB5EE1}"/>
+    <hyperlink ref="E574" r:id="rId48" xr:uid="{EF56C062-A460-4F9B-A8C3-FE32E563E927}"/>
+    <hyperlink ref="E573" r:id="rId49" xr:uid="{0D52C07B-9CA0-4A39-A7B6-1ABDC57C076D}"/>
+    <hyperlink ref="E572" r:id="rId50" xr:uid="{A85F953A-418E-40BB-B4EA-C0B71AEE337C}"/>
+    <hyperlink ref="E571" r:id="rId51" xr:uid="{D5AB4717-CB72-4B3E-B74C-9F29FDEDCBDF}"/>
+    <hyperlink ref="E570" r:id="rId52" xr:uid="{5EC4E55D-5654-4748-A433-0C08A4A719AC}"/>
+    <hyperlink ref="E569" r:id="rId53" xr:uid="{564D1782-A600-40BF-AC53-E7646D6E212B}"/>
+    <hyperlink ref="E568" r:id="rId54" xr:uid="{E16CCC13-AFD9-4062-BED2-C04E3257FFD0}"/>
+    <hyperlink ref="E567" r:id="rId55" xr:uid="{1AAA8779-3E24-492A-930F-B049AA78297A}"/>
+    <hyperlink ref="E566" r:id="rId56" xr:uid="{DCD72021-CC76-4CBC-AF26-0CFCF6C1A553}"/>
+    <hyperlink ref="E565" r:id="rId57" xr:uid="{D6499CB4-918C-451F-BCEF-F4422326F685}"/>
+    <hyperlink ref="E564" r:id="rId58" xr:uid="{9651C1B8-568E-474D-B59D-87802EAC9ABA}"/>
+    <hyperlink ref="E563" r:id="rId59" xr:uid="{2E3BC58D-4766-4133-B534-33BD8BB0408B}"/>
+    <hyperlink ref="E562" r:id="rId60" xr:uid="{87B021A9-1336-47E8-91C7-2E6800B9EBF4}"/>
+    <hyperlink ref="E561" r:id="rId61" xr:uid="{E5DC3CE2-6709-4CA9-BB9C-7733EEC3DF37}"/>
+    <hyperlink ref="E560" r:id="rId62" xr:uid="{0B6AD57E-8746-4901-80DC-F21763288E6F}"/>
+    <hyperlink ref="E559" r:id="rId63" xr:uid="{CC34B9B6-AF42-4BBA-BA02-04EC2DCF03FE}"/>
+    <hyperlink ref="E558" r:id="rId64" xr:uid="{27F72C1E-320C-42A0-88B8-0636E3305FCC}"/>
+    <hyperlink ref="E557" r:id="rId65" xr:uid="{DD8FE4B9-82EE-453E-9839-5929AE802CDC}"/>
+    <hyperlink ref="E556" r:id="rId66" xr:uid="{64049916-6ABC-4AA7-BBBC-9737DD3B809C}"/>
+    <hyperlink ref="E555" r:id="rId67" xr:uid="{5248B399-3D52-4621-83DE-2CAEFF232B2E}"/>
+    <hyperlink ref="E554" r:id="rId68" xr:uid="{272B4AF6-A10B-4AE5-9467-A81242718FFE}"/>
+    <hyperlink ref="E553" r:id="rId69" xr:uid="{F2AE9C05-E020-4D71-9D3D-9D91E4306321}"/>
+    <hyperlink ref="E552" r:id="rId70" xr:uid="{EFA5615A-042E-4BB4-BC27-94D26FAE7050}"/>
+    <hyperlink ref="E551" r:id="rId71" xr:uid="{B305D6E5-D12A-47D8-A990-C761D0E4852E}"/>
+    <hyperlink ref="E550" r:id="rId72" xr:uid="{89780A72-1983-48C6-8904-84369AEA38B6}"/>
+    <hyperlink ref="E549" r:id="rId73" xr:uid="{05FF1224-A8E9-479E-AD9A-3B7D2BF7425B}"/>
+    <hyperlink ref="E548" r:id="rId74" xr:uid="{74F9A9E2-960D-4C3C-97C8-DDC03040D2B7}"/>
+    <hyperlink ref="E547" r:id="rId75" xr:uid="{1B471285-14E5-4652-B700-AAF55BC7966F}"/>
+    <hyperlink ref="E546" r:id="rId76" xr:uid="{916D837D-D6BB-41C8-95B7-A2CA5B7352B6}"/>
+    <hyperlink ref="E545" r:id="rId77" xr:uid="{CA879BCA-EC04-49E9-B557-D339F9FC6552}"/>
+    <hyperlink ref="E544" r:id="rId78" xr:uid="{A7AC4AC1-3143-4C08-B98C-9088E5601397}"/>
+    <hyperlink ref="E543" r:id="rId79" xr:uid="{49DAD514-099F-4512-80EA-36F58DE2843C}"/>
+    <hyperlink ref="E28" r:id="rId80" xr:uid="{68E3E9B8-2A0F-4D26-84FF-1EF495264DB9}"/>
+    <hyperlink ref="E29" r:id="rId81" xr:uid="{D34DD512-23E6-4E8D-B5BD-46405423D336}"/>
+    <hyperlink ref="E542" r:id="rId82" xr:uid="{E9F3BE4D-AF87-4D0A-8E49-6FA7D4FD222E}"/>
+    <hyperlink ref="E541" r:id="rId83" xr:uid="{ED766530-3CC9-4C43-AC1F-6978BC365792}"/>
+    <hyperlink ref="E540" r:id="rId84" xr:uid="{ACE1EE9F-E4D8-404C-9D0D-07DA7A60741E}"/>
+    <hyperlink ref="E539" r:id="rId85" xr:uid="{E5AC8039-C49D-4C7F-B2AB-CCB39B09D1F2}"/>
+    <hyperlink ref="E538" r:id="rId86" xr:uid="{2D7AA6A0-986A-44CA-904A-69950E3C1930}"/>
+    <hyperlink ref="E537" r:id="rId87" xr:uid="{BB1CE3B3-BB33-4F11-9B21-775AA5F18F77}"/>
+    <hyperlink ref="E536" r:id="rId88" xr:uid="{783A0DA9-0354-4117-B6A4-CBBE1EA568D3}"/>
+    <hyperlink ref="E535" r:id="rId89" xr:uid="{C83C555E-3D7B-4A5E-8AD6-8EFDAB0D8B22}"/>
+    <hyperlink ref="E534" r:id="rId90" xr:uid="{9CC3A2F0-2DB6-42DA-A758-2273202CE70B}"/>
+    <hyperlink ref="E533" r:id="rId91" xr:uid="{755D2971-3AFA-4C73-BA99-6AAE4709B4E9}"/>
+    <hyperlink ref="E532" r:id="rId92" xr:uid="{6F776E9A-6383-46EA-8C52-6314BD2894D5}"/>
+    <hyperlink ref="E531" r:id="rId93" xr:uid="{D3DAB544-5C01-46AA-B8A3-32656DC305A5}"/>
+    <hyperlink ref="E530" r:id="rId94" xr:uid="{A848F45D-0C85-45CD-AE16-40717FC05E5C}"/>
+    <hyperlink ref="E529" r:id="rId95" xr:uid="{CEC10778-02B0-4200-BB27-08778B30F2FE}"/>
+    <hyperlink ref="E528" r:id="rId96" xr:uid="{CF35DC1A-A605-461D-9BC2-F4246A91F1E8}"/>
+    <hyperlink ref="E527" r:id="rId97" xr:uid="{76A0D2CD-37A8-49D3-BFA5-464BCA8FD058}"/>
+    <hyperlink ref="E30" r:id="rId98" xr:uid="{ED7FD0C3-CD01-4D13-8774-3F17DCE13E8D}"/>
+    <hyperlink ref="E31" r:id="rId99" xr:uid="{4B7231CF-1321-4A21-82D4-BE71E0AE84EC}"/>
+    <hyperlink ref="E32" r:id="rId100" xr:uid="{7D5FF19D-B6A8-41D1-BAE4-F8A5CAED02C1}"/>
+    <hyperlink ref="E33" r:id="rId101" xr:uid="{2B781A2B-0122-40FB-B27A-529200624571}"/>
+    <hyperlink ref="E34" r:id="rId102" xr:uid="{0B1D61B8-13E9-4123-8AA0-026B6FDDB253}"/>
+    <hyperlink ref="E35" r:id="rId103" xr:uid="{2545B805-B04A-4611-940E-40C3F3E0B1A4}"/>
+    <hyperlink ref="E526" r:id="rId104" xr:uid="{063376F9-5D78-4547-8FFC-53E52E33EEE6}"/>
+    <hyperlink ref="E525" r:id="rId105" xr:uid="{E804D85F-112F-4B97-88BF-9FA9260FE212}"/>
+    <hyperlink ref="E524" r:id="rId106" xr:uid="{BF90DD79-F737-4758-86EF-FB7C9A5E7140}"/>
+    <hyperlink ref="E523" r:id="rId107" xr:uid="{F6FF2389-94BA-43E9-A16D-BAD76D0C1369}"/>
+    <hyperlink ref="E522" r:id="rId108" xr:uid="{19E64A04-1128-4806-AC7F-E78C1FC2D731}"/>
+    <hyperlink ref="E521" r:id="rId109" xr:uid="{1E92C3C4-35F3-4897-8671-468986EE4ADC}"/>
+    <hyperlink ref="E520" r:id="rId110" xr:uid="{85BD0610-CE32-4E54-B669-A6AFC9B51DAE}"/>
+    <hyperlink ref="E519" r:id="rId111" xr:uid="{A6727CFD-E64B-404B-A9DB-C08C4A10196A}"/>
+    <hyperlink ref="E518" r:id="rId112" xr:uid="{2BC399E3-838F-4C5D-86DD-CFB6664933FE}"/>
+    <hyperlink ref="E517" r:id="rId113" xr:uid="{A390844F-EE7D-4DB7-B182-BBF24A838AF5}"/>
+    <hyperlink ref="E516" r:id="rId114" xr:uid="{F728FED1-F4FB-4612-BD02-7642B7F45EEA}"/>
+    <hyperlink ref="E515" r:id="rId115" xr:uid="{7CD19C3F-9562-4F5B-BF91-6DB856E0AA5E}"/>
+    <hyperlink ref="E514" r:id="rId116" xr:uid="{E1C0D1F0-4C3B-4AF6-87A9-116BC75DFA88}"/>
+    <hyperlink ref="E513" r:id="rId117" xr:uid="{646C5872-F806-4861-9191-45BD51C629EB}"/>
+    <hyperlink ref="E512" r:id="rId118" xr:uid="{39691627-8183-4743-955A-F9C2774C5561}"/>
+    <hyperlink ref="E511" r:id="rId119" xr:uid="{E222654F-CFE6-49A5-AA42-444CACABC49F}"/>
+    <hyperlink ref="E510" r:id="rId120" xr:uid="{68A25E0A-DDD4-4982-AC5E-27EAF3E684ED}"/>
+    <hyperlink ref="E509" r:id="rId121" xr:uid="{F2C90F4D-9DEF-4650-A942-A30FD5E81901}"/>
+    <hyperlink ref="E508" r:id="rId122" xr:uid="{F02BE0F6-A1A4-44FC-A79F-414DC7AD4306}"/>
+    <hyperlink ref="E507" r:id="rId123" xr:uid="{41644E1F-1A41-4305-BA33-FB19D84237A2}"/>
+    <hyperlink ref="E506" r:id="rId124" xr:uid="{C4DF6CE8-7CC1-4D6E-BB34-0376E2667DB3}"/>
+    <hyperlink ref="E36" r:id="rId125" xr:uid="{650F76A7-B6E8-4472-9AD3-53FED3669849}"/>
+    <hyperlink ref="E37" r:id="rId126" xr:uid="{00315B92-7C15-41E9-90DE-F08F2B1DE021}"/>
+    <hyperlink ref="E505" r:id="rId127" xr:uid="{EA5ED320-2848-4ABD-9E3F-BBC94AA12A59}"/>
+    <hyperlink ref="E504" r:id="rId128" xr:uid="{3FDE90C7-64DE-4B63-A764-1A7F4DB4518A}"/>
+    <hyperlink ref="E503" r:id="rId129" xr:uid="{FE48E502-EE4B-46CA-AD23-13050DF6A318}"/>
+    <hyperlink ref="E502" r:id="rId130" xr:uid="{0B00DD09-BE0A-422E-8531-855E0234FDA8}"/>
+    <hyperlink ref="E501" r:id="rId131" xr:uid="{6382D153-597A-4ED8-8848-799BB4F553A8}"/>
+    <hyperlink ref="E500" r:id="rId132" xr:uid="{74080B38-D237-4A53-B73B-18B45C2FAC26}"/>
+    <hyperlink ref="E38" r:id="rId133" xr:uid="{D5B9595C-1D45-47EB-B6EC-7661AE3E1CDB}"/>
+    <hyperlink ref="E39" r:id="rId134" xr:uid="{190FF4CC-FE86-4472-8122-E4BC385DC99A}"/>
+    <hyperlink ref="E40" r:id="rId135" xr:uid="{2F503C89-CB16-466F-B513-55C786EF9E43}"/>
+    <hyperlink ref="E41" r:id="rId136" xr:uid="{7198EEA4-B248-404F-B525-E059D886A40F}"/>
+    <hyperlink ref="E42" r:id="rId137" xr:uid="{00A22565-5082-4F22-835C-1E98BBAA96B9}"/>
+    <hyperlink ref="E43" r:id="rId138" xr:uid="{A59BCB45-47EC-48FF-82FC-94A44CE90B6B}"/>
+    <hyperlink ref="E44" r:id="rId139" xr:uid="{525117AB-4718-49DE-80BA-BCCB4B58DE3A}"/>
+    <hyperlink ref="E45" r:id="rId140" xr:uid="{829BE707-A30D-4465-8993-1F68F7C40F86}"/>
+    <hyperlink ref="E46" r:id="rId141" xr:uid="{24D2FF48-FC9F-40FF-A698-835FEDEC36A5}"/>
+    <hyperlink ref="E488" r:id="rId142" xr:uid="{610C0250-575B-4040-BC7D-D5B188EC8198}"/>
+    <hyperlink ref="E499" r:id="rId143" xr:uid="{4BFB6024-2ACC-4467-B0B4-1B228254775C}"/>
+    <hyperlink ref="E498" r:id="rId144" xr:uid="{4DF1117B-F4EC-4B98-91A8-8676CE9B4EFF}"/>
+    <hyperlink ref="E497" r:id="rId145" xr:uid="{9F3F3E75-CD97-4C22-ACAA-6F50F8E7EB37}"/>
+    <hyperlink ref="E496" r:id="rId146" xr:uid="{7F41CDBB-195A-43F0-A620-F682BD28B038}"/>
+    <hyperlink ref="E495" r:id="rId147" xr:uid="{8A167C08-5232-48BA-8976-42CBE3125148}"/>
+    <hyperlink ref="E494" r:id="rId148" xr:uid="{EDAEEA91-C4D3-4803-9E2B-36E04BDCA6A9}"/>
+    <hyperlink ref="E493" r:id="rId149" xr:uid="{03D05975-731B-4A99-B63F-D6F7432241EC}"/>
+    <hyperlink ref="E492" r:id="rId150" xr:uid="{8396F1A7-7153-445E-8FD4-64000A6D3BB3}"/>
+    <hyperlink ref="E491" r:id="rId151" xr:uid="{0F699576-2012-4FE5-BDAA-C53D02B94847}"/>
+    <hyperlink ref="E490" r:id="rId152" xr:uid="{758594F1-A054-44C0-B542-DCB7C9DA7257}"/>
+    <hyperlink ref="E489" r:id="rId153" xr:uid="{BF0DB952-485E-4463-9B39-EA808599357F}"/>
+    <hyperlink ref="E487" r:id="rId154" xr:uid="{8C673D6B-C748-43FC-85F4-9827CC461B03}"/>
+    <hyperlink ref="E486" r:id="rId155" xr:uid="{93A1226D-07A1-4065-BE3D-72B2C491F555}"/>
+    <hyperlink ref="E485" r:id="rId156" xr:uid="{204C35C5-3E6F-47CB-ACA4-184E8562B5D6}"/>
+    <hyperlink ref="E484" r:id="rId157" xr:uid="{E40A57FB-06F5-4256-9504-A6A58722A83D}"/>
+    <hyperlink ref="E483" r:id="rId158" xr:uid="{E01E2019-DE92-42BF-A9B5-BF8E00DF341D}"/>
+    <hyperlink ref="E482" r:id="rId159" xr:uid="{7C319E5E-DF80-49AB-9551-A66E42B95DEB}"/>
+    <hyperlink ref="E481" r:id="rId160" xr:uid="{5123FFFC-7CCF-4D05-B936-45A6BF441CDF}"/>
+    <hyperlink ref="E480" r:id="rId161" xr:uid="{0A683DB3-D800-41F2-A05A-E5D8491D3DA3}"/>
+    <hyperlink ref="E479" r:id="rId162" xr:uid="{247EBAF8-3D38-458D-AD75-AAF8D570C74D}"/>
+    <hyperlink ref="E478" r:id="rId163" xr:uid="{8065A79B-FB97-4DA2-8093-FBD5BF8D5DB7}"/>
+    <hyperlink ref="E477" r:id="rId164" xr:uid="{48E20CF4-F76C-4DE7-A13C-428B326CA235}"/>
+    <hyperlink ref="E476" r:id="rId165" xr:uid="{90E7C31F-EE05-456B-8B3C-2E5D180EE11B}"/>
+    <hyperlink ref="E475" r:id="rId166" xr:uid="{84D22C97-03E6-4B9F-A45A-D15490A1EDC5}"/>
+    <hyperlink ref="E474" r:id="rId167" xr:uid="{25EC025C-A47D-4B76-84A6-ACA669C6CB1C}"/>
+    <hyperlink ref="E473" r:id="rId168" xr:uid="{B17558CE-7A29-4BC0-9DF7-42285721EA66}"/>
+    <hyperlink ref="E472" r:id="rId169" xr:uid="{FEF6DF3B-41A2-4D61-B56D-084A8429C963}"/>
+    <hyperlink ref="E471" r:id="rId170" xr:uid="{46BC3396-0DE9-4B9F-95DC-436B004A49CF}"/>
+    <hyperlink ref="E470" r:id="rId171" xr:uid="{73FD7890-8B95-4DDE-93AD-8D357DFB2E56}"/>
+    <hyperlink ref="E469" r:id="rId172" xr:uid="{7A0DFACE-5759-457F-974C-A1D8911CBD1E}"/>
+    <hyperlink ref="E468" r:id="rId173" xr:uid="{CE2BBC06-FD05-441F-9B2E-EF2CFA7AF12B}"/>
+    <hyperlink ref="E467" r:id="rId174" xr:uid="{2DF95B1E-555F-41E4-A684-58AFA29302E1}"/>
+    <hyperlink ref="E466" r:id="rId175" xr:uid="{0E78E36E-6E05-4F2F-8012-A0FC13DF3C73}"/>
+    <hyperlink ref="E465" r:id="rId176" xr:uid="{019180F4-E2CD-48A0-9FCA-7B6B06D3EBEF}"/>
+    <hyperlink ref="E464" r:id="rId177" xr:uid="{A0CC2A81-30A3-49B3-B923-1D5C2042A4BE}"/>
+    <hyperlink ref="E463" r:id="rId178" xr:uid="{F3B6AE32-5916-455A-BCA2-9A260E8145B1}"/>
+    <hyperlink ref="E462" r:id="rId179" xr:uid="{E265F505-FF05-4B7E-9CF9-5916D4E00777}"/>
+    <hyperlink ref="E460" r:id="rId180" xr:uid="{12CEA643-8C4B-4CF2-8CD7-54190AF1F8BD}"/>
+    <hyperlink ref="E459" r:id="rId181" xr:uid="{0AEEA742-B231-4ED5-862F-5CDE7B077F52}"/>
+    <hyperlink ref="E458" r:id="rId182" xr:uid="{1A5000AE-BE09-4774-9B8C-E6E2BD172133}"/>
+    <hyperlink ref="E457" r:id="rId183" xr:uid="{90B5DEA5-608F-4388-8CF1-77ACF5EF48BA}"/>
+    <hyperlink ref="E456" r:id="rId184" xr:uid="{DA9AF9EA-9383-4782-AA2C-AC73108BB4EC}"/>
+    <hyperlink ref="E455" r:id="rId185" xr:uid="{4E2AFED1-B7F5-47E7-9584-60E6EE0322A8}"/>
+    <hyperlink ref="E454" r:id="rId186" xr:uid="{EAC8A471-14C9-4AB0-B9E9-091A70B3F298}"/>
+    <hyperlink ref="E453" r:id="rId187" xr:uid="{414DBFCB-205D-4819-B8AB-A2A8B83AC90C}"/>
+    <hyperlink ref="E452" r:id="rId188" xr:uid="{44B97DE8-7053-44E6-8C8D-584DD657C893}"/>
+    <hyperlink ref="E451" r:id="rId189" xr:uid="{9A6952A9-444C-4A1F-AE0B-5844713BF3A0}"/>
+    <hyperlink ref="E450" r:id="rId190" xr:uid="{D8B88B39-C92B-48F6-85A4-1E0B7FB3907F}"/>
+    <hyperlink ref="E449" r:id="rId191" xr:uid="{B0B5E15E-D3EC-438B-AE13-6ED520C092C3}"/>
+    <hyperlink ref="E448" r:id="rId192" xr:uid="{08DB6284-AC50-4EA1-AFD0-9314AA6D2FE6}"/>
+    <hyperlink ref="E447" r:id="rId193" xr:uid="{DC5B22EE-A71C-4BB1-9CB5-0DF89A57170B}"/>
+    <hyperlink ref="E446" r:id="rId194" xr:uid="{81704169-3D9B-410A-ACF9-DAEF408A11DF}"/>
+    <hyperlink ref="E445" r:id="rId195" xr:uid="{4796A25F-DFBB-4F1C-BBEB-C5CB4C955D1C}"/>
+    <hyperlink ref="E444" r:id="rId196" xr:uid="{885B76B6-9E69-43A5-82B9-25A88B6A4F7B}"/>
+    <hyperlink ref="E443" r:id="rId197" xr:uid="{24130331-B058-4E71-970B-B1BA0CE6F72D}"/>
+    <hyperlink ref="E442" r:id="rId198" xr:uid="{006FE4F3-6C18-4937-A0CE-50A134A113AC}"/>
+    <hyperlink ref="E441" r:id="rId199" xr:uid="{51119C5E-4AA3-4DB3-815E-661B266B837A}"/>
+    <hyperlink ref="E440" r:id="rId200" xr:uid="{A1A99447-60A9-4D09-9680-8524B7822520}"/>
+    <hyperlink ref="E439" r:id="rId201" xr:uid="{CE1871E5-39E6-40EA-8C7A-7FDC0DFF4D33}"/>
+    <hyperlink ref="E438" r:id="rId202" xr:uid="{D9336AB6-B169-4569-B6DD-7994856A1151}"/>
+    <hyperlink ref="E437" r:id="rId203" xr:uid="{EEE1D47F-4A11-47BF-96FD-C4C81CDE4F59}"/>
+    <hyperlink ref="E436" r:id="rId204" xr:uid="{E5ECF5BE-6F9C-462F-8E56-23584687BCD9}"/>
+    <hyperlink ref="E435" r:id="rId205" xr:uid="{1A37FA8B-216A-4A4E-B790-C6A3FA282C6F}"/>
+    <hyperlink ref="E434" r:id="rId206" xr:uid="{28759C46-5CA5-4E94-BF8D-4376A3AF2E08}"/>
+    <hyperlink ref="E433" r:id="rId207" xr:uid="{26C0813A-EF77-4C9D-A587-5DD6DF620670}"/>
+    <hyperlink ref="E432" r:id="rId208" xr:uid="{F00A1179-0DD7-46E0-9E45-E1614531479C}"/>
+    <hyperlink ref="E431" r:id="rId209" xr:uid="{D20636F6-981A-427E-AD7D-EB872821F0D5}"/>
+    <hyperlink ref="E430" r:id="rId210" xr:uid="{F372F92E-C463-4014-95BD-04FFFDBDEB42}"/>
+    <hyperlink ref="E429" r:id="rId211" xr:uid="{56A8E3DD-24E5-4573-B734-7C99E5A41DAA}"/>
+    <hyperlink ref="E428" r:id="rId212" xr:uid="{684DE4A8-FF77-424D-820F-2E0D2644696F}"/>
+    <hyperlink ref="E427" r:id="rId213" xr:uid="{0F3C22DC-CA1E-4E0F-A3F4-F6D3E2531BF7}"/>
+    <hyperlink ref="E426" r:id="rId214" xr:uid="{9E65F996-5DBF-45B5-B82A-54673E4CEC67}"/>
+    <hyperlink ref="E425" r:id="rId215" xr:uid="{4A481F12-3493-4123-B73A-BD78049572DA}"/>
+    <hyperlink ref="E424" r:id="rId216" xr:uid="{A7E532D0-3D95-4790-B3E1-CFE4409A982E}"/>
+    <hyperlink ref="E423" r:id="rId217" xr:uid="{84F9EFFF-71D6-4B03-BC39-07CF9AAAE6DB}"/>
+    <hyperlink ref="E422" r:id="rId218" xr:uid="{11F491D7-D656-42B3-A0F8-3E5DD9B0146E}"/>
+    <hyperlink ref="E421" r:id="rId219" xr:uid="{5E03DC25-BFA7-4EED-BF5E-49D36A8B9CCD}"/>
+    <hyperlink ref="E420" r:id="rId220" xr:uid="{57539448-F676-4A4E-9FAC-F9F045E61D2B}"/>
+    <hyperlink ref="E419" r:id="rId221" xr:uid="{CD63D84D-526F-4859-9099-23AFF23A9C93}"/>
+    <hyperlink ref="E418" r:id="rId222" xr:uid="{08307445-C945-4826-A5BF-D12D3D016F79}"/>
+    <hyperlink ref="E417" r:id="rId223" xr:uid="{3E3238FA-B902-47EB-8A0D-CB3E02444B19}"/>
+    <hyperlink ref="E416" r:id="rId224" xr:uid="{0C2D1324-8D6D-49E9-B235-663CCF1DA3F0}"/>
+    <hyperlink ref="E415" r:id="rId225" xr:uid="{49EB9E53-1D21-4EF5-95BD-7E0C6DB92828}"/>
+    <hyperlink ref="E414" r:id="rId226" xr:uid="{C1FED9D7-79F6-4DD4-8261-5399E0CD63C4}"/>
+    <hyperlink ref="E413" r:id="rId227" xr:uid="{A895037F-36EA-4D8B-9AA6-25775DC0009B}"/>
+    <hyperlink ref="E412" r:id="rId228" xr:uid="{E5428598-600F-46E3-BA6C-82FE65727A2C}"/>
+    <hyperlink ref="E411" r:id="rId229" xr:uid="{EFB1D895-3718-4E8E-A6E5-99B7DDE1DBE4}"/>
+    <hyperlink ref="E410" r:id="rId230" xr:uid="{2B125EC8-B08E-4B21-8B06-F182347F683B}"/>
+    <hyperlink ref="E409" r:id="rId231" xr:uid="{B71C7952-D391-4643-9614-67043F67DBA1}"/>
+    <hyperlink ref="E408" r:id="rId232" xr:uid="{88AEB49E-4E54-4B02-860E-5E2B9B7E4274}"/>
+    <hyperlink ref="E407" r:id="rId233" xr:uid="{ED7770A5-4918-401B-8B9E-4BDC00D9BA28}"/>
+    <hyperlink ref="E406" r:id="rId234" xr:uid="{80373971-7AA6-4966-907B-431E1CC53A19}"/>
+    <hyperlink ref="E405" r:id="rId235" xr:uid="{55E4CCE9-D440-4BD7-90B9-C919993DA3ED}"/>
+    <hyperlink ref="E404" r:id="rId236" xr:uid="{9FC2649D-06C0-415F-9846-81AC9CA8721B}"/>
+    <hyperlink ref="E403" r:id="rId237" xr:uid="{63B35342-866D-4EC7-B522-A4B103AF6502}"/>
+    <hyperlink ref="E402" r:id="rId238" xr:uid="{DA5BA42C-D978-4E1C-9E35-0E2E03C75E42}"/>
+    <hyperlink ref="E401" r:id="rId239" xr:uid="{4B500061-CA24-44BD-9C54-E1EACA6E26AE}"/>
+    <hyperlink ref="E400" r:id="rId240" xr:uid="{8DEF42FC-5579-401E-9806-D5B19A67A356}"/>
+    <hyperlink ref="E399" r:id="rId241" xr:uid="{2DFAF0A2-6CCB-44C7-AD6E-F8A067890152}"/>
+    <hyperlink ref="E398" r:id="rId242" xr:uid="{D5117106-4BBE-42A9-984F-F743441D91DF}"/>
+    <hyperlink ref="E397" r:id="rId243" xr:uid="{53D9E781-DCEE-47C9-B474-58C4EA43F0BC}"/>
+    <hyperlink ref="E396" r:id="rId244" xr:uid="{6848BB28-379D-4E63-A21B-55517506DEE9}"/>
+    <hyperlink ref="E395" r:id="rId245" xr:uid="{5AD6112C-CD5E-498E-B110-A24475AAF865}"/>
+    <hyperlink ref="E394" r:id="rId246" xr:uid="{7DCA8960-F89F-4D21-BE1D-5819C8B8B2AB}"/>
+    <hyperlink ref="E393" r:id="rId247" xr:uid="{CB74A26C-1362-4B53-9B24-BB9FE2AFB57C}"/>
+    <hyperlink ref="E392" r:id="rId248" xr:uid="{97F1CE09-422E-4915-96E6-C61B525F50FF}"/>
+    <hyperlink ref="E391" r:id="rId249" xr:uid="{E695B246-D1DE-4ED0-B0B0-C3308E618660}"/>
+    <hyperlink ref="E390" r:id="rId250" xr:uid="{A38C8401-8994-468D-9999-5D626E910E57}"/>
+    <hyperlink ref="E389" r:id="rId251" xr:uid="{6802219C-DF71-4005-9F76-6329D3EF1B91}"/>
+    <hyperlink ref="E388" r:id="rId252" xr:uid="{D31F3CDB-57EF-42C2-B0D4-F0602D1CF562}"/>
+    <hyperlink ref="E387" r:id="rId253" xr:uid="{230C7262-B2E3-4CCD-9D64-61B70F42AF10}"/>
+    <hyperlink ref="E386" r:id="rId254" xr:uid="{18782C42-E4C9-4D32-8A27-4FEDABC19BB6}"/>
+    <hyperlink ref="E385" r:id="rId255" xr:uid="{DE28DC77-D064-493C-BDAF-59042163445E}"/>
+    <hyperlink ref="E384" r:id="rId256" xr:uid="{8E905B32-D4C6-43F5-BD95-E68DBF36BE27}"/>
+    <hyperlink ref="E383" r:id="rId257" xr:uid="{642FF79B-25F3-4F92-B3E6-244471C22EB6}"/>
+    <hyperlink ref="E382" r:id="rId258" xr:uid="{AF72967F-BB56-48FD-BCD4-9193EA8B3664}"/>
+    <hyperlink ref="E381" r:id="rId259" xr:uid="{897F8277-91F9-4EB1-A6A6-306F1B0E2FD9}"/>
+    <hyperlink ref="E380" r:id="rId260" xr:uid="{B18B3F18-F90B-4632-BC69-5CE8D3F6FE04}"/>
+    <hyperlink ref="E47" r:id="rId261" xr:uid="{A9CEF79B-8461-4C97-874E-A42A13C0CE6B}"/>
+    <hyperlink ref="E48" r:id="rId262" xr:uid="{C529EE76-2ED0-4C04-97C7-0FBDAAFF52BE}"/>
+    <hyperlink ref="E49" r:id="rId263" xr:uid="{7C93E44A-7CA2-4017-BB12-F2A813958037}"/>
+    <hyperlink ref="E50" r:id="rId264" xr:uid="{F9BADF37-F06D-49CA-B64A-51CC53FDEDE5}"/>
+    <hyperlink ref="E51" r:id="rId265" xr:uid="{97E1D90B-3CBB-48F3-942A-AB288D98E851}"/>
+    <hyperlink ref="E52" r:id="rId266" xr:uid="{92672974-39C4-41F0-97D8-EB53ACD25DA9}"/>
+    <hyperlink ref="E53" r:id="rId267" xr:uid="{3F4B8A3B-DC2A-4D68-831F-586F78DC96FC}"/>
+    <hyperlink ref="E54" r:id="rId268" xr:uid="{942BA644-F42D-49B4-B14B-697D8FBC1148}"/>
+    <hyperlink ref="E55" r:id="rId269" xr:uid="{8651C29D-FC26-4BF1-A864-17A2CD9026BF}"/>
+    <hyperlink ref="E56" r:id="rId270" xr:uid="{C8913972-7C67-4272-B8D8-D83707C425F6}"/>
+    <hyperlink ref="E57" r:id="rId271" xr:uid="{38E1D6BC-B667-4111-80DA-77C2783D4D86}"/>
+    <hyperlink ref="E58" r:id="rId272" xr:uid="{5ACFB913-7762-43DE-BB13-463CE0294665}"/>
+    <hyperlink ref="E59" r:id="rId273" xr:uid="{99C560A3-E721-4DA0-A57D-1CA66C867691}"/>
+    <hyperlink ref="E60" r:id="rId274" xr:uid="{67D2BB1D-8753-4482-9158-9AD4295B9974}"/>
+    <hyperlink ref="E61" r:id="rId275" xr:uid="{B2605755-D4AD-4714-A441-153FACCF8026}"/>
+    <hyperlink ref="E62" r:id="rId276" xr:uid="{DA992AD3-5280-4958-BB1F-E6CBF9D276E0}"/>
+    <hyperlink ref="E63" r:id="rId277" xr:uid="{F8CC02C3-2EFE-42C9-A748-AE4953D8D635}"/>
+    <hyperlink ref="E64" r:id="rId278" xr:uid="{5B778822-BD10-4B62-B82E-BA0245D82652}"/>
+    <hyperlink ref="E65" r:id="rId279" xr:uid="{82043E07-9747-4034-A732-44789A302A3F}"/>
+    <hyperlink ref="E66" r:id="rId280" xr:uid="{FE597A2A-33A1-4E60-8EC4-09EECFBBFC4D}"/>
+    <hyperlink ref="E379" r:id="rId281" xr:uid="{064464E5-4E3D-40E8-A04B-5D423FF2B4A1}"/>
+    <hyperlink ref="E378" r:id="rId282" xr:uid="{F0FD8945-5F6B-4722-8E19-F404588DDAC9}"/>
+    <hyperlink ref="E377" r:id="rId283" xr:uid="{4E711196-C26F-4741-941C-9D7735AC2393}"/>
+    <hyperlink ref="E376" r:id="rId284" xr:uid="{C5FCF6CE-9309-4947-9BF4-DB3A5C0EBAEF}"/>
+    <hyperlink ref="E375" r:id="rId285" xr:uid="{C035C168-F1AC-4D2D-896E-B65B62659E56}"/>
+    <hyperlink ref="E374" r:id="rId286" xr:uid="{C4E053D9-346E-4DD9-9F05-FC1B16DF6620}"/>
+    <hyperlink ref="E373" r:id="rId287" xr:uid="{8DAEB4D4-FF5E-4634-A1A0-2EA5021684E4}"/>
+    <hyperlink ref="E372" r:id="rId288" xr:uid="{BD4D2D36-DEF9-4703-991E-679B62BDB607}"/>
+    <hyperlink ref="E371" r:id="rId289" xr:uid="{71F32E0D-B492-408B-9A61-3FAA023C85B2}"/>
+    <hyperlink ref="E370" r:id="rId290" xr:uid="{5DC7FD6E-5739-4CC2-877F-697104216AC0}"/>
+    <hyperlink ref="E369" r:id="rId291" xr:uid="{C8E882F6-422B-41B0-96AD-CAB4A1A29EB3}"/>
+    <hyperlink ref="E368" r:id="rId292" xr:uid="{129A9C97-1FE4-4371-B600-925C53985399}"/>
+    <hyperlink ref="E367" r:id="rId293" xr:uid="{0FEBE04E-49E3-49D4-89C2-304D198033A0}"/>
+    <hyperlink ref="E366" r:id="rId294" xr:uid="{0DCAFBD5-A09D-4FFC-A2AD-8ADFD1CA3F78}"/>
+    <hyperlink ref="E365" r:id="rId295" xr:uid="{ADAC89A2-015B-4704-B05E-C8DFDE33316A}"/>
+    <hyperlink ref="E364" r:id="rId296" xr:uid="{A9018C61-3DA8-46F8-927E-AE5B2E404ACF}"/>
+    <hyperlink ref="E363" r:id="rId297" xr:uid="{293F6CCF-F3A2-44BE-B396-F474AC98C010}"/>
+    <hyperlink ref="E362" r:id="rId298" xr:uid="{ECFB9DE8-6A46-486E-AD6F-88FF0DCAAC04}"/>
+    <hyperlink ref="E361" r:id="rId299" xr:uid="{F14F9137-7E5E-49B9-B0B5-0C4BF3AE6B40}"/>
+    <hyperlink ref="E360" r:id="rId300" xr:uid="{CD355167-E158-4384-A270-A0B98EB99B75}"/>
+    <hyperlink ref="E359" r:id="rId301" xr:uid="{FCE45117-0086-4DA0-BA87-15D1409F2A79}"/>
+    <hyperlink ref="E358" r:id="rId302" xr:uid="{2C625F7C-FE00-4286-B19F-2847E69F0A5A}"/>
+    <hyperlink ref="E357" r:id="rId303" xr:uid="{CABFA26E-5AD4-46F7-8237-A3F5C34844D1}"/>
+    <hyperlink ref="E356" r:id="rId304" xr:uid="{4754F170-9914-41C1-976B-DC579739E540}"/>
+    <hyperlink ref="E355" r:id="rId305" xr:uid="{12523F65-C1DF-4FD9-BD3B-2DF7F66E3778}"/>
+    <hyperlink ref="E354" r:id="rId306" xr:uid="{7087637D-E76D-4007-B1F5-651C5B808CA1}"/>
+    <hyperlink ref="E353" r:id="rId307" xr:uid="{A5CD93AD-4803-4CF8-B56F-5AD3EB5DF6BC}"/>
+    <hyperlink ref="E352" r:id="rId308" xr:uid="{508194E9-72DA-4CA6-827B-E93872E5AF7A}"/>
+    <hyperlink ref="E351" r:id="rId309" xr:uid="{3DE97277-A2C3-4761-B2C6-D089F867CD75}"/>
+    <hyperlink ref="E350" r:id="rId310" xr:uid="{4A00DCC8-ABBA-4CE9-9276-89AE6A72603C}"/>
+    <hyperlink ref="E349" r:id="rId311" xr:uid="{E22FCBC9-3A4C-4CD7-843B-9B5DDC102428}"/>
+    <hyperlink ref="E348" r:id="rId312" xr:uid="{A16CE11E-F8B9-465D-9B4D-15E97CAFF891}"/>
+    <hyperlink ref="E347" r:id="rId313" xr:uid="{98F30670-A4D0-49EA-ABE4-652DDD903E90}"/>
+    <hyperlink ref="E346" r:id="rId314" xr:uid="{CF4729A9-67B8-4379-A708-B836F3EE1D84}"/>
+    <hyperlink ref="E345" r:id="rId315" xr:uid="{9FCCA4F2-E15A-4252-A8DD-7DC2EED3268F}"/>
+    <hyperlink ref="E344" r:id="rId316" xr:uid="{6F8D3DD1-8B0A-401B-86DF-DCCEBDC5736B}"/>
+    <hyperlink ref="E343" r:id="rId317" xr:uid="{89455DC8-5EF4-47B0-9DDE-914E34FD178B}"/>
+    <hyperlink ref="E342" r:id="rId318" xr:uid="{5CA02A2F-4732-4D95-853A-667DA37FBBE0}"/>
+    <hyperlink ref="E341" r:id="rId319" xr:uid="{ABB03DEB-BB2A-42C2-9D9C-53EE30691C6B}"/>
+    <hyperlink ref="E340" r:id="rId320" xr:uid="{B56001EB-A1D6-4059-9129-03FE842189A2}"/>
+    <hyperlink ref="E339" r:id="rId321" xr:uid="{EB1EF9D4-A8C9-44D1-AB20-7B4A5A1E042B}"/>
+    <hyperlink ref="E338" r:id="rId322" xr:uid="{A9632E2E-95E8-4296-80D7-FF64248EBC33}"/>
+    <hyperlink ref="E337" r:id="rId323" xr:uid="{7136D9B4-BD98-416E-A671-ADB454EA0055}"/>
+    <hyperlink ref="E336" r:id="rId324" xr:uid="{4E636D81-6B95-4DE2-9EFF-B6B3F9E02105}"/>
+    <hyperlink ref="E335" r:id="rId325" xr:uid="{4273B0D4-F77C-4956-ADBC-042F63004A81}"/>
+    <hyperlink ref="E334" r:id="rId326" xr:uid="{8238A56E-F436-4D54-AE06-03303A5BF91F}"/>
+    <hyperlink ref="E333" r:id="rId327" xr:uid="{7655DFE9-C701-4875-A99C-B1E50F69D137}"/>
+    <hyperlink ref="E332" r:id="rId328" xr:uid="{459F870F-210B-404B-9402-99762B308D98}"/>
+    <hyperlink ref="E331" r:id="rId329" xr:uid="{81D1B907-B823-4881-ADC2-8EFD28CA4074}"/>
+    <hyperlink ref="E330" r:id="rId330" xr:uid="{9D342BD2-CAC0-4DC3-9D6E-4240F4CDBDA7}"/>
+    <hyperlink ref="E329" r:id="rId331" xr:uid="{EAD92C92-815A-4274-BF6E-685A47EC6022}"/>
+    <hyperlink ref="E328" r:id="rId332" xr:uid="{1F71747B-1F1A-4390-B05D-65C698E5F5C4}"/>
+    <hyperlink ref="E327" r:id="rId333" xr:uid="{D2F29F4B-361C-4753-B17D-DD0024A27ACA}"/>
+    <hyperlink ref="E326" r:id="rId334" xr:uid="{194156F6-54C8-44A8-A6DB-79ED6EF5A9F5}"/>
+    <hyperlink ref="E325" r:id="rId335" xr:uid="{9971348E-B5D1-4631-9AFA-72176CD76947}"/>
+    <hyperlink ref="E324" r:id="rId336" xr:uid="{67E6DEC6-DD4B-4075-9FEC-E82DF8AFDBBB}"/>
+    <hyperlink ref="E323" r:id="rId337" xr:uid="{6E1147EE-86FB-43A5-8EA4-C86E03F9C28F}"/>
+    <hyperlink ref="E322" r:id="rId338" xr:uid="{2A4C5271-6CDA-4014-AC7F-92D68565925D}"/>
+    <hyperlink ref="E321" r:id="rId339" xr:uid="{C1DCF351-3357-4C01-8AF5-E941E7350643}"/>
+    <hyperlink ref="E320" r:id="rId340" xr:uid="{075F4D4B-11A7-4348-9760-20D95835CEF5}"/>
+    <hyperlink ref="E319" r:id="rId341" xr:uid="{2611BE13-7FBB-4B45-9B4B-5BAC2A92EC79}"/>
+    <hyperlink ref="E318" r:id="rId342" xr:uid="{FB3030DE-6712-4745-A442-FCA51388823F}"/>
+    <hyperlink ref="E317" r:id="rId343" xr:uid="{5180B1F4-8FB0-4414-B519-ABF01DC65AB7}"/>
+    <hyperlink ref="E316" r:id="rId344" xr:uid="{CAED711A-6004-42B3-A2B4-107B22782CC6}"/>
+    <hyperlink ref="E315" r:id="rId345" xr:uid="{B2455789-A80F-4531-8878-45166E8485C1}"/>
+    <hyperlink ref="E314" r:id="rId346" xr:uid="{AE69BB08-6AC1-415F-9A5A-559B76C6E8DD}"/>
+    <hyperlink ref="E313" r:id="rId347" xr:uid="{675DC066-9838-43AE-893F-A0574DDA2E12}"/>
+    <hyperlink ref="E312" r:id="rId348" xr:uid="{740E2504-9B43-4045-B7D6-20EB31440FC5}"/>
+    <hyperlink ref="E311" r:id="rId349" xr:uid="{5BBE9873-E4B1-4674-8EFB-8A1BBBEFE401}"/>
+    <hyperlink ref="E310" r:id="rId350" xr:uid="{B104E4A9-D596-4240-BF5A-0AD193CEF6E7}"/>
+    <hyperlink ref="E309" r:id="rId351" xr:uid="{CE4D67E9-B669-467B-900F-5B1C6CF4551E}"/>
+    <hyperlink ref="E308" r:id="rId352" xr:uid="{6FE8E3B6-0DD9-4DAB-93C3-454663AAFECB}"/>
+    <hyperlink ref="E307" r:id="rId353" xr:uid="{F6BA4387-4600-4D27-84CB-490777B3C698}"/>
+    <hyperlink ref="E306" r:id="rId354" xr:uid="{15A22D12-53F8-4217-9707-91963EFB8D08}"/>
+    <hyperlink ref="E305" r:id="rId355" xr:uid="{31C9D230-13A3-424E-B8FE-4A2ACFF64BA9}"/>
+    <hyperlink ref="E304" r:id="rId356" xr:uid="{A6A775B1-8FEE-4ED3-89D4-E1566657328B}"/>
+    <hyperlink ref="E303" r:id="rId357" xr:uid="{405F8F90-C1CA-4DCF-8D74-02708454985E}"/>
+    <hyperlink ref="E302" r:id="rId358" xr:uid="{FE1F099B-1401-44BB-A505-DEFE41846945}"/>
+    <hyperlink ref="E301" r:id="rId359" xr:uid="{71EBBA36-BF20-41C1-9B60-0779609B5C58}"/>
+    <hyperlink ref="E300" r:id="rId360" xr:uid="{B47C803A-5D5D-40EB-B81C-A4FB254CCFD7}"/>
+    <hyperlink ref="E299" r:id="rId361" xr:uid="{1B1F8B39-5ED8-46A2-BF9D-CEA89258181E}"/>
+    <hyperlink ref="E298" r:id="rId362" xr:uid="{6CCA902D-88BF-4F2A-84EF-12EB0F33B432}"/>
+    <hyperlink ref="E297" r:id="rId363" xr:uid="{0B87D2E7-EB62-4509-8D67-7BF52D40CD10}"/>
+    <hyperlink ref="E296" r:id="rId364" xr:uid="{2371A8B8-163D-4B2A-A2FD-3F657BE217B5}"/>
+    <hyperlink ref="E295" r:id="rId365" xr:uid="{CF3017B3-CE17-4061-8577-05E23171C622}"/>
+    <hyperlink ref="E294" r:id="rId366" xr:uid="{C490F712-AC81-4974-A34D-6E58EF7671AA}"/>
+    <hyperlink ref="E293" r:id="rId367" xr:uid="{E58FC960-B486-40FC-AED7-E61F017C3723}"/>
+    <hyperlink ref="E292" r:id="rId368" xr:uid="{B05C20B6-326B-40C6-A22D-C98DC28E94EB}"/>
+    <hyperlink ref="E291" r:id="rId369" xr:uid="{A50D30BC-6F25-4F5E-9332-5C24DA764FB6}"/>
+    <hyperlink ref="E290" r:id="rId370" xr:uid="{9698143D-D8B9-4CEC-B198-B97FF747D239}"/>
+    <hyperlink ref="E289" r:id="rId371" xr:uid="{897A4008-29CF-4972-8E7C-6B71936AE45F}"/>
+    <hyperlink ref="E288" r:id="rId372" xr:uid="{265871D0-47B8-4601-80B7-678AA6D57AD1}"/>
+    <hyperlink ref="E287" r:id="rId373" xr:uid="{B9AE5D32-C1A0-4648-943E-1311228E00E1}"/>
+    <hyperlink ref="E286" r:id="rId374" xr:uid="{4CBF2DA4-940E-4A74-B429-CC92561F0567}"/>
+    <hyperlink ref="E285" r:id="rId375" xr:uid="{7E97A7BC-1F33-4E56-BF2B-01022E458F64}"/>
+    <hyperlink ref="E284" r:id="rId376" xr:uid="{996E3BA9-0F2A-4F8B-BEB8-12B23B8E06CC}"/>
+    <hyperlink ref="E283" r:id="rId377" xr:uid="{53D35125-03B8-4F6B-8253-84B018CB4D91}"/>
+    <hyperlink ref="E282" r:id="rId378" xr:uid="{A22C9E1C-0EC3-433F-B7E6-C137A611C435}"/>
+    <hyperlink ref="E281" r:id="rId379" xr:uid="{176EBAC6-5839-4707-8FB6-1E2827882D4D}"/>
+    <hyperlink ref="E280" r:id="rId380" xr:uid="{5759CA27-6C70-4212-8498-459EEE526AC5}"/>
+    <hyperlink ref="E279" r:id="rId381" xr:uid="{A467F01E-6DE0-4B69-A93F-8F22AA44A8FE}"/>
+    <hyperlink ref="E278" r:id="rId382" xr:uid="{D5C50FF1-CA06-40ED-8401-3FA0289ADA00}"/>
+    <hyperlink ref="E277" r:id="rId383" xr:uid="{DB3764B1-AE9F-4CB5-977D-9684994C222B}"/>
+    <hyperlink ref="E276" r:id="rId384" xr:uid="{5AD63DCB-8B46-432E-A148-B1F9E1AAFDAA}"/>
+    <hyperlink ref="E275" r:id="rId385" xr:uid="{59347BF4-CBE1-4848-A291-80907A0492F7}"/>
+    <hyperlink ref="E274" r:id="rId386" xr:uid="{5D2D3129-CD22-4C77-A451-D3F83D87CDA3}"/>
+    <hyperlink ref="E273" r:id="rId387" xr:uid="{53A87555-D46F-4416-AD76-395B63993DE0}"/>
+    <hyperlink ref="E272" r:id="rId388" xr:uid="{244B2201-9329-4E37-8B7B-01497A886E61}"/>
+    <hyperlink ref="E271" r:id="rId389" xr:uid="{EBE61327-DA61-49EB-B63E-21DDC265B98F}"/>
+    <hyperlink ref="E270" r:id="rId390" xr:uid="{B7AD1A56-E8B8-41D5-AF16-8B85F1747E39}"/>
+    <hyperlink ref="E269" r:id="rId391" xr:uid="{D893B3C9-4745-4F0C-A6E7-6150A12DAB3C}"/>
+    <hyperlink ref="E268" r:id="rId392" xr:uid="{E104C28F-F19A-4B18-9BC0-419EC12F1487}"/>
+    <hyperlink ref="E267" r:id="rId393" xr:uid="{D58B8EE2-C977-4333-A1BD-39E20B8C940E}"/>
+    <hyperlink ref="E266" r:id="rId394" xr:uid="{2DA6FDED-8947-4119-8AAE-59EC5367DA61}"/>
+    <hyperlink ref="E265" r:id="rId395" xr:uid="{195F0F1A-9F78-4A3F-B937-D84FC911C2B6}"/>
+    <hyperlink ref="E264" r:id="rId396" xr:uid="{552A419B-7BCD-4FAD-BFBC-8FF64B763E79}"/>
+    <hyperlink ref="E263" r:id="rId397" xr:uid="{E3E9148A-0526-4327-A977-896DDB82051A}"/>
+    <hyperlink ref="E262" r:id="rId398" xr:uid="{31EB578D-87C5-4DB0-BA53-9DAFBFD762EE}"/>
+    <hyperlink ref="E261" r:id="rId399" xr:uid="{8C4F9391-AD84-4D00-990E-0434D81D94AD}"/>
+    <hyperlink ref="E260" r:id="rId400" xr:uid="{13203EDC-1D47-4903-8140-1F8EB49ACA19}"/>
+    <hyperlink ref="E259" r:id="rId401" xr:uid="{F8A2DDC3-3C51-44BE-9F88-82863B6B6592}"/>
+    <hyperlink ref="E258" r:id="rId402" xr:uid="{C0946754-76EC-4AEE-8398-578658B1C1F5}"/>
+    <hyperlink ref="E257" r:id="rId403" xr:uid="{7E0F18C4-8DDE-4C97-A33A-863AEE117579}"/>
+    <hyperlink ref="E256" r:id="rId404" xr:uid="{3F05A375-EE9A-45A7-BFF1-508BB7E79D4E}"/>
+    <hyperlink ref="E255" r:id="rId405" xr:uid="{37D43334-A761-4424-A2C2-73C5204D53D9}"/>
+    <hyperlink ref="E254" r:id="rId406" xr:uid="{AE2BAE29-27F1-4656-93DF-1C3E4305A06D}"/>
+    <hyperlink ref="E253" r:id="rId407" xr:uid="{0ECF4467-9DD3-476A-B913-574E7EF96866}"/>
+    <hyperlink ref="E252" r:id="rId408" xr:uid="{1597D6B7-C815-4B21-ADA8-B66E2996AB49}"/>
+    <hyperlink ref="E251" r:id="rId409" xr:uid="{5BB0FF10-65F0-4DCB-A99C-7F850BCF6143}"/>
+    <hyperlink ref="E250" r:id="rId410" xr:uid="{5A48B422-9B0B-4F39-B068-2738984E2781}"/>
+    <hyperlink ref="E249" r:id="rId411" xr:uid="{E7ED9058-8280-4574-874B-742FEF1E2996}"/>
+    <hyperlink ref="E248" r:id="rId412" xr:uid="{BAA2EACA-3A72-4B13-9E40-8BC1A27A7E5C}"/>
+    <hyperlink ref="E247" r:id="rId413" xr:uid="{111DD0AC-6B13-49F1-9B8C-AEB123D79F3C}"/>
+    <hyperlink ref="E246" r:id="rId414" xr:uid="{01BFBAA7-8EB1-43AE-9FA8-40BBC004B58C}"/>
+    <hyperlink ref="E245" r:id="rId415" xr:uid="{01F1C456-1244-4A33-BA0C-4B9C3E07B8CC}"/>
+    <hyperlink ref="E244" r:id="rId416" xr:uid="{7D76577D-C926-4DAB-8C9D-AECFC1D53D56}"/>
+    <hyperlink ref="E243" r:id="rId417" xr:uid="{14EDCD33-6BAE-4737-B454-590E05E7E608}"/>
+    <hyperlink ref="E242" r:id="rId418" xr:uid="{C558555D-BEAC-49EA-BC64-37EC9DE0D09E}"/>
+    <hyperlink ref="E241" r:id="rId419" xr:uid="{85546451-711F-4587-B3F7-E143E96F5F31}"/>
+    <hyperlink ref="E240" r:id="rId420" xr:uid="{3CB13A24-F30B-4D40-AA41-4E54F8F801B1}"/>
+    <hyperlink ref="E239" r:id="rId421" xr:uid="{94304529-34CD-437A-BB0C-EC71D045C26B}"/>
+    <hyperlink ref="E238" r:id="rId422" xr:uid="{6C8D88BF-1AF4-4C13-9461-44810AB52C29}"/>
+    <hyperlink ref="E237" r:id="rId423" xr:uid="{6C9BDC65-1583-4542-BAB6-0DCD0D1CAAFC}"/>
+    <hyperlink ref="E236" r:id="rId424" xr:uid="{AFE4C848-5671-4C4B-8260-7264048B4D00}"/>
+    <hyperlink ref="E235" r:id="rId425" xr:uid="{883A7B94-11F7-4008-9A0D-3008CDCC8B32}"/>
+    <hyperlink ref="E234" r:id="rId426" xr:uid="{6446C8C0-F13C-4B65-89AF-D08D04557AF9}"/>
+    <hyperlink ref="E233" r:id="rId427" xr:uid="{39E49660-D735-411F-BFEF-62696A0323EC}"/>
+    <hyperlink ref="E232" r:id="rId428" xr:uid="{C0214E7D-BB07-40E0-B4F2-40AEEB43E6BE}"/>
+    <hyperlink ref="E231" r:id="rId429" xr:uid="{0DD6497E-4C70-47A3-A714-8258795DB0B3}"/>
+    <hyperlink ref="E230" r:id="rId430" xr:uid="{C6E50EA0-2E02-4A6A-BFE8-A0CBD98C7CE2}"/>
+    <hyperlink ref="E229" r:id="rId431" xr:uid="{AA425D4F-C64A-4EE4-B3DA-AF47E2FD7E72}"/>
+    <hyperlink ref="E228" r:id="rId432" xr:uid="{8A6C97DF-5EA3-4762-8CEC-8680AE3F4357}"/>
+    <hyperlink ref="E227" r:id="rId433" xr:uid="{5E98DA6E-D5BC-46FD-9759-7A48C75672EA}"/>
+    <hyperlink ref="E226" r:id="rId434" xr:uid="{FD925BBF-A3CF-4EAD-BF6E-46D17776A78B}"/>
+    <hyperlink ref="E225" r:id="rId435" xr:uid="{DD5EF644-1FD3-4C54-BA75-47C361E93A95}"/>
+    <hyperlink ref="E224" r:id="rId436" xr:uid="{CD9F0C3D-44E2-4262-959E-A71466124A7F}"/>
+    <hyperlink ref="E223" r:id="rId437" xr:uid="{CCC5B05F-69C4-4E42-BD85-6348594BF94A}"/>
+    <hyperlink ref="E222" r:id="rId438" xr:uid="{9EE22C83-0F78-4771-9345-30E8A65775F2}"/>
+    <hyperlink ref="E221" r:id="rId439" xr:uid="{455DA251-0467-45C2-92C6-367BC6A6D83B}"/>
+    <hyperlink ref="E220" r:id="rId440" xr:uid="{F960260C-C629-4635-9129-8A3200A62C04}"/>
+    <hyperlink ref="E219" r:id="rId441" xr:uid="{05F34FD9-C5E6-419E-8395-F8BDD3C2F166}"/>
+    <hyperlink ref="E218" r:id="rId442" xr:uid="{C9D098AA-91BC-4776-B274-7CF87216F019}"/>
+    <hyperlink ref="E217" r:id="rId443" xr:uid="{776A1A6D-AE0A-45C8-B290-8A51F8F678A4}"/>
+    <hyperlink ref="E216" r:id="rId444" xr:uid="{53C0F91F-D40B-4A96-8853-EFA8894BC5EA}"/>
+    <hyperlink ref="E215" r:id="rId445" xr:uid="{EDF215E0-A18C-4AB9-ABAB-1B7E4FD1B34F}"/>
+    <hyperlink ref="E214" r:id="rId446" xr:uid="{9B5250A7-7161-4230-9A9C-340F6E112FA7}"/>
+    <hyperlink ref="E213" r:id="rId447" xr:uid="{6CCF635C-97CA-456E-A97D-78693F8C024C}"/>
+    <hyperlink ref="E212" r:id="rId448" xr:uid="{2D4FF3E9-3597-4EB2-B6A7-699666D92846}"/>
+    <hyperlink ref="E211" r:id="rId449" xr:uid="{CF557C6C-9C38-4E8C-843B-A2B8F5211BBA}"/>
+    <hyperlink ref="E210" r:id="rId450" xr:uid="{FC62D709-71BE-46D5-916D-6D71F5147FCD}"/>
+    <hyperlink ref="E209" r:id="rId451" xr:uid="{C8DFEA65-2DA2-498D-A336-32432B71BF01}"/>
+    <hyperlink ref="E208" r:id="rId452" xr:uid="{BA3485E1-11AF-40FB-8A62-237EABF711C2}"/>
+    <hyperlink ref="E207" r:id="rId453" xr:uid="{5D00786E-68AA-4A98-AAC9-C5760A8C15A7}"/>
+    <hyperlink ref="E206" r:id="rId454" xr:uid="{0A7FDE15-D54E-4BDC-9326-E32EC0AE0E5D}"/>
+    <hyperlink ref="E205" r:id="rId455" xr:uid="{538E57A2-12A7-4A9A-A2E7-C4A3DB9AA6C1}"/>
+    <hyperlink ref="E204" r:id="rId456" xr:uid="{C7A1959F-1493-4E38-870B-081A4A894FB9}"/>
+    <hyperlink ref="E203" r:id="rId457" xr:uid="{5A60275A-1C3A-4B3D-B13B-89438A33934D}"/>
+    <hyperlink ref="E202" r:id="rId458" xr:uid="{C5257BDE-B9DE-4943-BC3A-E879A7E03834}"/>
+    <hyperlink ref="E201" r:id="rId459" xr:uid="{29758864-2F45-4237-900B-6F84D3EE6360}"/>
+    <hyperlink ref="E200" r:id="rId460" xr:uid="{F47C17E6-2617-4043-95EB-750C68C82320}"/>
+    <hyperlink ref="E199" r:id="rId461" xr:uid="{653F6E5B-DE06-4E8C-A53D-5C7065A8728C}"/>
+    <hyperlink ref="E198" r:id="rId462" xr:uid="{9493392E-9015-46BF-9105-E937977286E5}"/>
+    <hyperlink ref="E197" r:id="rId463" xr:uid="{EE853913-7448-42E4-A3C4-E15B912DBDF4}"/>
+    <hyperlink ref="E196" r:id="rId464" xr:uid="{5E255912-7D0D-4069-8FCA-E4BE80784C21}"/>
+    <hyperlink ref="E195" r:id="rId465" xr:uid="{52391D28-C3CA-4B5A-90EE-CBBF4D4055B9}"/>
+    <hyperlink ref="E194" r:id="rId466" xr:uid="{0B46D7E6-FB20-458C-8F30-328781F244D1}"/>
+    <hyperlink ref="E193" r:id="rId467" xr:uid="{D4EB4C8E-7B45-46F1-BD3E-BFEE989537B4}"/>
+    <hyperlink ref="E192" r:id="rId468" xr:uid="{37C6673D-9C3E-4F94-9AA2-FA55C20087BC}"/>
+    <hyperlink ref="E191" r:id="rId469" xr:uid="{7599115C-2ED6-406B-8262-9765835A1FD6}"/>
+    <hyperlink ref="E190" r:id="rId470" xr:uid="{61F6355D-912B-4F3A-8365-63481F720AED}"/>
+    <hyperlink ref="E189" r:id="rId471" xr:uid="{191332CD-1BA8-4AD2-AFDF-B84F2AE8CF71}"/>
+    <hyperlink ref="E188" r:id="rId472" xr:uid="{36681C54-67FD-4D22-BE2B-287DC69B2D7F}"/>
+    <hyperlink ref="E187" r:id="rId473" xr:uid="{704BA0E6-B929-48A0-855C-70FAD87CA172}"/>
+    <hyperlink ref="E186" r:id="rId474" xr:uid="{A2B75BD7-35D1-439B-A173-05E5ED03132C}"/>
+    <hyperlink ref="E185" r:id="rId475" xr:uid="{D1D150EC-0384-471E-A5BA-0D57A1C682D0}"/>
+    <hyperlink ref="E184" r:id="rId476" xr:uid="{EBA8EC8E-63E5-4DE7-B866-BC1A6EA80FE8}"/>
+    <hyperlink ref="E183" r:id="rId477" xr:uid="{C25DF4BA-E86B-446E-80F0-EC39F8EC09E8}"/>
+    <hyperlink ref="E182" r:id="rId478" xr:uid="{33941AD5-9187-419B-A01D-EC3D5454A259}"/>
+    <hyperlink ref="E181" r:id="rId479" xr:uid="{09C768FD-28BD-4F25-83A3-E204AA08AF8F}"/>
+    <hyperlink ref="E180" r:id="rId480" xr:uid="{15124EB4-2C21-47F2-85EA-C75E1D9AC577}"/>
+    <hyperlink ref="E179" r:id="rId481" xr:uid="{6A502110-2E62-490A-BB50-811C32B842E1}"/>
+    <hyperlink ref="E178" r:id="rId482" xr:uid="{957C5576-CABB-4476-BB0B-3AEF72832169}"/>
+    <hyperlink ref="E177" r:id="rId483" xr:uid="{738720C3-3028-46FE-B581-AB979A7508F2}"/>
+    <hyperlink ref="E176" r:id="rId484" xr:uid="{DF5C320B-CC8F-4193-BC23-428C5687B46E}"/>
+    <hyperlink ref="E175" r:id="rId485" xr:uid="{E4BEA186-EB4B-4849-8A4F-C855FC31BC98}"/>
+    <hyperlink ref="E174" r:id="rId486" xr:uid="{57FA9DEC-B82B-421C-B971-41F0F0A7A4AD}"/>
+    <hyperlink ref="E173" r:id="rId487" xr:uid="{FA127EED-976F-43B4-ADBB-7EB4C84ED87D}"/>
+    <hyperlink ref="E172" r:id="rId488" xr:uid="{C77D23C8-0D93-4F48-ADED-760A00D1FE9B}"/>
+    <hyperlink ref="E171" r:id="rId489" xr:uid="{C884B752-B648-45B4-9365-35118A726F9A}"/>
+    <hyperlink ref="E170" r:id="rId490" xr:uid="{F10146E3-E62E-4B10-ADFF-0DEF03B60A2C}"/>
+    <hyperlink ref="E169" r:id="rId491" xr:uid="{0704DCE9-0959-43BB-A133-8C799F8D9925}"/>
+    <hyperlink ref="E168" r:id="rId492" xr:uid="{A452F9B4-1C44-4822-9ED4-3415E59B4028}"/>
+    <hyperlink ref="E167" r:id="rId493" xr:uid="{C5D0816C-273A-4E6E-BF29-AF732C408190}"/>
+    <hyperlink ref="E166" r:id="rId494" xr:uid="{EB5BF0F7-144C-49AE-884C-1B4565CB5825}"/>
+    <hyperlink ref="E165" r:id="rId495" xr:uid="{14341834-80C0-4391-B902-B5EDD95DA4A9}"/>
+    <hyperlink ref="E164" r:id="rId496" xr:uid="{DB6B886C-4E95-404A-ADCB-1FE39C8085DA}"/>
+    <hyperlink ref="E163" r:id="rId497" xr:uid="{7C725731-26EF-4143-A099-7F536F3F380E}"/>
+    <hyperlink ref="E162" r:id="rId498" xr:uid="{0BA28409-62DE-412C-9414-ACEE129767E6}"/>
+    <hyperlink ref="E161" r:id="rId499" xr:uid="{16506D83-6F86-4C14-AEAA-61C24982189A}"/>
+    <hyperlink ref="E160" r:id="rId500" xr:uid="{BC887E8E-6968-4B61-8966-24B97F70C806}"/>
+    <hyperlink ref="E159" r:id="rId501" xr:uid="{3BBDD774-F302-460E-AC88-EFFC26A7800D}"/>
+    <hyperlink ref="E158" r:id="rId502" xr:uid="{0445392A-BC35-4955-BDE1-DEDCE4CFCB52}"/>
+    <hyperlink ref="E157" r:id="rId503" xr:uid="{5B2A4B8E-D1B5-40E9-80F0-D8B42F52E2CA}"/>
+    <hyperlink ref="E156" r:id="rId504" xr:uid="{945F80AE-4884-4480-8856-B2361DADCC92}"/>
+    <hyperlink ref="E155" r:id="rId505" xr:uid="{21751B25-16D3-4BB4-95EF-170D8D9A5B07}"/>
+    <hyperlink ref="E154" r:id="rId506" xr:uid="{C900FCA4-33EA-49B1-AF86-91D1AD63CCA9}"/>
+    <hyperlink ref="E153" r:id="rId507" xr:uid="{12E89D01-BAAE-488A-B489-32CA76254C49}"/>
+    <hyperlink ref="E152" r:id="rId508" xr:uid="{E9DF3801-6016-444C-B2C9-BA11FA3425FB}"/>
+    <hyperlink ref="E151" r:id="rId509" xr:uid="{CE0FC661-9F20-4587-A034-806534A7BEA2}"/>
+    <hyperlink ref="E150" r:id="rId510" xr:uid="{A0C72145-E4F5-4B6E-A1BC-2B9F7D0ECD00}"/>
+    <hyperlink ref="E149" r:id="rId511" xr:uid="{70991917-1C2C-4176-A058-3C13B6243CA2}"/>
+    <hyperlink ref="E148" r:id="rId512" xr:uid="{014698E3-6E3F-490B-B09E-1399A52383C1}"/>
+    <hyperlink ref="E147" r:id="rId513" xr:uid="{5FF43639-01BF-4C10-BD7E-02EA52BBEC67}"/>
+    <hyperlink ref="E146" r:id="rId514" xr:uid="{B8DE55EB-BAF1-4F58-9E75-D44032CDE158}"/>
+    <hyperlink ref="E145" r:id="rId515" xr:uid="{776DEBAB-24C5-4F09-A4AC-4CCF67A9CC16}"/>
+    <hyperlink ref="E144" r:id="rId516" xr:uid="{6C85DEF0-C9CA-4B1E-9783-7DC6803D5B68}"/>
+    <hyperlink ref="E143" r:id="rId517" xr:uid="{FEBBCA2B-152C-4679-8E6B-D40141480026}"/>
+    <hyperlink ref="E142" r:id="rId518" xr:uid="{94BF98E9-9CDC-47FA-B138-AC9268A072E5}"/>
+    <hyperlink ref="E141" r:id="rId519" xr:uid="{6F3C2D3B-DDE8-4B21-97B9-630091C452FC}"/>
+    <hyperlink ref="E140" r:id="rId520" xr:uid="{BEFB2006-A703-433E-B412-E808CC2AA9A9}"/>
+    <hyperlink ref="E67" r:id="rId521" xr:uid="{F2E25CA8-C362-4B51-B2F4-361801A4BA8F}"/>
+    <hyperlink ref="E68" r:id="rId522" xr:uid="{AE0DDC27-AE65-413E-961B-D45CF10341AB}"/>
+    <hyperlink ref="E69" r:id="rId523" xr:uid="{845B058B-73D2-453B-AA80-CC37C737284D}"/>
+    <hyperlink ref="E70" r:id="rId524" xr:uid="{106D08D1-F5C1-453A-9BE7-677964256DE7}"/>
+    <hyperlink ref="E71" r:id="rId525" xr:uid="{D35172B0-800B-404B-946B-CFFB702250CE}"/>
+    <hyperlink ref="E72" r:id="rId526" xr:uid="{F87813BA-D7F1-4B66-96CB-D44AD86BFE3A}"/>
+    <hyperlink ref="E73" r:id="rId527" xr:uid="{AE0E9AD8-099F-4036-A166-B484CA1588F5}"/>
+    <hyperlink ref="E74" r:id="rId528" xr:uid="{A3A18AFD-81FC-4CF3-8E20-5D9670058017}"/>
+    <hyperlink ref="E75" r:id="rId529" xr:uid="{E0135C12-E696-4DC2-8CFE-141F4A216E77}"/>
+    <hyperlink ref="E76" r:id="rId530" xr:uid="{287AC106-2184-4ADE-B787-A87A13375890}"/>
+    <hyperlink ref="E77" r:id="rId531" xr:uid="{80231DD4-5264-4EA6-BEBA-8970C9429233}"/>
+    <hyperlink ref="E78" r:id="rId532" xr:uid="{CDF26A8A-529E-4740-84CB-A33ED4E2529B}"/>
+    <hyperlink ref="E79" r:id="rId533" xr:uid="{797E34A3-BB41-4A16-AD9D-37E2B39051A3}"/>
+    <hyperlink ref="E139" r:id="rId534" xr:uid="{7D367F68-E2FB-47F2-A68B-35E60654C9AF}"/>
+    <hyperlink ref="E138" r:id="rId535" xr:uid="{41074AC1-6FB5-4FE0-AE9E-A54DB08B2546}"/>
+    <hyperlink ref="E137" r:id="rId536" xr:uid="{9B6290F4-27E8-4253-951A-D93DEC4E706E}"/>
+    <hyperlink ref="E136" r:id="rId537" xr:uid="{FDDF3C96-3036-4325-89B7-1A72A0CC9BF5}"/>
+    <hyperlink ref="E135" r:id="rId538" xr:uid="{8AB7EF8D-46F8-4F70-8828-92034B75771B}"/>
+    <hyperlink ref="E134" r:id="rId539" xr:uid="{A20E71A1-2304-4C63-949B-B313581B9050}"/>
+    <hyperlink ref="E133" r:id="rId540" xr:uid="{901B4D70-D259-426E-9446-EC756F293593}"/>
+    <hyperlink ref="E132" r:id="rId541" xr:uid="{6554D428-04BC-4E71-A42C-36DC5BAC8551}"/>
+    <hyperlink ref="E131" r:id="rId542" xr:uid="{0FC171FD-F1E8-471C-9D69-FA73785C73C6}"/>
+    <hyperlink ref="E130" r:id="rId543" xr:uid="{AA543854-C125-429D-80D6-E60FCF3EAD26}"/>
+    <hyperlink ref="E129" r:id="rId544" xr:uid="{A79263B4-52FC-4CAE-9DC6-DF44B5DA4305}"/>
+    <hyperlink ref="E128" r:id="rId545" xr:uid="{D6CCBA38-313B-48A9-9EA7-D1A718E4B1D0}"/>
+    <hyperlink ref="E127" r:id="rId546" xr:uid="{2FEBA86A-8C6E-465A-B4F6-D27EFDE4B8E8}"/>
+    <hyperlink ref="E126" r:id="rId547" xr:uid="{45932A69-C1C3-4A77-A9B7-69866929D449}"/>
+    <hyperlink ref="E125" r:id="rId548" xr:uid="{E5E16705-6C0F-46D3-9EE6-5D6C0F21BBCC}"/>
+    <hyperlink ref="E124" r:id="rId549" xr:uid="{46EE5627-454D-4698-ACF5-580D8846E790}"/>
+    <hyperlink ref="E123" r:id="rId550" xr:uid="{A0C59420-AE90-4B37-9898-2087AD2B6610}"/>
+    <hyperlink ref="E122" r:id="rId551" xr:uid="{299B7903-9A7C-4CEF-B522-157935C2A98B}"/>
+    <hyperlink ref="E121" r:id="rId552" xr:uid="{AEDF31C0-8783-4B68-BB75-02B91A9DCC81}"/>
+    <hyperlink ref="E120" r:id="rId553" xr:uid="{C6DCF2C8-E302-480D-994A-070E1D0C9463}"/>
+    <hyperlink ref="E119" r:id="rId554" xr:uid="{9D5F8A6E-3244-45E6-A4B8-4F4432F03170}"/>
+    <hyperlink ref="E118" r:id="rId555" xr:uid="{FAAE07D2-E216-4679-B07F-CD9171083537}"/>
+    <hyperlink ref="E117" r:id="rId556" xr:uid="{64F5EF48-8102-4F66-ADB0-E259A7916DBD}"/>
+    <hyperlink ref="E116" r:id="rId557" xr:uid="{6C0398D8-DCFB-4053-9147-5FCA54B263E8}"/>
+    <hyperlink ref="E115" r:id="rId558" xr:uid="{904B15BF-4AF3-44A0-9B4B-42F88E492E62}"/>
+    <hyperlink ref="E114" r:id="rId559" xr:uid="{58BFB99D-12DF-454E-84FF-2F6B4BA196EB}"/>
+    <hyperlink ref="E113" r:id="rId560" xr:uid="{69469AB4-DFBE-4D19-B03D-50A3E5443F88}"/>
+    <hyperlink ref="E112" r:id="rId561" xr:uid="{FD338432-76D4-4578-B519-A0BC4F72A144}"/>
+    <hyperlink ref="E111" r:id="rId562" xr:uid="{18AF0E91-2EF6-43AE-8288-8099E1E640B5}"/>
+    <hyperlink ref="E110" r:id="rId563" xr:uid="{E0CF0636-1C7C-45CB-A634-C098CE35088D}"/>
+    <hyperlink ref="E109" r:id="rId564" xr:uid="{EDE42B61-869C-4FB8-BED2-B4CF97EC9E46}"/>
+    <hyperlink ref="E108" r:id="rId565" xr:uid="{F27520C2-A707-4EE0-A048-FC9E2A03E1C3}"/>
+    <hyperlink ref="E107" r:id="rId566" xr:uid="{472E7AD7-3E8B-474A-B304-A50CBD2F02E3}"/>
+    <hyperlink ref="E106" r:id="rId567" xr:uid="{2171DB83-C08C-4469-A355-4F4619E0F1B5}"/>
+    <hyperlink ref="E105" r:id="rId568" xr:uid="{5D2B2BB9-AA2F-4A13-9FE2-88447FFB0BCF}"/>
+    <hyperlink ref="E104" r:id="rId569" xr:uid="{B65DCDE5-21C4-4223-B849-2149C6A6CF0D}"/>
+    <hyperlink ref="E103" r:id="rId570" xr:uid="{50CD7157-9B6D-48FE-B8EC-E10C41CB3ADC}"/>
+    <hyperlink ref="E102" r:id="rId571" xr:uid="{486D0B24-7A83-4B9F-8212-37F2D413527C}"/>
+    <hyperlink ref="E101" r:id="rId572" xr:uid="{C4886D18-2CF7-4CB1-ADA1-D8028ED80CE3}"/>
+    <hyperlink ref="E100" r:id="rId573" xr:uid="{23391495-C96A-46BB-9E58-1C369E60E07D}"/>
+    <hyperlink ref="E99" r:id="rId574" xr:uid="{1FF3BDB3-7F3F-49A3-A3FF-0BEA674FECAC}"/>
+    <hyperlink ref="E98" r:id="rId575" xr:uid="{2D1D0A2D-89EA-4F17-A78F-70CC0F30BB39}"/>
+    <hyperlink ref="E97" r:id="rId576" xr:uid="{64198822-9D92-4252-9D7B-BCAE56AE5E1B}"/>
+    <hyperlink ref="E96" r:id="rId577" xr:uid="{A81DB578-65B1-4769-AB78-5DACA4C73507}"/>
+    <hyperlink ref="E95" r:id="rId578" xr:uid="{C37A280A-D65B-4274-AFA3-678524CDF90F}"/>
+    <hyperlink ref="E94" r:id="rId579" xr:uid="{81BC00D8-456C-42C9-8B50-8A40C88A9706}"/>
+    <hyperlink ref="E93" r:id="rId580" xr:uid="{B48BA9BB-25B1-4FC1-AD8C-1FE9F3B03D95}"/>
+    <hyperlink ref="E92" r:id="rId581" xr:uid="{1B46F436-2132-4457-9951-BBCCCEB7415F}"/>
+    <hyperlink ref="E91" r:id="rId582" xr:uid="{A498B16E-8A88-4D9F-8CEE-8353683CB3F2}"/>
+    <hyperlink ref="E90" r:id="rId583" xr:uid="{9AADF92E-A232-4140-9DE9-853DD1B866BA}"/>
+    <hyperlink ref="E89" r:id="rId584" xr:uid="{69A3803A-9BCF-4851-A5F3-1BEE530A18E2}"/>
+    <hyperlink ref="E88" r:id="rId585" xr:uid="{03FE9B63-64D6-4588-BB5B-04834F6D200C}"/>
+    <hyperlink ref="E87" r:id="rId586" xr:uid="{9F559D4D-3B8F-427E-8B26-5D12BF1A36B6}"/>
+    <hyperlink ref="E86" r:id="rId587" xr:uid="{0EBE311A-873A-44D9-B353-8872247952A0}"/>
+    <hyperlink ref="E85" r:id="rId588" xr:uid="{BA0ACDD1-8386-4B85-B991-B7D03A4AEBB8}"/>
+    <hyperlink ref="E84" r:id="rId589" xr:uid="{FF592FC8-93D5-4654-82F6-8BAD953C2E8E}"/>
+    <hyperlink ref="E83" r:id="rId590" xr:uid="{68DF7A67-A0A5-44A4-8459-8E46BC48715F}"/>
+    <hyperlink ref="E82" r:id="rId591" xr:uid="{FBA44CFE-8CA5-468F-B346-57429D4CC465}"/>
+    <hyperlink ref="E81" r:id="rId592" xr:uid="{39FB47D1-6A6D-4E5B-BE00-809EA2869548}"/>
+    <hyperlink ref="E80" r:id="rId593" xr:uid="{CB14B6B0-F85A-45A3-ACEF-708D89220F91}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId594"/>

--- a/public/DataSiswa/Siswa1.xlsx
+++ b/public/DataSiswa/Siswa1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SIMPEOSIS\public\DataSiswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB5071-CC89-4D02-A828-1AF4BF92AEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451471B8-A248-4546-8996-CDE4877F2217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5504,7 +5504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5823,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G594"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A576" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5839,7 +5839,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>1013</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>1015</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>1016</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>20</v>
+        <v>1018</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>1019</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>22</v>
+        <v>1020</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>1021</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>1022</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>1023</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>1024</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>1025</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>1026</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>1027</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>1028</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>31</v>
+        <v>1029</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>32</v>
+        <v>1030</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>1031</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>34</v>
+        <v>1032</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>35</v>
+        <v>1033</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>36</v>
+        <v>1034</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>37</v>
+        <v>1035</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>38</v>
+        <v>1036</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>39</v>
+        <v>1037</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>40</v>
+        <v>1038</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41</v>
+        <v>1039</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42</v>
+        <v>1040</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43</v>
+        <v>1041</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44</v>
+        <v>1042</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45</v>
+        <v>1043</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>46</v>
+        <v>1044</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>47</v>
+        <v>1045</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>48</v>
+        <v>1046</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>49</v>
+        <v>1047</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>50</v>
+        <v>1048</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>51</v>
+        <v>1049</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>1050</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>1051</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>1052</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>1053</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>56</v>
+        <v>1054</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>57</v>
+        <v>1055</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>56</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>1056</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>59</v>
+        <v>1057</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>60</v>
+        <v>1058</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>1059</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>60</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>1060</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>61</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>1061</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>1062</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>63</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>1063</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>1064</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>1065</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>66</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68</v>
+        <v>1066</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>67</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>69</v>
+        <v>1067</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>70</v>
+        <v>1068</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>1069</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>70</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>72</v>
+        <v>1070</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>71</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>1071</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>72</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>1072</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>73</v>
@@ -7372,7 +7372,7 @@
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>1073</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>74</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>1074</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>1075</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>1076</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>1077</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>1078</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>1079</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>80</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>1080</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>81</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>1081</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>82</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>1082</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>83</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>1083</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>84</v>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>1084</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>1085</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>1086</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>87</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>1087</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>88</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>1088</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>89</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>1089</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>90</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>1090</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>1091</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>92</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>1092</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>1093</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>94</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>1094</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>95</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>1095</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>96</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>1096</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>97</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>1097</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>98</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>1098</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>99</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>1099</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>100</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>1100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>101</v>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>1101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>102</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>1102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>1103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>104</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>1104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>105</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>1105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>106</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>1106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>107</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>1107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>108</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>1108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>109</v>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>1109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>110</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>1110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>111</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>1111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>1112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>113</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>1113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>114</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>1114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>115</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>117</v>
+        <v>1115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>116</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>118</v>
+        <v>1116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>117</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>119</v>
+        <v>1117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>120</v>
+        <v>1118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>119</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>121</v>
+        <v>1119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>120</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>122</v>
+        <v>1120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>121</v>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>123</v>
+        <v>1121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>122</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>124</v>
+        <v>1122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>123</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>125</v>
+        <v>1123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>124</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>126</v>
+        <v>1124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>125</v>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>127</v>
+        <v>1125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>128</v>
+        <v>1126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>127</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>129</v>
+        <v>1127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>128</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>130</v>
+        <v>1128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>129</v>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>131</v>
+        <v>1129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>130</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>132</v>
+        <v>1130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>131</v>
@@ -8590,7 +8590,7 @@
     </row>
     <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>133</v>
+        <v>1131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>132</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>134</v>
+        <v>1132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>133</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>135</v>
+        <v>1133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>134</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>136</v>
+        <v>1134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>135</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>137</v>
+        <v>1135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>136</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>138</v>
+        <v>1136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>137</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>139</v>
+        <v>1137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>138</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>140</v>
+        <v>1138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>139</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>141</v>
+        <v>1139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>140</v>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>142</v>
+        <v>1140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>141</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>143</v>
+        <v>1141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>142</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>144</v>
+        <v>1142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>143</v>
@@ -8842,7 +8842,7 @@
     </row>
     <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>145</v>
+        <v>1143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>144</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>146</v>
+        <v>1144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>145</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>147</v>
+        <v>1145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>146</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>148</v>
+        <v>1146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>147</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>149</v>
+        <v>1147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>148</v>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>150</v>
+        <v>1148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>149</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>151</v>
+        <v>1149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>150</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>152</v>
+        <v>1150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>151</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>153</v>
+        <v>1151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>152</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>154</v>
+        <v>1152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>153</v>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>155</v>
+        <v>1153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>154</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>156</v>
+        <v>1154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>155</v>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>157</v>
+        <v>1155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>156</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>158</v>
+        <v>1156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>157</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>159</v>
+        <v>1157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>158</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>160</v>
+        <v>1158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>159</v>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>161</v>
+        <v>1159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>160</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>162</v>
+        <v>1160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>161</v>
@@ -9220,7 +9220,7 @@
     </row>
     <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>163</v>
+        <v>1161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>162</v>
@@ -9241,7 +9241,7 @@
     </row>
     <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>164</v>
+        <v>1162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>163</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>165</v>
+        <v>1163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>164</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>166</v>
+        <v>1164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>165</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>167</v>
+        <v>1165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>166</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>168</v>
+        <v>1166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>167</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>169</v>
+        <v>1167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>168</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>170</v>
+        <v>1168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>169</v>
@@ -9388,7 +9388,7 @@
     </row>
     <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>171</v>
+        <v>1169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>170</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>172</v>
+        <v>1170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>171</v>
@@ -9430,7 +9430,7 @@
     </row>
     <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>173</v>
+        <v>1171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>172</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>174</v>
+        <v>1172</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>173</v>
@@ -9472,7 +9472,7 @@
     </row>
     <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>175</v>
+        <v>1173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>174</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>176</v>
+        <v>1174</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>175</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>177</v>
+        <v>1175</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>176</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>178</v>
+        <v>1176</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>177</v>
@@ -9556,7 +9556,7 @@
     </row>
     <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>179</v>
+        <v>1177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>178</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>180</v>
+        <v>1178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>179</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>181</v>
+        <v>1179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>180</v>
@@ -9619,7 +9619,7 @@
     </row>
     <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>182</v>
+        <v>1180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>181</v>
@@ -9640,7 +9640,7 @@
     </row>
     <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>183</v>
+        <v>1181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>182</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>184</v>
+        <v>1182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>183</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>185</v>
+        <v>1183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>184</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>186</v>
+        <v>1184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>185</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>187</v>
+        <v>1185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>186</v>
@@ -9745,7 +9745,7 @@
     </row>
     <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>188</v>
+        <v>1186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>187</v>
@@ -9766,7 +9766,7 @@
     </row>
     <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>189</v>
+        <v>1187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>188</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>190</v>
+        <v>1188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>189</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>191</v>
+        <v>1189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>190</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>192</v>
+        <v>1190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>191</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>193</v>
+        <v>1191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>192</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>194</v>
+        <v>1192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>193</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>195</v>
+        <v>1193</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>194</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>196</v>
+        <v>1194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>195</v>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>197</v>
+        <v>1195</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>196</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>198</v>
+        <v>1196</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>197</v>
@@ -9976,7 +9976,7 @@
     </row>
     <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>199</v>
+        <v>1197</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>198</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>200</v>
+        <v>1198</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>199</v>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>201</v>
+        <v>1199</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>200</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>202</v>
+        <v>1200</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>201</v>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>203</v>
+        <v>1201</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>202</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>204</v>
+        <v>1202</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>203</v>
@@ -10102,7 +10102,7 @@
     </row>
     <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>205</v>
+        <v>1203</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>204</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>206</v>
+        <v>1204</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>205</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>207</v>
+        <v>1205</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>206</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>208</v>
+        <v>1206</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>207</v>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>209</v>
+        <v>1207</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>208</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>210</v>
+        <v>1208</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>209</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>211</v>
+        <v>1209</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>210</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>212</v>
+        <v>1210</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>211</v>
@@ -10270,7 +10270,7 @@
     </row>
     <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>213</v>
+        <v>1211</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>212</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>214</v>
+        <v>1212</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>213</v>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>215</v>
+        <v>1213</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>214</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>216</v>
+        <v>1214</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>215</v>
@@ -10354,7 +10354,7 @@
     </row>
     <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>217</v>
+        <v>1215</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>216</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>218</v>
+        <v>1216</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>217</v>
@@ -10396,7 +10396,7 @@
     </row>
     <row r="218" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>219</v>
+        <v>1217</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>218</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="219" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>220</v>
+        <v>1218</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>219</v>
@@ -10438,7 +10438,7 @@
     </row>
     <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>221</v>
+        <v>1219</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>220</v>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>222</v>
+        <v>1220</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>221</v>
@@ -10480,7 +10480,7 @@
     </row>
     <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>223</v>
+        <v>1221</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>222</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>224</v>
+        <v>1222</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>223</v>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>225</v>
+        <v>1223</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>224</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>226</v>
+        <v>1224</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>225</v>
@@ -10564,7 +10564,7 @@
     </row>
     <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>227</v>
+        <v>1225</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>226</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>228</v>
+        <v>1226</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>227</v>
@@ -10606,7 +10606,7 @@
     </row>
     <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>229</v>
+        <v>1227</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>228</v>
@@ -10627,7 +10627,7 @@
     </row>
     <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>230</v>
+        <v>1228</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>229</v>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>231</v>
+        <v>1229</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>230</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>232</v>
+        <v>1230</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>231</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>233</v>
+        <v>1231</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>232</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>234</v>
+        <v>1232</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>233</v>
@@ -10732,7 +10732,7 @@
     </row>
     <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>235</v>
+        <v>1233</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>234</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>236</v>
+        <v>1234</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>235</v>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>237</v>
+        <v>1235</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>236</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="237" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>238</v>
+        <v>1236</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>237</v>
@@ -10816,7 +10816,7 @@
     </row>
     <row r="238" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>239</v>
+        <v>1237</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>238</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="239" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>240</v>
+        <v>1238</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>239</v>
@@ -10858,7 +10858,7 @@
     </row>
     <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>241</v>
+        <v>1239</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>240</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>242</v>
+        <v>1240</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>241</v>
@@ -10900,7 +10900,7 @@
     </row>
     <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>242</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>244</v>
+        <v>1242</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>243</v>
@@ -10942,7 +10942,7 @@
     </row>
     <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>245</v>
+        <v>1243</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>244</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>246</v>
+        <v>1244</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>245</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>247</v>
+        <v>1245</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>246</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="247" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>248</v>
+        <v>1246</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>247</v>
@@ -11026,7 +11026,7 @@
     </row>
     <row r="248" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>249</v>
+        <v>1247</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>248</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="249" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>250</v>
+        <v>1248</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>249</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="250" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>251</v>
+        <v>1249</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>250</v>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="251" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>252</v>
+        <v>1250</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>251</v>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="252" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>253</v>
+        <v>1251</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>252</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="253" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>254</v>
+        <v>1252</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>253</v>
@@ -11152,7 +11152,7 @@
     </row>
     <row r="254" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>255</v>
+        <v>1253</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>254</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>256</v>
+        <v>1254</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>255</v>
@@ -11194,7 +11194,7 @@
     </row>
     <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>257</v>
+        <v>1255</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>256</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="257" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>258</v>
+        <v>1256</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>257</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>259</v>
+        <v>1257</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>258</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>260</v>
+        <v>1258</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>259</v>
@@ -11278,7 +11278,7 @@
     </row>
     <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>261</v>
+        <v>1259</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>260</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="261" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>262</v>
+        <v>1260</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>261</v>
@@ -11320,7 +11320,7 @@
     </row>
     <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>263</v>
+        <v>1261</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>262</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>264</v>
+        <v>1262</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>263</v>
@@ -11362,7 +11362,7 @@
     </row>
     <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>265</v>
+        <v>1263</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>264</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="265" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>266</v>
+        <v>1264</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>265</v>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>267</v>
+        <v>1265</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>266</v>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>268</v>
+        <v>1266</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>267</v>
@@ -11446,7 +11446,7 @@
     </row>
     <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>269</v>
+        <v>1267</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>268</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="269" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>270</v>
+        <v>1268</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>269</v>
@@ -11488,7 +11488,7 @@
     </row>
     <row r="270" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>271</v>
+        <v>1269</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>270</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="271" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>272</v>
+        <v>1270</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>271</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="272" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>273</v>
+        <v>1271</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>272</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>274</v>
+        <v>1272</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>273</v>
@@ -11572,7 +11572,7 @@
     </row>
     <row r="274" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>275</v>
+        <v>1273</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>274</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="275" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>276</v>
+        <v>1274</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>275</v>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="276" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>277</v>
+        <v>1275</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>276</v>
@@ -11635,7 +11635,7 @@
     </row>
     <row r="277" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>278</v>
+        <v>1276</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>277</v>
@@ -11656,7 +11656,7 @@
     </row>
     <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>279</v>
+        <v>1277</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>278</v>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="279" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>280</v>
+        <v>1278</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>279</v>
@@ -11698,7 +11698,7 @@
     </row>
     <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>281</v>
+        <v>1279</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>280</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="281" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>282</v>
+        <v>1280</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>281</v>
@@ -11740,7 +11740,7 @@
     </row>
     <row r="282" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>283</v>
+        <v>1281</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>282</v>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="283" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>284</v>
+        <v>1282</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>283</v>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="284" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>285</v>
+        <v>1283</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>284</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="285" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>286</v>
+        <v>1284</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>285</v>
@@ -11824,7 +11824,7 @@
     </row>
     <row r="286" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>287</v>
+        <v>1285</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>286</v>
@@ -11845,7 +11845,7 @@
     </row>
     <row r="287" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>288</v>
+        <v>1286</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>287</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="288" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>289</v>
+        <v>1287</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>288</v>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="289" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>290</v>
+        <v>1288</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>289</v>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="290" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>291</v>
+        <v>1289</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>290</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="291" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>292</v>
+        <v>1290</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>291</v>
@@ -11950,7 +11950,7 @@
     </row>
     <row r="292" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>293</v>
+        <v>1291</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>292</v>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="293" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>294</v>
+        <v>1292</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>293</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="294" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>295</v>
+        <v>1293</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>294</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="295" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>296</v>
+        <v>1294</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>295</v>
@@ -12034,7 +12034,7 @@
     </row>
     <row r="296" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>297</v>
+        <v>1295</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>296</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="297" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>298</v>
+        <v>1296</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>297</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="298" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>299</v>
+        <v>1297</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>298</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="299" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>300</v>
+        <v>1298</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>299</v>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="300" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>301</v>
+        <v>1299</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>300</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="301" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>302</v>
+        <v>1300</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>301</v>
@@ -12160,7 +12160,7 @@
     </row>
     <row r="302" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>303</v>
+        <v>1301</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>302</v>
@@ -12181,7 +12181,7 @@
     </row>
     <row r="303" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>304</v>
+        <v>1302</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>303</v>
@@ -12202,7 +12202,7 @@
     </row>
     <row r="304" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>305</v>
+        <v>1303</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>304</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="305" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>306</v>
+        <v>1304</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>305</v>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="306" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>307</v>
+        <v>1305</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>306</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="307" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>308</v>
+        <v>1306</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>307</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="308" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>309</v>
+        <v>1307</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>308</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="309" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>310</v>
+        <v>1308</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>309</v>
@@ -12328,7 +12328,7 @@
     </row>
     <row r="310" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>311</v>
+        <v>1309</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>310</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="311" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>312</v>
+        <v>1310</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>311</v>
@@ -12370,7 +12370,7 @@
     </row>
     <row r="312" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>313</v>
+        <v>1311</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>312</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="313" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>314</v>
+        <v>1312</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>313</v>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="314" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>315</v>
+        <v>1313</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>314</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="315" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>316</v>
+        <v>1314</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>315</v>
@@ -12454,7 +12454,7 @@
     </row>
     <row r="316" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>317</v>
+        <v>1315</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>316</v>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="317" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>318</v>
+        <v>1316</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>317</v>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="318" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>319</v>
+        <v>1317</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>318</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="319" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>320</v>
+        <v>1318</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>319</v>
@@ -12538,7 +12538,7 @@
     </row>
     <row r="320" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>321</v>
+        <v>1319</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>320</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="321" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>322</v>
+        <v>1320</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>321</v>
@@ -12580,7 +12580,7 @@
     </row>
     <row r="322" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>323</v>
+        <v>1321</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>322</v>
@@ -12601,7 +12601,7 @@
     </row>
     <row r="323" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>324</v>
+        <v>1322</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>323</v>
@@ -12622,7 +12622,7 @@
     </row>
     <row r="324" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>325</v>
+        <v>1323</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>324</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="325" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>326</v>
+        <v>1324</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>325</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="326" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>327</v>
+        <v>1325</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>326</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="327" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>328</v>
+        <v>1326</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>327</v>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="328" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>329</v>
+        <v>1327</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>328</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="329" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>330</v>
+        <v>1328</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>329</v>
@@ -12748,7 +12748,7 @@
     </row>
     <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>331</v>
+        <v>1329</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>330</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>332</v>
+        <v>1330</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>331</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>333</v>
+        <v>1331</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>332</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="333" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>334</v>
+        <v>1332</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>333</v>
@@ -12832,7 +12832,7 @@
     </row>
     <row r="334" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>335</v>
+        <v>1333</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>334</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="335" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>336</v>
+        <v>1334</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>335</v>
@@ -12874,7 +12874,7 @@
     </row>
     <row r="336" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>337</v>
+        <v>1335</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>336</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>338</v>
+        <v>1336</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>337</v>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>339</v>
+        <v>1337</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>338</v>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="339" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>340</v>
+        <v>1338</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>339</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="340" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>341</v>
+        <v>1339</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>340</v>
@@ -12979,7 +12979,7 @@
     </row>
     <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>342</v>
+        <v>1340</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>341</v>
@@ -13000,7 +13000,7 @@
     </row>
     <row r="342" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>343</v>
+        <v>1341</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>342</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="343" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>344</v>
+        <v>1342</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>343</v>
@@ -13042,7 +13042,7 @@
     </row>
     <row r="344" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>345</v>
+        <v>1343</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>344</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="345" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>346</v>
+        <v>1344</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>345</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="346" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>347</v>
+        <v>1345</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>346</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="347" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>348</v>
+        <v>1346</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>347</v>
@@ -13126,7 +13126,7 @@
     </row>
     <row r="348" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>349</v>
+        <v>1347</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>348</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="349" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>350</v>
+        <v>1348</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>349</v>
@@ -13168,7 +13168,7 @@
     </row>
     <row r="350" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>351</v>
+        <v>1349</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>350</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="351" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>352</v>
+        <v>1350</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>351</v>
@@ -13210,7 +13210,7 @@
     </row>
     <row r="352" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>353</v>
+        <v>1351</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>352</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="353" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>354</v>
+        <v>1352</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>353</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="354" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>355</v>
+        <v>1353</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>354</v>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="355" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>356</v>
+        <v>1354</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>355</v>
@@ -13294,7 +13294,7 @@
     </row>
     <row r="356" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>357</v>
+        <v>1355</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>356</v>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="357" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>358</v>
+        <v>1356</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>357</v>
@@ -13336,7 +13336,7 @@
     </row>
     <row r="358" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>359</v>
+        <v>1357</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>358</v>
@@ -13357,7 +13357,7 @@
     </row>
     <row r="359" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>360</v>
+        <v>1358</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>359</v>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="360" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>361</v>
+        <v>1359</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>360</v>
@@ -13399,7 +13399,7 @@
     </row>
     <row r="361" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>362</v>
+        <v>1360</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>361</v>
@@ -13420,7 +13420,7 @@
     </row>
     <row r="362" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>363</v>
+        <v>1361</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>362</v>
@@ -13441,7 +13441,7 @@
     </row>
     <row r="363" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>364</v>
+        <v>1362</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>363</v>
@@ -13462,7 +13462,7 @@
     </row>
     <row r="364" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>365</v>
+        <v>1363</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>364</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="365" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>366</v>
+        <v>1364</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>365</v>
@@ -13504,7 +13504,7 @@
     </row>
     <row r="366" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>367</v>
+        <v>1365</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>366</v>
@@ -13525,7 +13525,7 @@
     </row>
     <row r="367" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>368</v>
+        <v>1366</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>367</v>
@@ -13546,7 +13546,7 @@
     </row>
     <row r="368" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>369</v>
+        <v>1367</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>368</v>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="369" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>369</v>
@@ -13588,7 +13588,7 @@
     </row>
     <row r="370" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>371</v>
+        <v>1369</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>370</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="371" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>372</v>
+        <v>1370</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>371</v>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="372" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>373</v>
+        <v>1371</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>372</v>
@@ -13651,7 +13651,7 @@
     </row>
     <row r="373" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>374</v>
+        <v>1372</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>373</v>
@@ -13672,7 +13672,7 @@
     </row>
     <row r="374" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>375</v>
+        <v>1373</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>374</v>
@@ -13693,7 +13693,7 @@
     </row>
     <row r="375" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>376</v>
+        <v>1374</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>375</v>
@@ -13714,7 +13714,7 @@
     </row>
     <row r="376" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>377</v>
+        <v>1375</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>376</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="377" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>378</v>
+        <v>1376</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>377</v>
@@ -13756,7 +13756,7 @@
     </row>
     <row r="378" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>379</v>
+        <v>1377</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>378</v>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="379" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>380</v>
+        <v>1378</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>379</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="380" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>381</v>
+        <v>1379</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>380</v>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="381" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>382</v>
+        <v>1380</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>381</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="382" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>383</v>
+        <v>1381</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>382</v>
@@ -13861,7 +13861,7 @@
     </row>
     <row r="383" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>384</v>
+        <v>1382</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>383</v>
@@ -13882,7 +13882,7 @@
     </row>
     <row r="384" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>385</v>
+        <v>1383</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>384</v>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="385" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>386</v>
+        <v>1384</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>385</v>
@@ -13924,7 +13924,7 @@
     </row>
     <row r="386" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>387</v>
+        <v>1385</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>386</v>
@@ -13945,7 +13945,7 @@
     </row>
     <row r="387" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>388</v>
+        <v>1386</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>387</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="388" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>389</v>
+        <v>1387</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>388</v>
@@ -13987,7 +13987,7 @@
     </row>
     <row r="389" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>390</v>
+        <v>1388</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>389</v>
@@ -14008,7 +14008,7 @@
     </row>
     <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>391</v>
+        <v>1389</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>390</v>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="391" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>392</v>
+        <v>1390</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>391</v>
@@ -14050,7 +14050,7 @@
     </row>
     <row r="392" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>393</v>
+        <v>1391</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>392</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="393" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>394</v>
+        <v>1392</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>393</v>
@@ -14092,7 +14092,7 @@
     </row>
     <row r="394" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>395</v>
+        <v>1393</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>394</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="395" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>396</v>
+        <v>1394</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>395</v>
@@ -14134,7 +14134,7 @@
     </row>
     <row r="396" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>397</v>
+        <v>1395</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>396</v>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="397" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>398</v>
+        <v>1396</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>397</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="398" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>399</v>
+        <v>1397</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>398</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="399" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>400</v>
+        <v>1398</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>399</v>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="400" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>401</v>
+        <v>1399</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>400</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="401" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>402</v>
+        <v>1400</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>401</v>
@@ -14260,7 +14260,7 @@
     </row>
     <row r="402" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>403</v>
+        <v>1401</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>402</v>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="403" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>404</v>
+        <v>1402</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>403</v>
@@ -14302,7 +14302,7 @@
     </row>
     <row r="404" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>405</v>
+        <v>1403</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>404</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="405" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>406</v>
+        <v>1404</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>405</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="406" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>407</v>
+        <v>1405</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>406</v>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="407" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>408</v>
+        <v>1406</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>407</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="408" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>409</v>
+        <v>1407</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>408</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="409" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>410</v>
+        <v>1408</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>409</v>
@@ -14428,7 +14428,7 @@
     </row>
     <row r="410" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>411</v>
+        <v>1409</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>410</v>
@@ -14449,7 +14449,7 @@
     </row>
     <row r="411" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>412</v>
+        <v>1410</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>411</v>
@@ -14470,7 +14470,7 @@
     </row>
     <row r="412" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>413</v>
+        <v>1411</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>412</v>
@@ -14491,7 +14491,7 @@
     </row>
     <row r="413" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>414</v>
+        <v>1412</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>413</v>
@@ -14512,7 +14512,7 @@
     </row>
     <row r="414" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>415</v>
+        <v>1413</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>414</v>
@@ -14533,7 +14533,7 @@
     </row>
     <row r="415" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>416</v>
+        <v>1414</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>415</v>
@@ -14554,7 +14554,7 @@
     </row>
     <row r="416" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>417</v>
+        <v>1415</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>416</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="417" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>418</v>
+        <v>1416</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>417</v>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="418" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>419</v>
+        <v>1417</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>418</v>
@@ -14617,7 +14617,7 @@
     </row>
     <row r="419" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>420</v>
+        <v>1418</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>419</v>
@@ -14638,7 +14638,7 @@
     </row>
     <row r="420" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>421</v>
+        <v>1419</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>420</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="421" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>422</v>
+        <v>1420</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>421</v>
@@ -14680,7 +14680,7 @@
     </row>
     <row r="422" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>423</v>
+        <v>1421</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>422</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="423" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>424</v>
+        <v>1422</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>423</v>
@@ -14722,7 +14722,7 @@
     </row>
     <row r="424" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>425</v>
+        <v>1423</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>424</v>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="425" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>426</v>
+        <v>1424</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>425</v>
@@ -14764,7 +14764,7 @@
     </row>
     <row r="426" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>427</v>
+        <v>1425</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>426</v>
@@ -14785,7 +14785,7 @@
     </row>
     <row r="427" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>428</v>
+        <v>1426</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>427</v>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="428" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>429</v>
+        <v>1427</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>428</v>
@@ -14827,7 +14827,7 @@
     </row>
     <row r="429" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>430</v>
+        <v>1428</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>429</v>
@@ -14848,7 +14848,7 @@
     </row>
     <row r="430" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>431</v>
+        <v>1429</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>430</v>
@@ -14869,7 +14869,7 @@
     </row>
     <row r="431" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>432</v>
+        <v>1430</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>431</v>
@@ -14890,7 +14890,7 @@
     </row>
     <row r="432" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>433</v>
+        <v>1431</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>432</v>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="433" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>434</v>
+        <v>1432</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>433</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="434" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>435</v>
+        <v>1433</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>434</v>
@@ -14953,7 +14953,7 @@
     </row>
     <row r="435" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>436</v>
+        <v>1434</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>435</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="436" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>437</v>
+        <v>1435</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>436</v>
@@ -14995,7 +14995,7 @@
     </row>
     <row r="437" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>438</v>
+        <v>1436</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>437</v>
@@ -15016,7 +15016,7 @@
     </row>
     <row r="438" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>439</v>
+        <v>1437</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>438</v>
@@ -15037,7 +15037,7 @@
     </row>
     <row r="439" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>440</v>
+        <v>1438</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>439</v>
@@ -15058,7 +15058,7 @@
     </row>
     <row r="440" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>441</v>
+        <v>1439</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>440</v>
@@ -15079,7 +15079,7 @@
     </row>
     <row r="441" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>442</v>
+        <v>1440</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>441</v>
@@ -15100,7 +15100,7 @@
     </row>
     <row r="442" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>443</v>
+        <v>1441</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>442</v>
@@ -15121,7 +15121,7 @@
     </row>
     <row r="443" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>444</v>
+        <v>1442</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>443</v>
@@ -15142,7 +15142,7 @@
     </row>
     <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>445</v>
+        <v>1443</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>444</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>446</v>
+        <v>1444</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>445</v>
@@ -15184,7 +15184,7 @@
     </row>
     <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>447</v>
+        <v>1445</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>446</v>
@@ -15205,7 +15205,7 @@
     </row>
     <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>448</v>
+        <v>1446</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>447</v>
@@ -15226,7 +15226,7 @@
     </row>
     <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>449</v>
+        <v>1447</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>448</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>450</v>
+        <v>1448</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>449</v>
@@ -15268,7 +15268,7 @@
     </row>
     <row r="450" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>451</v>
+        <v>1449</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>450</v>
@@ -15289,7 +15289,7 @@
     </row>
     <row r="451" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>452</v>
+        <v>1450</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>451</v>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="452" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>453</v>
+        <v>1451</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>452</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="453" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>454</v>
+        <v>1452</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>453</v>
@@ -15352,7 +15352,7 @@
     </row>
     <row r="454" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>455</v>
+        <v>1453</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>454</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="455" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>456</v>
+        <v>1454</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>455</v>
@@ -15394,7 +15394,7 @@
     </row>
     <row r="456" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>457</v>
+        <v>1455</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>456</v>
@@ -15415,7 +15415,7 @@
     </row>
     <row r="457" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>458</v>
+        <v>1456</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>457</v>
@@ -15436,7 +15436,7 @@
     </row>
     <row r="458" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>459</v>
+        <v>1457</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>458</v>
@@ -15457,7 +15457,7 @@
     </row>
     <row r="459" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>460</v>
+        <v>1458</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>459</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="460" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>461</v>
+        <v>1459</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>460</v>
@@ -15499,7 +15499,7 @@
     </row>
     <row r="461" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>462</v>
+        <v>1460</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>461</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="462" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>463</v>
+        <v>1461</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>462</v>
@@ -15541,7 +15541,7 @@
     </row>
     <row r="463" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>464</v>
+        <v>1462</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>463</v>
@@ -15562,7 +15562,7 @@
     </row>
     <row r="464" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>465</v>
+        <v>1463</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>464</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="465" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>466</v>
+        <v>1464</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>465</v>
@@ -15604,7 +15604,7 @@
     </row>
     <row r="466" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>467</v>
+        <v>1465</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>466</v>
@@ -15625,7 +15625,7 @@
     </row>
     <row r="467" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>468</v>
+        <v>1466</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>467</v>
@@ -15646,7 +15646,7 @@
     </row>
     <row r="468" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>469</v>
+        <v>1467</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>468</v>
@@ -15667,7 +15667,7 @@
     </row>
     <row r="469" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>470</v>
+        <v>1468</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>469</v>
@@ -15688,7 +15688,7 @@
     </row>
     <row r="470" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>471</v>
+        <v>1469</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>470</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="471" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>472</v>
+        <v>1470</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>471</v>
@@ -15730,7 +15730,7 @@
     </row>
     <row r="472" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>473</v>
+        <v>1471</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>472</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="473" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>474</v>
+        <v>1472</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>473</v>
@@ -15772,7 +15772,7 @@
     </row>
     <row r="474" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>475</v>
+        <v>1473</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>474</v>
@@ -15793,7 +15793,7 @@
     </row>
     <row r="475" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>476</v>
+        <v>1474</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>475</v>
@@ -15814,7 +15814,7 @@
     </row>
     <row r="476" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>477</v>
+        <v>1475</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>476</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="477" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>478</v>
+        <v>1476</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>477</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="478" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>479</v>
+        <v>1477</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>478</v>
@@ -15877,7 +15877,7 @@
     </row>
     <row r="479" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>480</v>
+        <v>1478</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>479</v>
@@ -15898,7 +15898,7 @@
     </row>
     <row r="480" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>481</v>
+        <v>1479</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>480</v>
@@ -15919,7 +15919,7 @@
     </row>
     <row r="481" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>482</v>
+        <v>1480</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>481</v>
@@ -15940,7 +15940,7 @@
     </row>
     <row r="482" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>483</v>
+        <v>1481</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>482</v>
@@ -15961,7 +15961,7 @@
     </row>
     <row r="483" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>484</v>
+        <v>1482</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>483</v>
@@ -15982,7 +15982,7 @@
     </row>
     <row r="484" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>485</v>
+        <v>1483</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>484</v>
@@ -16003,7 +16003,7 @@
     </row>
     <row r="485" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>486</v>
+        <v>1484</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>485</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="486" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>487</v>
+        <v>1485</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>486</v>
@@ -16045,7 +16045,7 @@
     </row>
     <row r="487" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>488</v>
+        <v>1486</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>487</v>
@@ -16066,7 +16066,7 @@
     </row>
     <row r="488" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>489</v>
+        <v>1487</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>488</v>
@@ -16087,7 +16087,7 @@
     </row>
     <row r="489" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>490</v>
+        <v>1488</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>489</v>
@@ -16108,7 +16108,7 @@
     </row>
     <row r="490" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>491</v>
+        <v>1489</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>490</v>
@@ -16129,7 +16129,7 @@
     </row>
     <row r="491" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>492</v>
+        <v>1490</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>491</v>
@@ -16150,7 +16150,7 @@
     </row>
     <row r="492" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>493</v>
+        <v>1491</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>492</v>
@@ -16171,7 +16171,7 @@
     </row>
     <row r="493" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>494</v>
+        <v>1492</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>493</v>
@@ -16192,7 +16192,7 @@
     </row>
     <row r="494" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>495</v>
+        <v>1493</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>494</v>
@@ -16213,7 +16213,7 @@
     </row>
     <row r="495" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>496</v>
+        <v>1494</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>495</v>
@@ -16234,7 +16234,7 @@
     </row>
     <row r="496" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>497</v>
+        <v>1495</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>496</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="497" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>498</v>
+        <v>1496</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>497</v>
@@ -16276,7 +16276,7 @@
     </row>
     <row r="498" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>499</v>
+        <v>1497</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>498</v>
@@ -16297,7 +16297,7 @@
     </row>
     <row r="499" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>500</v>
+        <v>1498</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>499</v>
@@ -16318,7 +16318,7 @@
     </row>
     <row r="500" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>501</v>
+        <v>1499</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>500</v>
@@ -16339,7 +16339,7 @@
     </row>
     <row r="501" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>502</v>
+        <v>1500</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>501</v>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="502" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>503</v>
+        <v>1501</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>502</v>
@@ -16381,7 +16381,7 @@
     </row>
     <row r="503" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>504</v>
+        <v>1502</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>503</v>
@@ -16402,7 +16402,7 @@
     </row>
     <row r="504" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>505</v>
+        <v>1503</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>504</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="505" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>506</v>
+        <v>1504</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>505</v>
@@ -16444,7 +16444,7 @@
     </row>
     <row r="506" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>507</v>
+        <v>1505</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>506</v>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="507" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>508</v>
+        <v>1506</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>507</v>
@@ -16486,7 +16486,7 @@
     </row>
     <row r="508" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>509</v>
+        <v>1507</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>508</v>
@@ -16507,7 +16507,7 @@
     </row>
     <row r="509" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>510</v>
+        <v>1508</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>509</v>
@@ -16528,7 +16528,7 @@
     </row>
     <row r="510" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>511</v>
+        <v>1509</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>510</v>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="511" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>512</v>
+        <v>1510</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>511</v>
@@ -16570,7 +16570,7 @@
     </row>
     <row r="512" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>513</v>
+        <v>1511</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>512</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="513" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>514</v>
+        <v>1512</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>513</v>
@@ -16612,7 +16612,7 @@
     </row>
     <row r="514" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>515</v>
+        <v>1513</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>514</v>
@@ -16633,7 +16633,7 @@
     </row>
     <row r="515" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>516</v>
+        <v>1514</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>515</v>
@@ -16654,7 +16654,7 @@
     </row>
     <row r="516" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>517</v>
+        <v>1515</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>516</v>
@@ -16675,7 +16675,7 @@
     </row>
     <row r="517" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>518</v>
+        <v>1516</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>517</v>
@@ -16696,7 +16696,7 @@
     </row>
     <row r="518" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>519</v>
+        <v>1517</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>518</v>
@@ -16717,7 +16717,7 @@
     </row>
     <row r="519" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>520</v>
+        <v>1518</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>519</v>
@@ -16738,7 +16738,7 @@
     </row>
     <row r="520" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>521</v>
+        <v>1519</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>520</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="521" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>522</v>
+        <v>1520</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>521</v>
@@ -16780,7 +16780,7 @@
     </row>
     <row r="522" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>523</v>
+        <v>1521</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>522</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="523" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>524</v>
+        <v>1522</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>523</v>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="524" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>525</v>
+        <v>1523</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>524</v>
@@ -16843,7 +16843,7 @@
     </row>
     <row r="525" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>526</v>
+        <v>1524</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>525</v>
@@ -16864,7 +16864,7 @@
     </row>
     <row r="526" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>527</v>
+        <v>1525</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>526</v>
@@ -16885,7 +16885,7 @@
     </row>
     <row r="527" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>528</v>
+        <v>1526</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>527</v>
@@ -16906,7 +16906,7 @@
     </row>
     <row r="528" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>529</v>
+        <v>1527</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>528</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="529" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>530</v>
+        <v>1528</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>529</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="530" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>531</v>
+        <v>1529</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>530</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="531" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>532</v>
+        <v>1530</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>531</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="532" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>533</v>
+        <v>1531</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>532</v>
@@ -17011,7 +17011,7 @@
     </row>
     <row r="533" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>534</v>
+        <v>1532</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>533</v>
@@ -17032,7 +17032,7 @@
     </row>
     <row r="534" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>535</v>
+        <v>1533</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>534</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="535" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>536</v>
+        <v>1534</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>535</v>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="536" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>537</v>
+        <v>1535</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>536</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="537" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>538</v>
+        <v>1536</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>537</v>
@@ -17116,7 +17116,7 @@
     </row>
     <row r="538" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>539</v>
+        <v>1537</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>538</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="539" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>540</v>
+        <v>1538</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>539</v>
@@ -17158,7 +17158,7 @@
     </row>
     <row r="540" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>541</v>
+        <v>1539</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>540</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="541" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>542</v>
+        <v>1540</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>541</v>
@@ -17200,7 +17200,7 @@
     </row>
     <row r="542" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>543</v>
+        <v>1541</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>542</v>
@@ -17221,7 +17221,7 @@
     </row>
     <row r="543" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>544</v>
+        <v>1542</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>543</v>
@@ -17242,7 +17242,7 @@
     </row>
     <row r="544" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>545</v>
+        <v>1543</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>544</v>
@@ -17263,7 +17263,7 @@
     </row>
     <row r="545" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>546</v>
+        <v>1544</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>545</v>
@@ -17284,7 +17284,7 @@
     </row>
     <row r="546" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>547</v>
+        <v>1545</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>546</v>
@@ -17305,7 +17305,7 @@
     </row>
     <row r="547" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>548</v>
+        <v>1546</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>547</v>
@@ -17326,7 +17326,7 @@
     </row>
     <row r="548" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>549</v>
+        <v>1547</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>548</v>
@@ -17347,7 +17347,7 @@
     </row>
     <row r="549" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>550</v>
+        <v>1548</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>549</v>
@@ -17368,7 +17368,7 @@
     </row>
     <row r="550" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>551</v>
+        <v>1549</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>550</v>
@@ -17389,7 +17389,7 @@
     </row>
     <row r="551" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>552</v>
+        <v>1550</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>551</v>
@@ -17410,7 +17410,7 @@
     </row>
     <row r="552" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>553</v>
+        <v>1551</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>552</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="553" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>554</v>
+        <v>1552</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>553</v>
@@ -17452,7 +17452,7 @@
     </row>
     <row r="554" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>555</v>
+        <v>1553</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>554</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="555" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>556</v>
+        <v>1554</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>555</v>
@@ -17494,7 +17494,7 @@
     </row>
     <row r="556" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>557</v>
+        <v>1555</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>556</v>
@@ -17515,7 +17515,7 @@
     </row>
     <row r="557" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>558</v>
+        <v>1556</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>557</v>
@@ -17536,7 +17536,7 @@
     </row>
     <row r="558" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>559</v>
+        <v>1557</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>558</v>
@@ -17557,7 +17557,7 @@
     </row>
     <row r="559" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>560</v>
+        <v>1558</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>559</v>
@@ -17578,7 +17578,7 @@
     </row>
     <row r="560" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>561</v>
+        <v>1559</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>560</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="561" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>562</v>
+        <v>1560</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>561</v>
@@ -17620,7 +17620,7 @@
     </row>
     <row r="562" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>563</v>
+        <v>1561</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>562</v>
@@ -17641,7 +17641,7 @@
     </row>
     <row r="563" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>564</v>
+        <v>1562</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>563</v>
@@ -17662,7 +17662,7 @@
     </row>
     <row r="564" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>565</v>
+        <v>1563</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>564</v>
@@ -17683,7 +17683,7 @@
     </row>
     <row r="565" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>566</v>
+        <v>1564</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>565</v>
@@ -17704,7 +17704,7 @@
     </row>
     <row r="566" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>567</v>
+        <v>1565</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>566</v>
@@ -17725,7 +17725,7 @@
     </row>
     <row r="567" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>568</v>
+        <v>1566</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>567</v>
@@ -17746,7 +17746,7 @@
     </row>
     <row r="568" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>569</v>
+        <v>1567</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>568</v>
@@ -17767,7 +17767,7 @@
     </row>
     <row r="569" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>570</v>
+        <v>1568</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>569</v>
@@ -17788,7 +17788,7 @@
     </row>
     <row r="570" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>571</v>
+        <v>1569</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>570</v>
@@ -17809,7 +17809,7 @@
     </row>
     <row r="571" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>572</v>
+        <v>1570</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>571</v>
@@ -17830,7 +17830,7 @@
     </row>
     <row r="572" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>573</v>
+        <v>1571</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>572</v>
@@ -17851,7 +17851,7 @@
     </row>
     <row r="573" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>574</v>
+        <v>1572</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>573</v>
@@ -17872,7 +17872,7 @@
     </row>
     <row r="574" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>575</v>
+        <v>1573</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>574</v>
@@ -17893,7 +17893,7 @@
     </row>
     <row r="575" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>576</v>
+        <v>1574</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>575</v>
@@ -17914,7 +17914,7 @@
     </row>
     <row r="576" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>577</v>
+        <v>1575</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>576</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="577" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>578</v>
+        <v>1576</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>577</v>
@@ -17956,7 +17956,7 @@
     </row>
     <row r="578" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>579</v>
+        <v>1577</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>578</v>
@@ -17977,7 +17977,7 @@
     </row>
     <row r="579" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>580</v>
+        <v>1578</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>579</v>
@@ -17998,7 +17998,7 @@
     </row>
     <row r="580" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>581</v>
+        <v>1579</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>580</v>
@@ -18019,7 +18019,7 @@
     </row>
     <row r="581" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>582</v>
+        <v>1580</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>581</v>
@@ -18040,7 +18040,7 @@
     </row>
     <row r="582" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>583</v>
+        <v>1581</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>582</v>
@@ -18061,7 +18061,7 @@
     </row>
     <row r="583" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>584</v>
+        <v>1582</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>583</v>
@@ -18082,7 +18082,7 @@
     </row>
     <row r="584" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>585</v>
+        <v>1583</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>584</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="585" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>586</v>
+        <v>1584</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>585</v>
@@ -18124,7 +18124,7 @@
     </row>
     <row r="586" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>587</v>
+        <v>1585</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>586</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="587" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>588</v>
+        <v>1586</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>587</v>
@@ -18166,7 +18166,7 @@
     </row>
     <row r="588" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>589</v>
+        <v>1587</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>588</v>
@@ -18187,7 +18187,7 @@
     </row>
     <row r="589" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>590</v>
+        <v>1588</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>589</v>
@@ -18208,7 +18208,7 @@
     </row>
     <row r="590" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>591</v>
+        <v>1589</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>590</v>
@@ -18229,7 +18229,7 @@
     </row>
     <row r="591" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>592</v>
+        <v>1590</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>591</v>
@@ -18250,7 +18250,7 @@
     </row>
     <row r="592" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>593</v>
+        <v>1591</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>592</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="593" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>594</v>
+        <v>1592</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>593</v>
@@ -18292,7 +18292,7 @@
     </row>
     <row r="594" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>595</v>
+        <v>1593</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>594</v>
